--- a/src/testes/TabelaSLR_Debug.xlsx
+++ b/src/testes/TabelaSLR_Debug.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1215" windowWidth="14340" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14340" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="245">
   <si>
     <t>S19</t>
   </si>
@@ -834,8 +837,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1113,10 +1144,10 @@
   <dimension ref="A1:CG172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ23" sqref="AZ23"/>
+      <selection pane="bottomRight" activeCell="BF4" sqref="BF4:BF176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1786,7 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
-      <c r="BF4" s="1" t="s">
+      <c r="BF4" t="s">
         <v>11</v>
       </c>
       <c r="BG4" s="1"/>
@@ -1846,7 +1877,7 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
-      <c r="BF5" s="1" t="s">
+      <c r="BF5" t="s">
         <v>12</v>
       </c>
       <c r="BG5" s="1"/>
@@ -1941,7 +1972,9 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
+      <c r="BF6" t="s">
+        <v>13</v>
+      </c>
       <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
@@ -2034,7 +2067,9 @@
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
+      <c r="BF7" t="s">
+        <v>15</v>
+      </c>
       <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
@@ -2127,7 +2162,9 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
+      <c r="BF8" t="s">
+        <v>16</v>
+      </c>
       <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
@@ -2220,7 +2257,9 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
+      <c r="BF9" t="s">
+        <v>17</v>
+      </c>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
@@ -2313,7 +2352,9 @@
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
+      <c r="BF10" t="s">
+        <v>18</v>
+      </c>
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
@@ -2406,7 +2447,9 @@
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
+      <c r="BF11" t="s">
+        <v>19</v>
+      </c>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
@@ -2501,7 +2544,9 @@
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
+      <c r="BF12" t="s">
+        <v>20</v>
+      </c>
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
@@ -2594,7 +2639,9 @@
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
+      <c r="BF13" t="s">
+        <v>22</v>
+      </c>
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
@@ -2731,7 +2778,9 @@
       <c r="BE14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BF14" s="1"/>
+      <c r="BF14" t="s">
+        <v>23</v>
+      </c>
       <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
@@ -2906,7 +2955,9 @@
       <c r="BE15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BF15" s="1"/>
+      <c r="BF15" t="s">
+        <v>46</v>
+      </c>
       <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
@@ -3053,7 +3104,9 @@
       <c r="BE16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BF16" s="1"/>
+      <c r="BF16" t="s">
+        <v>60</v>
+      </c>
       <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
@@ -3198,7 +3251,9 @@
       <c r="BE17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BF17" s="1"/>
+      <c r="BF17" t="s">
+        <v>62</v>
+      </c>
       <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
@@ -3369,7 +3424,9 @@
       <c r="BE18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BF18" s="1"/>
+      <c r="BF18" t="s">
+        <v>63</v>
+      </c>
       <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
@@ -3516,7 +3573,9 @@
       <c r="BE19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BF19" s="1"/>
+      <c r="BF19" t="s">
+        <v>64</v>
+      </c>
       <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
       <c r="BI19" s="1"/>
@@ -3661,7 +3720,9 @@
       <c r="BE20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BF20" s="1"/>
+      <c r="BF20" t="s">
+        <v>66</v>
+      </c>
       <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
@@ -3760,7 +3821,9 @@
       </c>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
-      <c r="BF21" s="1"/>
+      <c r="BF21" t="s">
+        <v>67</v>
+      </c>
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
@@ -3937,7 +4000,9 @@
       <c r="BE22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BF22" s="1"/>
+      <c r="BF22" t="s">
+        <v>68</v>
+      </c>
       <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
@@ -4116,7 +4181,9 @@
       <c r="BE23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BF23" s="1"/>
+      <c r="BF23" t="s">
+        <v>69</v>
+      </c>
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
@@ -4219,7 +4286,6 @@
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
       <c r="BG24" s="1"/>
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
@@ -4332,7 +4398,6 @@
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
       <c r="BG25" s="1"/>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
@@ -4439,7 +4504,6 @@
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
-      <c r="BF26" s="1"/>
       <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
@@ -4532,7 +4596,6 @@
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
-      <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
@@ -4623,7 +4686,6 @@
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
-      <c r="BF28" s="1"/>
       <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
@@ -4714,7 +4776,6 @@
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
-      <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
@@ -4805,7 +4866,6 @@
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
-      <c r="BF30" s="1"/>
       <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
       <c r="BI30" s="1"/>
@@ -4910,7 +4970,6 @@
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
-      <c r="BF31" s="1"/>
       <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
       <c r="BI31" s="1"/>
@@ -5031,7 +5090,6 @@
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
       <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
@@ -5168,7 +5226,7 @@
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
-      <c r="BF33" s="1" t="s">
+      <c r="BF33" t="s">
         <v>75</v>
       </c>
       <c r="BG33" s="1"/>
@@ -5315,7 +5373,6 @@
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
       <c r="BH34" s="1">
         <v>95</v>
@@ -5450,7 +5507,6 @@
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
       <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
@@ -5553,7 +5609,6 @@
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
       <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
@@ -5666,7 +5721,6 @@
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
       <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
@@ -5763,7 +5817,6 @@
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
@@ -5860,7 +5913,6 @@
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
-      <c r="BF39" s="1"/>
       <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
@@ -5957,7 +6009,6 @@
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
-      <c r="BF40" s="1"/>
       <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
@@ -6054,7 +6105,6 @@
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
-      <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
@@ -6151,7 +6201,6 @@
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
-      <c r="BF42" s="1"/>
       <c r="BG42" s="1"/>
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
@@ -6248,7 +6297,6 @@
       <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
-      <c r="BF43" s="1"/>
       <c r="BG43" s="1"/>
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
@@ -6345,7 +6393,6 @@
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
-      <c r="BF44" s="1"/>
       <c r="BG44" s="1"/>
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
@@ -6442,7 +6489,6 @@
       <c r="BC45" s="1"/>
       <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
-      <c r="BF45" s="1"/>
       <c r="BG45" s="1"/>
       <c r="BH45" s="1"/>
       <c r="BI45" s="1"/>
@@ -6539,7 +6585,6 @@
       <c r="BC46" s="1"/>
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
-      <c r="BF46" s="1"/>
       <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
       <c r="BI46" s="1"/>
@@ -6636,7 +6681,6 @@
       <c r="BC47" s="1"/>
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
-      <c r="BF47" s="1"/>
       <c r="BG47" s="1"/>
       <c r="BH47" s="1"/>
       <c r="BI47" s="1"/>
@@ -6733,7 +6777,6 @@
       <c r="BC48" s="1"/>
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
-      <c r="BF48" s="1"/>
       <c r="BG48" s="1"/>
       <c r="BH48" s="1"/>
       <c r="BI48" s="1"/>
@@ -6830,7 +6873,6 @@
       <c r="BC49" s="1"/>
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
-      <c r="BF49" s="1"/>
       <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
       <c r="BI49" s="1"/>
@@ -6927,7 +6969,6 @@
       <c r="BC50" s="1"/>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
-      <c r="BF50" s="1"/>
       <c r="BG50" s="1"/>
       <c r="BH50" s="1"/>
       <c r="BI50" s="1"/>
@@ -7024,7 +7065,6 @@
       <c r="BC51" s="1"/>
       <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
-      <c r="BF51" s="1"/>
       <c r="BG51" s="1"/>
       <c r="BH51" s="1"/>
       <c r="BI51" s="1"/>
@@ -7121,7 +7161,6 @@
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
       <c r="BE52" s="1"/>
-      <c r="BF52" s="1"/>
       <c r="BG52" s="1"/>
       <c r="BH52" s="1"/>
       <c r="BI52" s="1"/>
@@ -7218,7 +7257,6 @@
       <c r="BC53" s="1"/>
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
-      <c r="BF53" s="1"/>
       <c r="BG53" s="1"/>
       <c r="BH53" s="1"/>
       <c r="BI53" s="1"/>
@@ -7315,7 +7353,6 @@
       <c r="BC54" s="1"/>
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
-      <c r="BF54" s="1"/>
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
       <c r="BI54" s="1"/>
@@ -7412,7 +7449,6 @@
       <c r="BC55" s="1"/>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
-      <c r="BF55" s="1"/>
       <c r="BG55" s="1"/>
       <c r="BH55" s="1"/>
       <c r="BI55" s="1"/>
@@ -7509,7 +7545,6 @@
       <c r="BC56" s="1"/>
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
-      <c r="BF56" s="1"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="1"/>
       <c r="BI56" s="1"/>
@@ -7622,7 +7657,6 @@
       <c r="BC57" s="1"/>
       <c r="BD57" s="1"/>
       <c r="BE57" s="1"/>
-      <c r="BF57" s="1"/>
       <c r="BG57" s="1"/>
       <c r="BH57" s="1"/>
       <c r="BI57" s="1"/>
@@ -7719,7 +7753,6 @@
       <c r="BC58" s="1"/>
       <c r="BD58" s="1"/>
       <c r="BE58" s="1"/>
-      <c r="BF58" s="1"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
       <c r="BI58" s="1"/>
@@ -7816,7 +7849,6 @@
       <c r="BC59" s="1"/>
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
-      <c r="BF59" s="1"/>
       <c r="BG59" s="1"/>
       <c r="BH59" s="1"/>
       <c r="BI59" s="1"/>
@@ -7909,7 +7941,6 @@
       <c r="BC60" s="1"/>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
-      <c r="BF60" s="1"/>
       <c r="BG60" s="1"/>
       <c r="BH60" s="1"/>
       <c r="BI60" s="1"/>
@@ -8014,7 +8045,6 @@
       <c r="BC61" s="1"/>
       <c r="BD61" s="1"/>
       <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
       <c r="BG61" s="1"/>
       <c r="BH61" s="1"/>
       <c r="BI61" s="1"/>
@@ -8107,7 +8137,6 @@
       <c r="BC62" s="1"/>
       <c r="BD62" s="1"/>
       <c r="BE62" s="1"/>
-      <c r="BF62" s="1"/>
       <c r="BG62" s="1"/>
       <c r="BH62" s="1"/>
       <c r="BI62" s="1"/>
@@ -8200,7 +8229,6 @@
       <c r="BC63" s="1"/>
       <c r="BD63" s="1"/>
       <c r="BE63" s="1"/>
-      <c r="BF63" s="1"/>
       <c r="BG63" s="1"/>
       <c r="BH63" s="1"/>
       <c r="BI63" s="1"/>
@@ -8293,7 +8321,6 @@
       <c r="BC64" s="1"/>
       <c r="BD64" s="1"/>
       <c r="BE64" s="1"/>
-      <c r="BF64" s="1"/>
       <c r="BG64" s="1"/>
       <c r="BH64" s="1"/>
       <c r="BI64" s="1"/>
@@ -8386,7 +8413,6 @@
       <c r="BC65" s="1"/>
       <c r="BD65" s="1"/>
       <c r="BE65" s="1"/>
-      <c r="BF65" s="1"/>
       <c r="BG65" s="1"/>
       <c r="BH65" s="1"/>
       <c r="BI65" s="1"/>
@@ -8479,7 +8505,6 @@
       <c r="BC66" s="1"/>
       <c r="BD66" s="1"/>
       <c r="BE66" s="1"/>
-      <c r="BF66" s="1"/>
       <c r="BG66" s="1"/>
       <c r="BH66" s="1"/>
       <c r="BI66" s="1"/>
@@ -8572,7 +8597,6 @@
       <c r="BC67" s="1"/>
       <c r="BD67" s="1"/>
       <c r="BE67" s="1"/>
-      <c r="BF67" s="1"/>
       <c r="BG67" s="1"/>
       <c r="BH67" s="1"/>
       <c r="BI67" s="1"/>
@@ -8665,7 +8689,6 @@
       <c r="BC68" s="1"/>
       <c r="BD68" s="1"/>
       <c r="BE68" s="1"/>
-      <c r="BF68" s="1"/>
       <c r="BG68" s="1"/>
       <c r="BH68" s="1"/>
       <c r="BI68" s="1"/>
@@ -8758,7 +8781,6 @@
       <c r="BC69" s="1"/>
       <c r="BD69" s="1"/>
       <c r="BE69" s="1"/>
-      <c r="BF69" s="1"/>
       <c r="BG69" s="1"/>
       <c r="BH69" s="1"/>
       <c r="BI69" s="1"/>
@@ -8851,7 +8873,6 @@
       <c r="BC70" s="1"/>
       <c r="BD70" s="1"/>
       <c r="BE70" s="1"/>
-      <c r="BF70" s="1"/>
       <c r="BG70" s="1"/>
       <c r="BH70" s="1"/>
       <c r="BI70" s="1"/>
@@ -8944,7 +8965,6 @@
       <c r="BC71" s="1"/>
       <c r="BD71" s="1"/>
       <c r="BE71" s="1"/>
-      <c r="BF71" s="1"/>
       <c r="BG71" s="1"/>
       <c r="BH71" s="1"/>
       <c r="BI71" s="1"/>
@@ -9037,7 +9057,6 @@
       <c r="BC72" s="1"/>
       <c r="BD72" s="1"/>
       <c r="BE72" s="1"/>
-      <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
       <c r="BH72" s="1"/>
       <c r="BI72" s="1"/>
@@ -9130,7 +9149,6 @@
       <c r="BC73" s="1"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
-      <c r="BF73" s="1"/>
       <c r="BG73" s="1"/>
       <c r="BH73" s="1"/>
       <c r="BI73" s="1"/>
@@ -9227,7 +9245,6 @@
       <c r="BC74" s="1"/>
       <c r="BD74" s="1"/>
       <c r="BE74" s="1"/>
-      <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
       <c r="BH74" s="1"/>
       <c r="BI74" s="1"/>
@@ -9342,7 +9359,6 @@
       <c r="BC75" s="1"/>
       <c r="BD75" s="1"/>
       <c r="BE75" s="1"/>
-      <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
       <c r="BH75" s="1"/>
       <c r="BI75" s="1"/>
@@ -9439,7 +9455,6 @@
       <c r="BC76" s="1"/>
       <c r="BD76" s="1"/>
       <c r="BE76" s="1"/>
-      <c r="BF76" s="1"/>
       <c r="BG76" s="1"/>
       <c r="BH76" s="1"/>
       <c r="BI76" s="1"/>
@@ -9616,7 +9631,9 @@
       <c r="BE77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BF77" s="1"/>
+      <c r="BF77" t="s">
+        <v>113</v>
+      </c>
       <c r="BG77" s="1"/>
       <c r="BH77" s="1"/>
       <c r="BI77" s="1"/>
@@ -9789,7 +9806,9 @@
       <c r="BE78" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BF78" s="1"/>
+      <c r="BF78" t="s">
+        <v>114</v>
+      </c>
       <c r="BG78" s="1"/>
       <c r="BH78" s="1"/>
       <c r="BI78" s="1"/>
@@ -9962,7 +9981,9 @@
       <c r="BE79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BF79" s="1"/>
+      <c r="BF79" t="s">
+        <v>115</v>
+      </c>
       <c r="BG79" s="1"/>
       <c r="BH79" s="1"/>
       <c r="BI79" s="1"/>
@@ -10135,7 +10156,9 @@
       <c r="BE80" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BF80" s="1"/>
+      <c r="BF80" t="s">
+        <v>116</v>
+      </c>
       <c r="BG80" s="1"/>
       <c r="BH80" s="1"/>
       <c r="BI80" s="1"/>
@@ -10246,7 +10269,6 @@
       <c r="BC81" s="1"/>
       <c r="BD81" s="1"/>
       <c r="BE81" s="1"/>
-      <c r="BF81" s="1"/>
       <c r="BG81" s="1"/>
       <c r="BH81" s="1"/>
       <c r="BI81" s="1"/>
@@ -10339,7 +10361,6 @@
       <c r="BC82" s="1"/>
       <c r="BD82" s="1"/>
       <c r="BE82" s="1"/>
-      <c r="BF82" s="1"/>
       <c r="BG82" s="1"/>
       <c r="BH82" s="1"/>
       <c r="BI82" s="1"/>
@@ -10484,7 +10505,9 @@
       <c r="BE83" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BF83" s="1"/>
+      <c r="BF83" t="s">
+        <v>46</v>
+      </c>
       <c r="BG83" s="1"/>
       <c r="BH83" s="1"/>
       <c r="BI83" s="1"/>
@@ -10655,7 +10678,9 @@
       <c r="BE84" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BF84" s="1"/>
+      <c r="BF84" t="s">
+        <v>63</v>
+      </c>
       <c r="BG84" s="1"/>
       <c r="BH84" s="1"/>
       <c r="BI84" s="1"/>
@@ -10752,7 +10777,6 @@
       <c r="BC85" s="1"/>
       <c r="BD85" s="1"/>
       <c r="BE85" s="1"/>
-      <c r="BF85" s="1"/>
       <c r="BG85" s="1"/>
       <c r="BH85" s="1"/>
       <c r="BI85" s="1"/>
@@ -10863,7 +10887,6 @@
       <c r="BC86" s="1"/>
       <c r="BD86" s="1"/>
       <c r="BE86" s="1"/>
-      <c r="BF86" s="1"/>
       <c r="BG86" s="1"/>
       <c r="BH86" s="1"/>
       <c r="BI86" s="1"/>
@@ -10968,7 +10991,6 @@
       <c r="BC87" s="1"/>
       <c r="BD87" s="1"/>
       <c r="BE87" s="1"/>
-      <c r="BF87" s="1"/>
       <c r="BG87" s="1"/>
       <c r="BH87" s="1"/>
       <c r="BI87" s="1"/>
@@ -11059,7 +11081,6 @@
       <c r="BC88" s="1"/>
       <c r="BD88" s="1"/>
       <c r="BE88" s="1"/>
-      <c r="BF88" s="1"/>
       <c r="BG88" s="1"/>
       <c r="BH88" s="1"/>
       <c r="BI88" s="1"/>
@@ -11156,7 +11177,6 @@
       <c r="BC89" s="1"/>
       <c r="BD89" s="1"/>
       <c r="BE89" s="1"/>
-      <c r="BF89" s="1"/>
       <c r="BG89" s="1"/>
       <c r="BH89" s="1"/>
       <c r="BI89" s="1"/>
@@ -11269,7 +11289,6 @@
       <c r="BC90" s="1"/>
       <c r="BD90" s="1"/>
       <c r="BE90" s="1"/>
-      <c r="BF90" s="1"/>
       <c r="BG90" s="1"/>
       <c r="BH90" s="1"/>
       <c r="BI90" s="1"/>
@@ -11378,7 +11397,6 @@
       <c r="BC91" s="1"/>
       <c r="BD91" s="1"/>
       <c r="BE91" s="1"/>
-      <c r="BF91" s="1"/>
       <c r="BG91" s="1"/>
       <c r="BH91" s="1"/>
       <c r="BI91" s="1"/>
@@ -11475,7 +11493,6 @@
       <c r="BC92" s="1"/>
       <c r="BD92" s="1"/>
       <c r="BE92" s="1"/>
-      <c r="BF92" s="1"/>
       <c r="BG92" s="1"/>
       <c r="BH92" s="1"/>
       <c r="BI92" s="1"/>
@@ -11568,7 +11585,6 @@
       <c r="BC93" s="1"/>
       <c r="BD93" s="1"/>
       <c r="BE93" s="1"/>
-      <c r="BF93" s="1"/>
       <c r="BG93" s="1"/>
       <c r="BH93" s="1"/>
       <c r="BI93" s="1"/>
@@ -11659,7 +11675,6 @@
       <c r="BC94" s="1"/>
       <c r="BD94" s="1"/>
       <c r="BE94" s="1"/>
-      <c r="BF94" s="1"/>
       <c r="BG94" s="1"/>
       <c r="BH94" s="1"/>
       <c r="BI94" s="1"/>
@@ -11752,7 +11767,6 @@
       </c>
       <c r="BD95" s="1"/>
       <c r="BE95" s="1"/>
-      <c r="BF95" s="1"/>
       <c r="BG95" s="1"/>
       <c r="BH95" s="1"/>
       <c r="BI95" s="1"/>
@@ -11843,7 +11857,6 @@
       </c>
       <c r="BD96" s="1"/>
       <c r="BE96" s="1"/>
-      <c r="BF96" s="1"/>
       <c r="BG96" s="1"/>
       <c r="BH96" s="1"/>
       <c r="BI96" s="1"/>
@@ -11940,7 +11953,7 @@
       <c r="BC97" s="1"/>
       <c r="BD97" s="1"/>
       <c r="BE97" s="1"/>
-      <c r="BF97" s="1" t="s">
+      <c r="BF97" t="s">
         <v>125</v>
       </c>
       <c r="BG97" s="1"/>
@@ -12039,7 +12052,7 @@
       <c r="BC98" s="1"/>
       <c r="BD98" s="1"/>
       <c r="BE98" s="1"/>
-      <c r="BF98" s="1" t="s">
+      <c r="BF98" t="s">
         <v>126</v>
       </c>
       <c r="BG98" s="1"/>
@@ -12140,7 +12153,9 @@
       </c>
       <c r="BD99" s="1"/>
       <c r="BE99" s="1"/>
-      <c r="BF99" s="1"/>
+      <c r="BF99" t="s">
+        <v>127</v>
+      </c>
       <c r="BG99" s="1"/>
       <c r="BH99" s="1"/>
       <c r="BI99" s="1"/>
@@ -12231,7 +12246,6 @@
       <c r="BC100" s="1"/>
       <c r="BD100" s="1"/>
       <c r="BE100" s="1"/>
-      <c r="BF100" s="1"/>
       <c r="BG100" s="1"/>
       <c r="BH100" s="1"/>
       <c r="BI100" s="1"/>
@@ -12332,7 +12346,6 @@
       <c r="BC101" s="1"/>
       <c r="BD101" s="1"/>
       <c r="BE101" s="1"/>
-      <c r="BF101" s="1"/>
       <c r="BG101" s="1"/>
       <c r="BH101" s="1"/>
       <c r="BI101" s="1"/>
@@ -12439,7 +12452,6 @@
       <c r="BC102" s="1"/>
       <c r="BD102" s="1"/>
       <c r="BE102" s="1"/>
-      <c r="BF102" s="1"/>
       <c r="BG102" s="1"/>
       <c r="BH102" s="1"/>
       <c r="BI102" s="1"/>
@@ -12538,7 +12550,9 @@
       <c r="BC103" s="1"/>
       <c r="BD103" s="1"/>
       <c r="BE103" s="1"/>
-      <c r="BF103" s="1"/>
+      <c r="BF103" t="s">
+        <v>130</v>
+      </c>
       <c r="BG103" s="1"/>
       <c r="BH103" s="1"/>
       <c r="BI103" s="1"/>
@@ -12631,7 +12645,9 @@
       <c r="BC104" s="1"/>
       <c r="BD104" s="1"/>
       <c r="BE104" s="1"/>
-      <c r="BF104" s="1"/>
+      <c r="BF104" t="s">
+        <v>131</v>
+      </c>
       <c r="BG104" s="1"/>
       <c r="BH104" s="1"/>
       <c r="BI104" s="1"/>
@@ -12724,7 +12740,9 @@
       <c r="BC105" s="1"/>
       <c r="BD105" s="1"/>
       <c r="BE105" s="1"/>
-      <c r="BF105" s="1"/>
+      <c r="BF105" t="s">
+        <v>132</v>
+      </c>
       <c r="BG105" s="1"/>
       <c r="BH105" s="1"/>
       <c r="BI105" s="1"/>
@@ -12867,7 +12885,9 @@
       <c r="BE106" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BF106" s="1"/>
+      <c r="BF106" t="s">
+        <v>133</v>
+      </c>
       <c r="BG106" s="1"/>
       <c r="BH106" s="1"/>
       <c r="BI106" s="1"/>
@@ -12966,7 +12986,9 @@
       </c>
       <c r="BD107" s="1"/>
       <c r="BE107" s="1"/>
-      <c r="BF107" s="1"/>
+      <c r="BF107" t="s">
+        <v>134</v>
+      </c>
       <c r="BG107" s="1"/>
       <c r="BH107" s="1"/>
       <c r="BI107" s="1"/>
@@ -13111,7 +13133,9 @@
       <c r="BE108" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BF108" s="1"/>
+      <c r="BF108" t="s">
+        <v>136</v>
+      </c>
       <c r="BG108" s="1"/>
       <c r="BH108" s="1"/>
       <c r="BI108" s="1"/>
@@ -13208,7 +13232,6 @@
       <c r="BC109" s="1"/>
       <c r="BD109" s="1"/>
       <c r="BE109" s="1"/>
-      <c r="BF109" s="1"/>
       <c r="BG109" s="1"/>
       <c r="BH109" s="1"/>
       <c r="BI109" s="1"/>
@@ -13337,7 +13360,6 @@
       <c r="BC110" s="1"/>
       <c r="BD110" s="1"/>
       <c r="BE110" s="1"/>
-      <c r="BF110" s="1"/>
       <c r="BG110" s="1"/>
       <c r="BH110" s="1"/>
       <c r="BI110" s="1">
@@ -13484,7 +13506,6 @@
       <c r="BC111" s="1"/>
       <c r="BD111" s="1"/>
       <c r="BE111" s="1"/>
-      <c r="BF111" s="1"/>
       <c r="BG111" s="1"/>
       <c r="BH111" s="1"/>
       <c r="BI111" s="1">
@@ -13613,7 +13634,6 @@
       <c r="BC112" s="1"/>
       <c r="BD112" s="1"/>
       <c r="BE112" s="1"/>
-      <c r="BF112" s="1"/>
       <c r="BG112" s="1"/>
       <c r="BH112" s="1"/>
       <c r="BI112" s="1"/>
@@ -13730,7 +13750,6 @@
       <c r="BC113" s="1"/>
       <c r="BD113" s="1"/>
       <c r="BE113" s="1"/>
-      <c r="BF113" s="1"/>
       <c r="BG113" s="1"/>
       <c r="BH113" s="1"/>
       <c r="BI113" s="1"/>
@@ -13823,7 +13842,6 @@
       <c r="BC114" s="1"/>
       <c r="BD114" s="1"/>
       <c r="BE114" s="1"/>
-      <c r="BF114" s="1"/>
       <c r="BG114" s="1"/>
       <c r="BH114" s="1"/>
       <c r="BI114" s="1"/>
@@ -13914,7 +13932,6 @@
       <c r="BC115" s="1"/>
       <c r="BD115" s="1"/>
       <c r="BE115" s="1"/>
-      <c r="BF115" s="1"/>
       <c r="BG115" s="1"/>
       <c r="BH115" s="1"/>
       <c r="BI115" s="1"/>
@@ -14007,7 +14024,6 @@
       <c r="BC116" s="1"/>
       <c r="BD116" s="1"/>
       <c r="BE116" s="1"/>
-      <c r="BF116" s="1"/>
       <c r="BG116" s="1"/>
       <c r="BH116" s="1"/>
       <c r="BI116" s="1"/>
@@ -14106,7 +14122,6 @@
       <c r="BC117" s="1"/>
       <c r="BD117" s="1"/>
       <c r="BE117" s="1"/>
-      <c r="BF117" s="1"/>
       <c r="BG117" s="1"/>
       <c r="BH117" s="1"/>
       <c r="BI117" s="1"/>
@@ -14219,7 +14234,9 @@
       </c>
       <c r="BD118" s="1"/>
       <c r="BE118" s="1"/>
-      <c r="BF118" s="1"/>
+      <c r="BF118" t="s">
+        <v>146</v>
+      </c>
       <c r="BG118" s="1"/>
       <c r="BH118" s="1"/>
       <c r="BI118" s="1"/>
@@ -14362,7 +14379,9 @@
       <c r="BE119" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BF119" s="1"/>
+      <c r="BF119" t="s">
+        <v>147</v>
+      </c>
       <c r="BG119" s="1"/>
       <c r="BH119" s="1"/>
       <c r="BI119" s="1"/>
@@ -14461,7 +14480,9 @@
       </c>
       <c r="BD120" s="1"/>
       <c r="BE120" s="1"/>
-      <c r="BF120" s="1"/>
+      <c r="BF120" t="s">
+        <v>148</v>
+      </c>
       <c r="BG120" s="1"/>
       <c r="BH120" s="1"/>
       <c r="BI120" s="1"/>
@@ -14604,7 +14625,9 @@
       <c r="BE121" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BF121" s="1"/>
+      <c r="BF121" t="s">
+        <v>149</v>
+      </c>
       <c r="BG121" s="1"/>
       <c r="BH121" s="1"/>
       <c r="BI121" s="1"/>
@@ -14695,7 +14718,6 @@
       <c r="BC122" s="1"/>
       <c r="BD122" s="1"/>
       <c r="BE122" s="1"/>
-      <c r="BF122" s="1"/>
       <c r="BG122" s="1"/>
       <c r="BH122" s="1"/>
       <c r="BI122" s="1"/>
@@ -14788,7 +14810,9 @@
       <c r="BC123" s="1"/>
       <c r="BD123" s="1"/>
       <c r="BE123" s="1"/>
-      <c r="BF123" s="1"/>
+      <c r="BF123" t="s">
+        <v>151</v>
+      </c>
       <c r="BG123" s="1"/>
       <c r="BH123" s="1"/>
       <c r="BI123" s="1"/>
@@ -14885,7 +14909,9 @@
       <c r="BC124" s="1"/>
       <c r="BD124" s="1"/>
       <c r="BE124" s="1"/>
-      <c r="BF124" s="1"/>
+      <c r="BF124" t="s">
+        <v>153</v>
+      </c>
       <c r="BG124" s="1"/>
       <c r="BH124" s="1"/>
       <c r="BI124" s="1"/>
@@ -14998,7 +15024,6 @@
       <c r="BC125" s="1"/>
       <c r="BD125" s="1"/>
       <c r="BE125" s="1"/>
-      <c r="BF125" s="1"/>
       <c r="BG125" s="1"/>
       <c r="BH125" s="1">
         <v>138</v>
@@ -15127,7 +15152,9 @@
       <c r="BC126" s="1"/>
       <c r="BD126" s="1"/>
       <c r="BE126" s="1"/>
-      <c r="BF126" s="1"/>
+      <c r="BF126" t="s">
+        <v>155</v>
+      </c>
       <c r="BG126" s="1"/>
       <c r="BH126" s="1"/>
       <c r="BI126" s="1"/>
@@ -15220,7 +15247,6 @@
       <c r="BC127" s="1"/>
       <c r="BD127" s="1"/>
       <c r="BE127" s="1"/>
-      <c r="BF127" s="1"/>
       <c r="BG127" s="1"/>
       <c r="BH127" s="1"/>
       <c r="BI127" s="1"/>
@@ -15317,7 +15343,6 @@
       <c r="BC128" s="1"/>
       <c r="BD128" s="1"/>
       <c r="BE128" s="1"/>
-      <c r="BF128" s="1"/>
       <c r="BG128" s="1"/>
       <c r="BH128" s="1"/>
       <c r="BI128" s="1"/>
@@ -15428,7 +15453,6 @@
       <c r="BC129" s="1"/>
       <c r="BD129" s="1"/>
       <c r="BE129" s="1"/>
-      <c r="BF129" s="1"/>
       <c r="BG129" s="1"/>
       <c r="BH129" s="1"/>
       <c r="BI129" s="1"/>
@@ -15539,7 +15563,6 @@
       <c r="BC130" s="1"/>
       <c r="BD130" s="1"/>
       <c r="BE130" s="1"/>
-      <c r="BF130" s="1"/>
       <c r="BG130" s="1"/>
       <c r="BH130" s="1"/>
       <c r="BI130" s="1"/>
@@ -15654,7 +15677,9 @@
       </c>
       <c r="BD131" s="1"/>
       <c r="BE131" s="1"/>
-      <c r="BF131" s="1"/>
+      <c r="BF131" t="s">
+        <v>158</v>
+      </c>
       <c r="BG131" s="1"/>
       <c r="BH131" s="1"/>
       <c r="BI131" s="1"/>
@@ -15753,7 +15778,9 @@
       </c>
       <c r="BD132" s="1"/>
       <c r="BE132" s="1"/>
-      <c r="BF132" s="1"/>
+      <c r="BF132" t="s">
+        <v>159</v>
+      </c>
       <c r="BG132" s="1"/>
       <c r="BH132" s="1"/>
       <c r="BI132" s="1"/>
@@ -15854,7 +15881,9 @@
       </c>
       <c r="BD133" s="1"/>
       <c r="BE133" s="1"/>
-      <c r="BF133" s="1"/>
+      <c r="BF133" t="s">
+        <v>160</v>
+      </c>
       <c r="BG133" s="1"/>
       <c r="BH133" s="1"/>
       <c r="BI133" s="1"/>
@@ -15947,7 +15976,6 @@
       <c r="BC134" s="1"/>
       <c r="BD134" s="1"/>
       <c r="BE134" s="1"/>
-      <c r="BF134" s="1"/>
       <c r="BG134" s="1"/>
       <c r="BH134" s="1"/>
       <c r="BI134" s="1"/>
@@ -16044,7 +16072,6 @@
       <c r="BC135" s="1"/>
       <c r="BD135" s="1"/>
       <c r="BE135" s="1"/>
-      <c r="BF135" s="1"/>
       <c r="BG135" s="1"/>
       <c r="BH135" s="1"/>
       <c r="BI135" s="1"/>
@@ -16135,7 +16162,6 @@
       <c r="BC136" s="1"/>
       <c r="BD136" s="1"/>
       <c r="BE136" s="1"/>
-      <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
       <c r="BI136" s="1"/>
@@ -16232,7 +16258,9 @@
       <c r="BC137" s="1"/>
       <c r="BD137" s="1"/>
       <c r="BE137" s="1"/>
-      <c r="BF137" s="1"/>
+      <c r="BF137" t="s">
+        <v>163</v>
+      </c>
       <c r="BG137" s="1"/>
       <c r="BH137" s="1"/>
       <c r="BI137" s="1"/>
@@ -16329,7 +16357,9 @@
       <c r="BC138" s="1"/>
       <c r="BD138" s="1"/>
       <c r="BE138" s="1"/>
-      <c r="BF138" s="1"/>
+      <c r="BF138" t="s">
+        <v>164</v>
+      </c>
       <c r="BG138" s="1"/>
       <c r="BH138" s="1"/>
       <c r="BI138" s="1"/>
@@ -16424,7 +16454,9 @@
       <c r="BC139" s="1"/>
       <c r="BD139" s="1"/>
       <c r="BE139" s="1"/>
-      <c r="BF139" s="1"/>
+      <c r="BF139" t="s">
+        <v>155</v>
+      </c>
       <c r="BG139" s="1"/>
       <c r="BH139" s="1"/>
       <c r="BI139" s="1"/>
@@ -16523,7 +16555,6 @@
       <c r="BC140" s="1"/>
       <c r="BD140" s="1"/>
       <c r="BE140" s="1"/>
-      <c r="BF140" s="1"/>
       <c r="BG140" s="1"/>
       <c r="BH140" s="1"/>
       <c r="BI140" s="1"/>
@@ -16636,7 +16667,9 @@
       <c r="BC141" s="1"/>
       <c r="BD141" s="1"/>
       <c r="BE141" s="1"/>
-      <c r="BF141" s="1"/>
+      <c r="BF141" t="s">
+        <v>165</v>
+      </c>
       <c r="BG141" s="1"/>
       <c r="BH141" s="1"/>
       <c r="BI141" s="1"/>
@@ -16729,7 +16762,9 @@
       <c r="BC142" s="1"/>
       <c r="BD142" s="1"/>
       <c r="BE142" s="1"/>
-      <c r="BF142" s="1"/>
+      <c r="BF142" t="s">
+        <v>166</v>
+      </c>
       <c r="BG142" s="1"/>
       <c r="BH142" s="1"/>
       <c r="BI142" s="1"/>
@@ -16826,7 +16861,6 @@
       <c r="BC143" s="1"/>
       <c r="BD143" s="1"/>
       <c r="BE143" s="1"/>
-      <c r="BF143" s="1"/>
       <c r="BG143" s="1"/>
       <c r="BH143" s="1"/>
       <c r="BI143" s="1"/>
@@ -16955,7 +16989,6 @@
       <c r="BC144" s="1"/>
       <c r="BD144" s="1"/>
       <c r="BE144" s="1"/>
-      <c r="BF144" s="1"/>
       <c r="BG144" s="1"/>
       <c r="BH144" s="1"/>
       <c r="BI144" s="1">
@@ -17080,7 +17113,6 @@
       <c r="BC145" s="1"/>
       <c r="BD145" s="1"/>
       <c r="BE145" s="1"/>
-      <c r="BF145" s="1"/>
       <c r="BG145" s="1"/>
       <c r="BH145" s="1"/>
       <c r="BI145" s="1"/>
@@ -17171,7 +17203,6 @@
       </c>
       <c r="BD146" s="1"/>
       <c r="BE146" s="1"/>
-      <c r="BF146" s="1"/>
       <c r="BG146" s="1"/>
       <c r="BH146" s="1"/>
       <c r="BI146" s="1"/>
@@ -17264,7 +17295,6 @@
       <c r="BC147" s="1"/>
       <c r="BD147" s="1"/>
       <c r="BE147" s="1"/>
-      <c r="BF147" s="1"/>
       <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
       <c r="BI147" s="1"/>
@@ -17357,7 +17387,6 @@
       <c r="BC148" s="1"/>
       <c r="BD148" s="1"/>
       <c r="BE148" s="1"/>
-      <c r="BF148" s="1"/>
       <c r="BG148" s="1"/>
       <c r="BH148" s="1"/>
       <c r="BI148" s="1"/>
@@ -17448,7 +17477,6 @@
       <c r="BC149" s="1"/>
       <c r="BD149" s="1"/>
       <c r="BE149" s="1"/>
-      <c r="BF149" s="1"/>
       <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
       <c r="BI149" s="1"/>
@@ -17561,7 +17589,6 @@
       <c r="BC150" s="1"/>
       <c r="BD150" s="1"/>
       <c r="BE150" s="1"/>
-      <c r="BF150" s="1"/>
       <c r="BG150" s="1"/>
       <c r="BH150" s="1"/>
       <c r="BI150" s="1">
@@ -17688,7 +17715,9 @@
       <c r="BC151" s="1"/>
       <c r="BD151" s="1"/>
       <c r="BE151" s="1"/>
-      <c r="BF151" s="1"/>
+      <c r="BF151" t="s">
+        <v>173</v>
+      </c>
       <c r="BG151" s="1"/>
       <c r="BH151" s="1"/>
       <c r="BI151" s="1"/>
@@ -17779,7 +17808,6 @@
       <c r="BC152" s="1"/>
       <c r="BD152" s="1"/>
       <c r="BE152" s="1"/>
-      <c r="BF152" s="1"/>
       <c r="BG152" s="1"/>
       <c r="BH152" s="1"/>
       <c r="BI152" s="1"/>
@@ -17870,7 +17898,6 @@
       <c r="BC153" s="1"/>
       <c r="BD153" s="1"/>
       <c r="BE153" s="1"/>
-      <c r="BF153" s="1"/>
       <c r="BG153" s="1"/>
       <c r="BH153" s="1"/>
       <c r="BI153" s="1"/>
@@ -17963,7 +17990,9 @@
       <c r="BC154" s="1"/>
       <c r="BD154" s="1"/>
       <c r="BE154" s="1"/>
-      <c r="BF154" s="1"/>
+      <c r="BF154" t="s">
+        <v>176</v>
+      </c>
       <c r="BG154" s="1"/>
       <c r="BH154" s="1"/>
       <c r="BI154" s="1"/>
@@ -18054,7 +18083,6 @@
       <c r="BC155" s="1"/>
       <c r="BD155" s="1"/>
       <c r="BE155" s="1"/>
-      <c r="BF155" s="1"/>
       <c r="BG155" s="1"/>
       <c r="BH155" s="1"/>
       <c r="BI155" s="1"/>
@@ -18145,7 +18173,6 @@
       <c r="BC156" s="1"/>
       <c r="BD156" s="1"/>
       <c r="BE156" s="1"/>
-      <c r="BF156" s="1"/>
       <c r="BG156" s="1"/>
       <c r="BH156" s="1"/>
       <c r="BI156" s="1"/>
@@ -18246,7 +18273,9 @@
       </c>
       <c r="BD157" s="1"/>
       <c r="BE157" s="1"/>
-      <c r="BF157" s="1"/>
+      <c r="BF157" t="s">
+        <v>179</v>
+      </c>
       <c r="BG157" s="1"/>
       <c r="BH157" s="1"/>
       <c r="BI157" s="1"/>
@@ -18339,7 +18368,6 @@
       <c r="BC158" s="1"/>
       <c r="BD158" s="1"/>
       <c r="BE158" s="1"/>
-      <c r="BF158" s="1"/>
       <c r="BG158" s="1"/>
       <c r="BH158" s="1"/>
       <c r="BI158" s="1"/>
@@ -18458,7 +18486,6 @@
       <c r="BC159" s="1"/>
       <c r="BD159" s="1"/>
       <c r="BE159" s="1"/>
-      <c r="BF159" s="1"/>
       <c r="BG159" s="1"/>
       <c r="BH159" s="1"/>
       <c r="BI159" s="1">
@@ -18585,7 +18612,9 @@
       <c r="BC160" s="1"/>
       <c r="BD160" s="1"/>
       <c r="BE160" s="1"/>
-      <c r="BF160" s="1"/>
+      <c r="BF160" t="s">
+        <v>180</v>
+      </c>
       <c r="BG160" s="1"/>
       <c r="BH160" s="1"/>
       <c r="BI160" s="1"/>
@@ -18698,7 +18727,6 @@
       <c r="BC161" s="1"/>
       <c r="BD161" s="1"/>
       <c r="BE161" s="1"/>
-      <c r="BF161" s="1"/>
       <c r="BG161" s="1"/>
       <c r="BH161" s="1"/>
       <c r="BI161" s="1">
@@ -18845,7 +18873,6 @@
       <c r="BC162" s="1"/>
       <c r="BD162" s="1"/>
       <c r="BE162" s="1"/>
-      <c r="BF162" s="1"/>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
       <c r="BI162" s="1">
@@ -18992,7 +19019,6 @@
       <c r="BC163" s="1"/>
       <c r="BD163" s="1"/>
       <c r="BE163" s="1"/>
-      <c r="BF163" s="1"/>
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
       <c r="BI163" s="1">
@@ -19139,7 +19165,6 @@
       <c r="BC164" s="1"/>
       <c r="BD164" s="1"/>
       <c r="BE164" s="1"/>
-      <c r="BF164" s="1"/>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="1">
@@ -19264,7 +19289,6 @@
       <c r="BC165" s="1"/>
       <c r="BD165" s="1"/>
       <c r="BE165" s="1"/>
-      <c r="BF165" s="1"/>
       <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
       <c r="BI165" s="1"/>
@@ -19357,7 +19381,9 @@
       <c r="BC166" s="1"/>
       <c r="BD166" s="1"/>
       <c r="BE166" s="1"/>
-      <c r="BF166" s="1"/>
+      <c r="BF166" t="s">
+        <v>182</v>
+      </c>
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
       <c r="BI166" s="1"/>
@@ -19454,7 +19480,9 @@
       <c r="BC167" s="1"/>
       <c r="BD167" s="1"/>
       <c r="BE167" s="1"/>
-      <c r="BF167" s="1"/>
+      <c r="BF167" t="s">
+        <v>153</v>
+      </c>
       <c r="BG167" s="1"/>
       <c r="BH167" s="1"/>
       <c r="BI167" s="1"/>
@@ -19549,7 +19577,9 @@
       <c r="BC168" s="1"/>
       <c r="BD168" s="1"/>
       <c r="BE168" s="1"/>
-      <c r="BF168" s="1"/>
+      <c r="BF168" t="s">
+        <v>183</v>
+      </c>
       <c r="BG168" s="1"/>
       <c r="BH168" s="1"/>
       <c r="BI168" s="1"/>
@@ -19642,7 +19672,9 @@
       <c r="BC169" s="1"/>
       <c r="BD169" s="1"/>
       <c r="BE169" s="1"/>
-      <c r="BF169" s="1"/>
+      <c r="BF169" t="s">
+        <v>184</v>
+      </c>
       <c r="BG169" s="1"/>
       <c r="BH169" s="1"/>
       <c r="BI169" s="1"/>
@@ -19735,7 +19767,9 @@
       <c r="BC170" s="1"/>
       <c r="BD170" s="1"/>
       <c r="BE170" s="1"/>
-      <c r="BF170" s="1"/>
+      <c r="BF170" t="s">
+        <v>185</v>
+      </c>
       <c r="BG170" s="1"/>
       <c r="BH170" s="1"/>
       <c r="BI170" s="1"/>
@@ -19836,7 +19870,9 @@
       </c>
       <c r="BD171" s="1"/>
       <c r="BE171" s="1"/>
-      <c r="BF171" s="1"/>
+      <c r="BF171" t="s">
+        <v>186</v>
+      </c>
       <c r="BG171" s="1"/>
       <c r="BH171" s="1"/>
       <c r="BI171" s="1"/>
@@ -19931,7 +19967,9 @@
       <c r="BC172" s="1"/>
       <c r="BD172" s="1"/>
       <c r="BE172" s="1"/>
-      <c r="BF172" s="1"/>
+      <c r="BF172" t="s">
+        <v>187</v>
+      </c>
       <c r="BG172" s="1"/>
       <c r="BH172" s="1"/>
       <c r="BI172" s="1"/>

--- a/src/testes/TabelaSLR_Debug.xlsx
+++ b/src/testes/TabelaSLR_Debug.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14340" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="3645" windowWidth="14340" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="244">
   <si>
     <t>S19</t>
   </si>
@@ -759,9 +759,6 @@
   </si>
   <si>
     <t>ebin</t>
-  </si>
-  <si>
-    <t>R58 corrigido</t>
   </si>
 </sst>
 </file>
@@ -816,12 +813,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1144,10 +1138,10 @@
   <dimension ref="A1:CG172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BF4" sqref="BF4:BF176"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,431 +1150,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BB1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BD1" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BE1" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>8</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>11</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>12</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>14</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>15</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>16</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>17</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>18</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>19</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>20</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="2">
         <v>21</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="2">
         <v>22</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="2">
         <v>23</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="2">
         <v>24</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="2">
         <v>25</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="2">
         <v>26</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="2">
         <v>27</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="2">
         <v>28</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2" s="2">
         <v>29</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2" s="2">
         <v>30</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2" s="2">
         <v>31</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH2" s="2">
         <v>32</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="2">
         <v>33</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2" s="2">
         <v>34</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="2">
         <v>35</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="2">
         <v>36</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="2">
         <v>37</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AN2" s="2">
         <v>38</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="2">
         <v>39</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AP2" s="2">
         <v>40</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="2">
         <v>41</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AR2" s="2">
         <v>42</v>
       </c>
-      <c r="AS2" s="3">
+      <c r="AS2" s="2">
         <v>43</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AT2" s="2">
         <v>44</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="AU2" s="2">
         <v>45</v>
       </c>
-      <c r="AV2" s="3">
+      <c r="AV2" s="2">
         <v>46</v>
       </c>
-      <c r="AW2" s="3">
+      <c r="AW2" s="2">
         <v>47</v>
       </c>
-      <c r="AX2" s="3">
+      <c r="AX2" s="2">
         <v>48</v>
       </c>
-      <c r="AY2" s="3">
+      <c r="AY2" s="2">
         <v>49</v>
       </c>
-      <c r="AZ2" s="3">
+      <c r="AZ2" s="2">
         <v>50</v>
       </c>
-      <c r="BA2" s="3">
+      <c r="BA2" s="2">
         <v>51</v>
       </c>
-      <c r="BB2" s="3">
+      <c r="BB2" s="2">
         <v>52</v>
       </c>
-      <c r="BC2" s="3">
+      <c r="BC2" s="2">
         <v>53</v>
       </c>
-      <c r="BD2" s="3">
+      <c r="BD2" s="2">
         <v>54</v>
       </c>
-      <c r="BE2" s="3">
+      <c r="BE2" s="2">
         <v>55</v>
       </c>
-      <c r="BF2" s="3">
+      <c r="BF2" s="2">
         <v>56</v>
       </c>
-      <c r="BG2" s="3">
+      <c r="BG2" s="2">
         <v>0</v>
       </c>
-      <c r="BH2" s="3">
+      <c r="BH2" s="2">
         <v>1</v>
       </c>
-      <c r="BI2" s="3">
+      <c r="BI2" s="2">
         <v>2</v>
       </c>
-      <c r="BJ2" s="3">
+      <c r="BJ2" s="2">
         <v>3</v>
       </c>
-      <c r="BK2" s="3">
+      <c r="BK2" s="2">
         <v>4</v>
       </c>
-      <c r="BL2" s="3">
+      <c r="BL2" s="2">
         <v>5</v>
       </c>
-      <c r="BM2" s="3">
+      <c r="BM2" s="2">
         <v>6</v>
       </c>
-      <c r="BN2" s="3">
+      <c r="BN2" s="2">
         <v>7</v>
       </c>
-      <c r="BO2" s="3">
+      <c r="BO2" s="2">
         <v>8</v>
       </c>
-      <c r="BP2" s="3">
+      <c r="BP2" s="2">
         <v>9</v>
       </c>
-      <c r="BQ2" s="3">
+      <c r="BQ2" s="2">
         <v>10</v>
       </c>
-      <c r="BR2" s="3">
+      <c r="BR2" s="2">
         <v>11</v>
       </c>
-      <c r="BS2" s="3">
+      <c r="BS2" s="2">
         <v>12</v>
       </c>
-      <c r="BT2" s="3">
+      <c r="BT2" s="2">
         <v>13</v>
       </c>
-      <c r="BU2" s="3">
+      <c r="BU2" s="2">
         <v>14</v>
       </c>
-      <c r="BV2" s="3">
+      <c r="BV2" s="2">
         <v>15</v>
       </c>
-      <c r="BW2" s="3">
+      <c r="BW2" s="2">
         <v>16</v>
       </c>
-      <c r="BX2" s="3">
+      <c r="BX2" s="2">
         <v>17</v>
       </c>
-      <c r="BY2" s="3">
+      <c r="BY2" s="2">
         <v>18</v>
       </c>
-      <c r="BZ2" s="3">
+      <c r="BZ2" s="2">
         <v>19</v>
       </c>
-      <c r="CA2" s="3">
+      <c r="CA2" s="2">
         <v>20</v>
       </c>
-      <c r="CB2" s="3">
+      <c r="CB2" s="2">
         <v>21</v>
       </c>
-      <c r="CC2" s="3">
+      <c r="CC2" s="2">
         <v>22</v>
       </c>
-      <c r="CD2" s="3">
+      <c r="CD2" s="2">
         <v>23</v>
       </c>
-      <c r="CE2" s="3">
+      <c r="CE2" s="2">
         <v>24</v>
       </c>
-      <c r="CF2" s="3">
+      <c r="CF2" s="2">
         <v>25</v>
       </c>
-      <c r="CG2" s="3">
+      <c r="CG2" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
@@ -1727,7 +1721,7 @@
       </c>
     </row>
     <row r="4" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
@@ -1786,7 +1780,7 @@
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
-      <c r="BF4" t="s">
+      <c r="BF4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BG4" s="1"/>
@@ -1818,7 +1812,7 @@
       <c r="CG4" s="1"/>
     </row>
     <row r="5" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
@@ -1877,7 +1871,7 @@
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
-      <c r="BF5" t="s">
+      <c r="BF5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BG5" s="1"/>
@@ -1909,7 +1903,7 @@
       <c r="CG5" s="1"/>
     </row>
     <row r="6" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1972,7 +1966,7 @@
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
       <c r="BE6" s="1"/>
-      <c r="BF6" t="s">
+      <c r="BF6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BG6" s="1"/>
@@ -2004,7 +1998,7 @@
       <c r="CG6" s="1"/>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2067,7 +2061,7 @@
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
-      <c r="BF7" t="s">
+      <c r="BF7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BG7" s="1"/>
@@ -2099,7 +2093,7 @@
       <c r="CG7" s="1"/>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2162,7 +2156,7 @@
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
-      <c r="BF8" t="s">
+      <c r="BF8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BG8" s="1"/>
@@ -2194,14 +2188,14 @@
       <c r="CG8" s="1"/>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2257,7 +2251,7 @@
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
-      <c r="BF9" t="s">
+      <c r="BF9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BG9" s="1"/>
@@ -2289,7 +2283,7 @@
       <c r="CG9" s="1"/>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2352,7 +2346,7 @@
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
-      <c r="BF10" t="s">
+      <c r="BF10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BG10" s="1"/>
@@ -2384,7 +2378,7 @@
       <c r="CG10" s="1"/>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2447,7 +2441,7 @@
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
-      <c r="BF11" t="s">
+      <c r="BF11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="BG11" s="1"/>
@@ -2479,7 +2473,7 @@
       <c r="CG11" s="1"/>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2544,7 +2538,7 @@
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
-      <c r="BF12" t="s">
+      <c r="BF12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BG12" s="1"/>
@@ -2576,7 +2570,7 @@
       <c r="CG12" s="1"/>
     </row>
     <row r="13" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2639,7 +2633,7 @@
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
-      <c r="BF13" t="s">
+      <c r="BF13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BG13" s="1"/>
@@ -2671,7 +2665,7 @@
       <c r="CG13" s="1"/>
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2743,7 +2737,9 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
+      <c r="AQ14" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="AR14" s="1" t="s">
         <v>37</v>
       </c>
@@ -2778,7 +2774,7 @@
       <c r="BE14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BF14" t="s">
+      <c r="BF14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BG14" s="1"/>
@@ -2814,7 +2810,7 @@
       <c r="CG14" s="1"/>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2955,7 +2951,7 @@
       <c r="BE15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BF15" t="s">
+      <c r="BF15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="BG15" s="1"/>
@@ -2989,7 +2985,7 @@
       <c r="CG15" s="1"/>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3104,7 +3100,7 @@
       <c r="BE16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BF16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BG16" s="1"/>
@@ -3136,7 +3132,7 @@
       <c r="CG16" s="1"/>
     </row>
     <row r="17" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -3251,7 +3247,7 @@
       <c r="BE17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BF17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="BG17" s="1"/>
@@ -3282,8 +3278,8 @@
       <c r="CF17" s="1"/>
       <c r="CG17" s="1"/>
     </row>
-    <row r="18" spans="1:85" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3409,7 +3405,7 @@
         <v>63</v>
       </c>
       <c r="AZ18" s="1" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="BA18" s="1" t="s">
         <v>63</v>
@@ -3424,7 +3420,7 @@
       <c r="BE18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BF18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="BG18" s="1"/>
@@ -3456,7 +3452,7 @@
       <c r="CG18" s="1"/>
     </row>
     <row r="19" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3573,7 +3569,7 @@
       <c r="BE19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BF19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BG19" s="1"/>
@@ -3605,7 +3601,7 @@
       <c r="CG19" s="1"/>
     </row>
     <row r="20" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3720,7 +3716,7 @@
       <c r="BE20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BF20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="BG20" s="1"/>
@@ -3752,7 +3748,7 @@
       <c r="CG20" s="1"/>
     </row>
     <row r="21" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3821,7 +3817,7 @@
       </c>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
-      <c r="BF21" t="s">
+      <c r="BF21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="BG21" s="1"/>
@@ -3853,7 +3849,7 @@
       <c r="CG21" s="1"/>
     </row>
     <row r="22" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -4000,7 +3996,7 @@
       <c r="BE22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BF22" s="1" t="s">
         <v>68</v>
       </c>
       <c r="BG22" s="1"/>
@@ -4034,7 +4030,7 @@
       <c r="CG22" s="1"/>
     </row>
     <row r="23" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4181,7 +4177,7 @@
       <c r="BE23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BF23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BG23" s="1"/>
@@ -4219,7 +4215,7 @@
       <c r="CG23" s="1"/>
     </row>
     <row r="24" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="1"/>
@@ -4286,6 +4282,7 @@
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
       <c r="BG24" s="1"/>
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
@@ -4331,7 +4328,7 @@
       <c r="CG24" s="1"/>
     </row>
     <row r="25" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="1"/>
@@ -4398,6 +4395,7 @@
       <c r="BC25" s="1"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
       <c r="BG25" s="1"/>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
@@ -4443,7 +4441,7 @@
       <c r="CG25" s="1"/>
     </row>
     <row r="26" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="1"/>
@@ -4504,6 +4502,7 @@
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
       <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
@@ -4535,7 +4534,7 @@
       <c r="CG26" s="1"/>
     </row>
     <row r="27" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="1"/>
@@ -4596,6 +4595,7 @@
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
       <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
@@ -4625,7 +4625,7 @@
       <c r="CG27" s="1"/>
     </row>
     <row r="28" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="1"/>
@@ -4686,6 +4686,7 @@
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
       <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
@@ -4715,7 +4716,7 @@
       <c r="CG28" s="1"/>
     </row>
     <row r="29" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>26</v>
       </c>
       <c r="B29" s="1"/>
@@ -4776,6 +4777,7 @@
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
       <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
@@ -4805,7 +4807,7 @@
       <c r="CG29" s="1"/>
     </row>
     <row r="30" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="1"/>
@@ -4866,6 +4868,7 @@
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
       <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
       <c r="BI30" s="1"/>
@@ -4897,7 +4900,7 @@
       <c r="CG30" s="1"/>
     </row>
     <row r="31" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="1"/>
@@ -4970,6 +4973,7 @@
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
       <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
       <c r="BI31" s="1"/>
@@ -5017,7 +5021,7 @@
       </c>
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>29</v>
       </c>
       <c r="B32" s="1"/>
@@ -5090,6 +5094,7 @@
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
       <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
@@ -5137,7 +5142,7 @@
       </c>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -5226,7 +5231,7 @@
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
-      <c r="BF33" t="s">
+      <c r="BF33" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BG33" s="1"/>
@@ -5292,7 +5297,7 @@
       </c>
     </row>
     <row r="34" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="1"/>
@@ -5373,6 +5378,7 @@
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
       <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
       <c r="BG34" s="1"/>
       <c r="BH34" s="1">
         <v>95</v>
@@ -5436,7 +5442,7 @@
       </c>
     </row>
     <row r="35" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="1"/>
@@ -5507,6 +5513,7 @@
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
       <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
       <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
@@ -5542,7 +5549,7 @@
       </c>
     </row>
     <row r="36" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="1"/>
@@ -5609,6 +5616,7 @@
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
       <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
       <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
@@ -5654,7 +5662,7 @@
       <c r="CG36" s="1"/>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="1"/>
@@ -5721,6 +5729,7 @@
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
       <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
       <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
@@ -5750,7 +5759,7 @@
       <c r="CG37" s="1"/>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>35</v>
       </c>
       <c r="B38" s="1"/>
@@ -5817,6 +5826,7 @@
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
       <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
       <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
@@ -5846,7 +5856,7 @@
       <c r="CG38" s="1"/>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="1"/>
@@ -5913,6 +5923,7 @@
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
       <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
       <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
@@ -5942,7 +5953,7 @@
       <c r="CG39" s="1"/>
     </row>
     <row r="40" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>37</v>
       </c>
       <c r="B40" s="1"/>
@@ -6009,6 +6020,7 @@
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
       <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
       <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
@@ -6038,7 +6050,7 @@
       <c r="CG40" s="1"/>
     </row>
     <row r="41" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>38</v>
       </c>
       <c r="B41" s="1"/>
@@ -6105,6 +6117,7 @@
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
       <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
@@ -6134,7 +6147,7 @@
       <c r="CG41" s="1"/>
     </row>
     <row r="42" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="1"/>
@@ -6201,6 +6214,7 @@
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
       <c r="BG42" s="1"/>
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
@@ -6230,7 +6244,7 @@
       <c r="CG42" s="1"/>
     </row>
     <row r="43" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>40</v>
       </c>
       <c r="B43" s="1"/>
@@ -6297,6 +6311,7 @@
       <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
       <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
       <c r="BG43" s="1"/>
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
@@ -6326,7 +6341,7 @@
       <c r="CG43" s="1"/>
     </row>
     <row r="44" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>41</v>
       </c>
       <c r="B44" s="1"/>
@@ -6393,6 +6408,7 @@
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
       <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
       <c r="BG44" s="1"/>
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
@@ -6422,7 +6438,7 @@
       <c r="CG44" s="1"/>
     </row>
     <row r="45" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>42</v>
       </c>
       <c r="B45" s="1"/>
@@ -6489,6 +6505,7 @@
       <c r="BC45" s="1"/>
       <c r="BD45" s="1"/>
       <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
       <c r="BG45" s="1"/>
       <c r="BH45" s="1"/>
       <c r="BI45" s="1"/>
@@ -6518,7 +6535,7 @@
       <c r="CG45" s="1"/>
     </row>
     <row r="46" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>43</v>
       </c>
       <c r="B46" s="1"/>
@@ -6585,6 +6602,7 @@
       <c r="BC46" s="1"/>
       <c r="BD46" s="1"/>
       <c r="BE46" s="1"/>
+      <c r="BF46" s="1"/>
       <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
       <c r="BI46" s="1"/>
@@ -6614,7 +6632,7 @@
       <c r="CG46" s="1"/>
     </row>
     <row r="47" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>44</v>
       </c>
       <c r="B47" s="1"/>
@@ -6681,6 +6699,7 @@
       <c r="BC47" s="1"/>
       <c r="BD47" s="1"/>
       <c r="BE47" s="1"/>
+      <c r="BF47" s="1"/>
       <c r="BG47" s="1"/>
       <c r="BH47" s="1"/>
       <c r="BI47" s="1"/>
@@ -6710,7 +6729,7 @@
       <c r="CG47" s="1"/>
     </row>
     <row r="48" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>45</v>
       </c>
       <c r="B48" s="1"/>
@@ -6777,6 +6796,7 @@
       <c r="BC48" s="1"/>
       <c r="BD48" s="1"/>
       <c r="BE48" s="1"/>
+      <c r="BF48" s="1"/>
       <c r="BG48" s="1"/>
       <c r="BH48" s="1"/>
       <c r="BI48" s="1"/>
@@ -6806,7 +6826,7 @@
       <c r="CG48" s="1"/>
     </row>
     <row r="49" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>46</v>
       </c>
       <c r="B49" s="1"/>
@@ -6873,6 +6893,7 @@
       <c r="BC49" s="1"/>
       <c r="BD49" s="1"/>
       <c r="BE49" s="1"/>
+      <c r="BF49" s="1"/>
       <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
       <c r="BI49" s="1"/>
@@ -6902,7 +6923,7 @@
       <c r="CG49" s="1"/>
     </row>
     <row r="50" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>47</v>
       </c>
       <c r="B50" s="1"/>
@@ -6969,6 +6990,7 @@
       <c r="BC50" s="1"/>
       <c r="BD50" s="1"/>
       <c r="BE50" s="1"/>
+      <c r="BF50" s="1"/>
       <c r="BG50" s="1"/>
       <c r="BH50" s="1"/>
       <c r="BI50" s="1"/>
@@ -6998,7 +7020,7 @@
       <c r="CG50" s="1"/>
     </row>
     <row r="51" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>48</v>
       </c>
       <c r="B51" s="1"/>
@@ -7065,6 +7087,7 @@
       <c r="BC51" s="1"/>
       <c r="BD51" s="1"/>
       <c r="BE51" s="1"/>
+      <c r="BF51" s="1"/>
       <c r="BG51" s="1"/>
       <c r="BH51" s="1"/>
       <c r="BI51" s="1"/>
@@ -7094,7 +7117,7 @@
       <c r="CG51" s="1"/>
     </row>
     <row r="52" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>49</v>
       </c>
       <c r="B52" s="1"/>
@@ -7161,6 +7184,7 @@
       <c r="BC52" s="1"/>
       <c r="BD52" s="1"/>
       <c r="BE52" s="1"/>
+      <c r="BF52" s="1"/>
       <c r="BG52" s="1"/>
       <c r="BH52" s="1"/>
       <c r="BI52" s="1"/>
@@ -7190,7 +7214,7 @@
       <c r="CG52" s="1"/>
     </row>
     <row r="53" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>50</v>
       </c>
       <c r="B53" s="1"/>
@@ -7257,6 +7281,7 @@
       <c r="BC53" s="1"/>
       <c r="BD53" s="1"/>
       <c r="BE53" s="1"/>
+      <c r="BF53" s="1"/>
       <c r="BG53" s="1"/>
       <c r="BH53" s="1"/>
       <c r="BI53" s="1"/>
@@ -7286,7 +7311,7 @@
       <c r="CG53" s="1"/>
     </row>
     <row r="54" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>51</v>
       </c>
       <c r="B54" s="1"/>
@@ -7353,6 +7378,7 @@
       <c r="BC54" s="1"/>
       <c r="BD54" s="1"/>
       <c r="BE54" s="1"/>
+      <c r="BF54" s="1"/>
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
       <c r="BI54" s="1"/>
@@ -7382,7 +7408,7 @@
       <c r="CG54" s="1"/>
     </row>
     <row r="55" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>52</v>
       </c>
       <c r="B55" s="1"/>
@@ -7449,6 +7475,7 @@
       <c r="BC55" s="1"/>
       <c r="BD55" s="1"/>
       <c r="BE55" s="1"/>
+      <c r="BF55" s="1"/>
       <c r="BG55" s="1"/>
       <c r="BH55" s="1"/>
       <c r="BI55" s="1"/>
@@ -7478,7 +7505,7 @@
       <c r="CG55" s="1"/>
     </row>
     <row r="56" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>53</v>
       </c>
       <c r="B56" s="1"/>
@@ -7545,6 +7572,7 @@
       <c r="BC56" s="1"/>
       <c r="BD56" s="1"/>
       <c r="BE56" s="1"/>
+      <c r="BF56" s="1"/>
       <c r="BG56" s="1"/>
       <c r="BH56" s="1"/>
       <c r="BI56" s="1"/>
@@ -7590,7 +7618,7 @@
       <c r="CG56" s="1"/>
     </row>
     <row r="57" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>54</v>
       </c>
       <c r="B57" s="1"/>
@@ -7657,6 +7685,7 @@
       <c r="BC57" s="1"/>
       <c r="BD57" s="1"/>
       <c r="BE57" s="1"/>
+      <c r="BF57" s="1"/>
       <c r="BG57" s="1"/>
       <c r="BH57" s="1"/>
       <c r="BI57" s="1"/>
@@ -7686,7 +7715,7 @@
       <c r="CG57" s="1"/>
     </row>
     <row r="58" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>55</v>
       </c>
       <c r="B58" s="1"/>
@@ -7753,6 +7782,7 @@
       <c r="BC58" s="1"/>
       <c r="BD58" s="1"/>
       <c r="BE58" s="1"/>
+      <c r="BF58" s="1"/>
       <c r="BG58" s="1"/>
       <c r="BH58" s="1"/>
       <c r="BI58" s="1"/>
@@ -7782,7 +7812,7 @@
       <c r="CG58" s="1"/>
     </row>
     <row r="59" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>56</v>
       </c>
       <c r="B59" s="1"/>
@@ -7849,6 +7879,7 @@
       <c r="BC59" s="1"/>
       <c r="BD59" s="1"/>
       <c r="BE59" s="1"/>
+      <c r="BF59" s="1"/>
       <c r="BG59" s="1"/>
       <c r="BH59" s="1"/>
       <c r="BI59" s="1"/>
@@ -7878,7 +7909,7 @@
       <c r="CG59" s="1"/>
     </row>
     <row r="60" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>57</v>
       </c>
       <c r="B60" s="1"/>
@@ -7941,6 +7972,7 @@
       <c r="BC60" s="1"/>
       <c r="BD60" s="1"/>
       <c r="BE60" s="1"/>
+      <c r="BF60" s="1"/>
       <c r="BG60" s="1"/>
       <c r="BH60" s="1"/>
       <c r="BI60" s="1"/>
@@ -7982,7 +8014,7 @@
       <c r="CG60" s="1"/>
     </row>
     <row r="61" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>58</v>
       </c>
       <c r="B61" s="1"/>
@@ -8045,6 +8077,7 @@
       <c r="BC61" s="1"/>
       <c r="BD61" s="1"/>
       <c r="BE61" s="1"/>
+      <c r="BF61" s="1"/>
       <c r="BG61" s="1"/>
       <c r="BH61" s="1"/>
       <c r="BI61" s="1"/>
@@ -8074,7 +8107,7 @@
       <c r="CG61" s="1"/>
     </row>
     <row r="62" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>59</v>
       </c>
       <c r="B62" s="1"/>
@@ -8137,6 +8170,7 @@
       <c r="BC62" s="1"/>
       <c r="BD62" s="1"/>
       <c r="BE62" s="1"/>
+      <c r="BF62" s="1"/>
       <c r="BG62" s="1"/>
       <c r="BH62" s="1"/>
       <c r="BI62" s="1"/>
@@ -8166,7 +8200,7 @@
       <c r="CG62" s="1"/>
     </row>
     <row r="63" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>60</v>
       </c>
       <c r="B63" s="1"/>
@@ -8229,6 +8263,7 @@
       <c r="BC63" s="1"/>
       <c r="BD63" s="1"/>
       <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
       <c r="BG63" s="1"/>
       <c r="BH63" s="1"/>
       <c r="BI63" s="1"/>
@@ -8258,7 +8293,7 @@
       <c r="CG63" s="1"/>
     </row>
     <row r="64" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>61</v>
       </c>
       <c r="B64" s="1"/>
@@ -8321,6 +8356,7 @@
       <c r="BC64" s="1"/>
       <c r="BD64" s="1"/>
       <c r="BE64" s="1"/>
+      <c r="BF64" s="1"/>
       <c r="BG64" s="1"/>
       <c r="BH64" s="1"/>
       <c r="BI64" s="1"/>
@@ -8350,7 +8386,7 @@
       <c r="CG64" s="1"/>
     </row>
     <row r="65" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>62</v>
       </c>
       <c r="B65" s="1"/>
@@ -8413,6 +8449,7 @@
       <c r="BC65" s="1"/>
       <c r="BD65" s="1"/>
       <c r="BE65" s="1"/>
+      <c r="BF65" s="1"/>
       <c r="BG65" s="1"/>
       <c r="BH65" s="1"/>
       <c r="BI65" s="1"/>
@@ -8442,7 +8479,7 @@
       <c r="CG65" s="1"/>
     </row>
     <row r="66" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>63</v>
       </c>
       <c r="B66" s="1"/>
@@ -8505,6 +8542,7 @@
       <c r="BC66" s="1"/>
       <c r="BD66" s="1"/>
       <c r="BE66" s="1"/>
+      <c r="BF66" s="1"/>
       <c r="BG66" s="1"/>
       <c r="BH66" s="1"/>
       <c r="BI66" s="1"/>
@@ -8534,7 +8572,7 @@
       <c r="CG66" s="1"/>
     </row>
     <row r="67" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>64</v>
       </c>
       <c r="B67" s="1"/>
@@ -8597,6 +8635,7 @@
       <c r="BC67" s="1"/>
       <c r="BD67" s="1"/>
       <c r="BE67" s="1"/>
+      <c r="BF67" s="1"/>
       <c r="BG67" s="1"/>
       <c r="BH67" s="1"/>
       <c r="BI67" s="1"/>
@@ -8626,7 +8665,7 @@
       <c r="CG67" s="1"/>
     </row>
     <row r="68" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>65</v>
       </c>
       <c r="B68" s="1"/>
@@ -8689,6 +8728,7 @@
       <c r="BC68" s="1"/>
       <c r="BD68" s="1"/>
       <c r="BE68" s="1"/>
+      <c r="BF68" s="1"/>
       <c r="BG68" s="1"/>
       <c r="BH68" s="1"/>
       <c r="BI68" s="1"/>
@@ -8718,7 +8758,7 @@
       <c r="CG68" s="1"/>
     </row>
     <row r="69" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>66</v>
       </c>
       <c r="B69" s="1"/>
@@ -8781,6 +8821,7 @@
       <c r="BC69" s="1"/>
       <c r="BD69" s="1"/>
       <c r="BE69" s="1"/>
+      <c r="BF69" s="1"/>
       <c r="BG69" s="1"/>
       <c r="BH69" s="1"/>
       <c r="BI69" s="1"/>
@@ -8810,7 +8851,7 @@
       <c r="CG69" s="1"/>
     </row>
     <row r="70" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>67</v>
       </c>
       <c r="B70" s="1"/>
@@ -8873,6 +8914,7 @@
       <c r="BC70" s="1"/>
       <c r="BD70" s="1"/>
       <c r="BE70" s="1"/>
+      <c r="BF70" s="1"/>
       <c r="BG70" s="1"/>
       <c r="BH70" s="1"/>
       <c r="BI70" s="1"/>
@@ -8902,7 +8944,7 @@
       <c r="CG70" s="1"/>
     </row>
     <row r="71" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>68</v>
       </c>
       <c r="B71" s="1"/>
@@ -8965,6 +9007,7 @@
       <c r="BC71" s="1"/>
       <c r="BD71" s="1"/>
       <c r="BE71" s="1"/>
+      <c r="BF71" s="1"/>
       <c r="BG71" s="1"/>
       <c r="BH71" s="1"/>
       <c r="BI71" s="1"/>
@@ -8994,7 +9037,7 @@
       <c r="CG71" s="1"/>
     </row>
     <row r="72" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>69</v>
       </c>
       <c r="B72" s="1"/>
@@ -9057,6 +9100,7 @@
       <c r="BC72" s="1"/>
       <c r="BD72" s="1"/>
       <c r="BE72" s="1"/>
+      <c r="BF72" s="1"/>
       <c r="BG72" s="1"/>
       <c r="BH72" s="1"/>
       <c r="BI72" s="1"/>
@@ -9086,7 +9130,7 @@
       <c r="CG72" s="1"/>
     </row>
     <row r="73" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>70</v>
       </c>
       <c r="B73" s="1"/>
@@ -9149,6 +9193,7 @@
       <c r="BC73" s="1"/>
       <c r="BD73" s="1"/>
       <c r="BE73" s="1"/>
+      <c r="BF73" s="1"/>
       <c r="BG73" s="1"/>
       <c r="BH73" s="1"/>
       <c r="BI73" s="1"/>
@@ -9178,7 +9223,7 @@
       <c r="CG73" s="1"/>
     </row>
     <row r="74" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>71</v>
       </c>
       <c r="B74" s="1"/>
@@ -9245,6 +9290,7 @@
       <c r="BC74" s="1"/>
       <c r="BD74" s="1"/>
       <c r="BE74" s="1"/>
+      <c r="BF74" s="1"/>
       <c r="BG74" s="1"/>
       <c r="BH74" s="1"/>
       <c r="BI74" s="1"/>
@@ -9288,7 +9334,7 @@
       <c r="CG74" s="1"/>
     </row>
     <row r="75" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>72</v>
       </c>
       <c r="B75" s="1"/>
@@ -9359,6 +9405,7 @@
       <c r="BC75" s="1"/>
       <c r="BD75" s="1"/>
       <c r="BE75" s="1"/>
+      <c r="BF75" s="1"/>
       <c r="BG75" s="1"/>
       <c r="BH75" s="1"/>
       <c r="BI75" s="1"/>
@@ -9394,7 +9441,7 @@
       </c>
     </row>
     <row r="76" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>73</v>
       </c>
       <c r="B76" s="1"/>
@@ -9455,6 +9502,7 @@
       <c r="BC76" s="1"/>
       <c r="BD76" s="1"/>
       <c r="BE76" s="1"/>
+      <c r="BF76" s="1"/>
       <c r="BG76" s="1"/>
       <c r="BH76" s="1"/>
       <c r="BI76" s="1"/>
@@ -9486,7 +9534,7 @@
       <c r="CG76" s="1"/>
     </row>
     <row r="77" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -9631,7 +9679,7 @@
       <c r="BE77" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BF77" t="s">
+      <c r="BF77" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BG77" s="1"/>
@@ -9663,7 +9711,7 @@
       <c r="CG77" s="1"/>
     </row>
     <row r="78" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>75</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -9806,7 +9854,7 @@
       <c r="BE78" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BF78" t="s">
+      <c r="BF78" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BG78" s="1"/>
@@ -9838,7 +9886,7 @@
       <c r="CG78" s="1"/>
     </row>
     <row r="79" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>76</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -9981,7 +10029,7 @@
       <c r="BE79" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BF79" t="s">
+      <c r="BF79" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BG79" s="1"/>
@@ -10013,7 +10061,7 @@
       <c r="CG79" s="1"/>
     </row>
     <row r="80" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>77</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -10156,7 +10204,7 @@
       <c r="BE80" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BF80" t="s">
+      <c r="BF80" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BG80" s="1"/>
@@ -10188,7 +10236,7 @@
       <c r="CG80" s="1"/>
     </row>
     <row r="81" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>78</v>
       </c>
       <c r="B81" s="1"/>
@@ -10269,6 +10317,7 @@
       <c r="BC81" s="1"/>
       <c r="BD81" s="1"/>
       <c r="BE81" s="1"/>
+      <c r="BF81" s="1"/>
       <c r="BG81" s="1"/>
       <c r="BH81" s="1"/>
       <c r="BI81" s="1"/>
@@ -10300,7 +10349,7 @@
       <c r="CG81" s="1"/>
     </row>
     <row r="82" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>79</v>
       </c>
       <c r="B82" s="1"/>
@@ -10361,6 +10410,7 @@
       <c r="BC82" s="1"/>
       <c r="BD82" s="1"/>
       <c r="BE82" s="1"/>
+      <c r="BF82" s="1"/>
       <c r="BG82" s="1"/>
       <c r="BH82" s="1"/>
       <c r="BI82" s="1"/>
@@ -10390,7 +10440,7 @@
       <c r="CG82" s="1"/>
     </row>
     <row r="83" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>80</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -10505,7 +10555,7 @@
       <c r="BE83" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BF83" t="s">
+      <c r="BF83" s="1" t="s">
         <v>46</v>
       </c>
       <c r="BG83" s="1"/>
@@ -10537,7 +10587,7 @@
       <c r="CG83" s="1"/>
     </row>
     <row r="84" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>81</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -10678,7 +10728,7 @@
       <c r="BE84" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BF84" t="s">
+      <c r="BF84" s="1" t="s">
         <v>63</v>
       </c>
       <c r="BG84" s="1"/>
@@ -10710,7 +10760,7 @@
       <c r="CG84" s="1"/>
     </row>
     <row r="85" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>82</v>
       </c>
       <c r="B85" s="1"/>
@@ -10777,6 +10827,7 @@
       <c r="BC85" s="1"/>
       <c r="BD85" s="1"/>
       <c r="BE85" s="1"/>
+      <c r="BF85" s="1"/>
       <c r="BG85" s="1"/>
       <c r="BH85" s="1"/>
       <c r="BI85" s="1"/>
@@ -10820,7 +10871,7 @@
       <c r="CG85" s="1"/>
     </row>
     <row r="86" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>83</v>
       </c>
       <c r="B86" s="1"/>
@@ -10887,6 +10938,7 @@
       <c r="BC86" s="1"/>
       <c r="BD86" s="1"/>
       <c r="BE86" s="1"/>
+      <c r="BF86" s="1"/>
       <c r="BG86" s="1"/>
       <c r="BH86" s="1"/>
       <c r="BI86" s="1"/>
@@ -10930,7 +10982,7 @@
       <c r="CG86" s="1"/>
     </row>
     <row r="87" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>84</v>
       </c>
       <c r="B87" s="1"/>
@@ -10991,6 +11043,7 @@
       <c r="BC87" s="1"/>
       <c r="BD87" s="1"/>
       <c r="BE87" s="1"/>
+      <c r="BF87" s="1"/>
       <c r="BG87" s="1"/>
       <c r="BH87" s="1"/>
       <c r="BI87" s="1"/>
@@ -11020,7 +11073,7 @@
       <c r="CG87" s="1"/>
     </row>
     <row r="88" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>85</v>
       </c>
       <c r="B88" s="1"/>
@@ -11081,6 +11134,7 @@
       <c r="BC88" s="1"/>
       <c r="BD88" s="1"/>
       <c r="BE88" s="1"/>
+      <c r="BF88" s="1"/>
       <c r="BG88" s="1"/>
       <c r="BH88" s="1"/>
       <c r="BI88" s="1"/>
@@ -11110,7 +11164,7 @@
       <c r="CG88" s="1"/>
     </row>
     <row r="89" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>86</v>
       </c>
       <c r="B89" s="1"/>
@@ -11177,6 +11231,7 @@
       <c r="BC89" s="1"/>
       <c r="BD89" s="1"/>
       <c r="BE89" s="1"/>
+      <c r="BF89" s="1"/>
       <c r="BG89" s="1"/>
       <c r="BH89" s="1"/>
       <c r="BI89" s="1"/>
@@ -11222,7 +11277,7 @@
       <c r="CG89" s="1"/>
     </row>
     <row r="90" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>87</v>
       </c>
       <c r="B90" s="1"/>
@@ -11289,10 +11344,13 @@
       <c r="BC90" s="1"/>
       <c r="BD90" s="1"/>
       <c r="BE90" s="1"/>
+      <c r="BF90" s="1"/>
       <c r="BG90" s="1"/>
       <c r="BH90" s="1"/>
       <c r="BI90" s="1"/>
-      <c r="BJ90" s="1"/>
+      <c r="BJ90" s="1">
+        <v>112</v>
+      </c>
       <c r="BK90" s="1"/>
       <c r="BL90" s="1"/>
       <c r="BM90" s="1"/>
@@ -11300,14 +11358,12 @@
       <c r="BO90" s="1"/>
       <c r="BP90" s="1"/>
       <c r="BQ90" s="1">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="BR90" s="1"/>
       <c r="BS90" s="1"/>
       <c r="BT90" s="1"/>
-      <c r="BU90" s="1">
-        <v>112</v>
-      </c>
+      <c r="BU90" s="1"/>
       <c r="BV90" s="1">
         <v>80</v>
       </c>
@@ -11334,7 +11390,7 @@
       <c r="CG90" s="1"/>
     </row>
     <row r="91" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>88</v>
       </c>
       <c r="B91" s="1"/>
@@ -11397,6 +11453,7 @@
       <c r="BC91" s="1"/>
       <c r="BD91" s="1"/>
       <c r="BE91" s="1"/>
+      <c r="BF91" s="1"/>
       <c r="BG91" s="1"/>
       <c r="BH91" s="1"/>
       <c r="BI91" s="1"/>
@@ -11432,7 +11489,7 @@
       <c r="CG91" s="1"/>
     </row>
     <row r="92" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>89</v>
       </c>
       <c r="B92" s="1"/>
@@ -11493,6 +11550,7 @@
       <c r="BC92" s="1"/>
       <c r="BD92" s="1"/>
       <c r="BE92" s="1"/>
+      <c r="BF92" s="1"/>
       <c r="BG92" s="1"/>
       <c r="BH92" s="1"/>
       <c r="BI92" s="1"/>
@@ -11522,7 +11580,7 @@
       <c r="CG92" s="1"/>
     </row>
     <row r="93" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>90</v>
       </c>
       <c r="B93" s="1"/>
@@ -11585,6 +11643,7 @@
       <c r="BC93" s="1"/>
       <c r="BD93" s="1"/>
       <c r="BE93" s="1"/>
+      <c r="BF93" s="1"/>
       <c r="BG93" s="1"/>
       <c r="BH93" s="1"/>
       <c r="BI93" s="1"/>
@@ -11614,7 +11673,7 @@
       <c r="CG93" s="1"/>
     </row>
     <row r="94" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>91</v>
       </c>
       <c r="B94" s="1"/>
@@ -11675,6 +11734,7 @@
       <c r="BC94" s="1"/>
       <c r="BD94" s="1"/>
       <c r="BE94" s="1"/>
+      <c r="BF94" s="1"/>
       <c r="BG94" s="1"/>
       <c r="BH94" s="1"/>
       <c r="BI94" s="1"/>
@@ -11704,7 +11764,7 @@
       <c r="CG94" s="1"/>
     </row>
     <row r="95" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>92</v>
       </c>
       <c r="B95" s="1"/>
@@ -11767,6 +11827,7 @@
       </c>
       <c r="BD95" s="1"/>
       <c r="BE95" s="1"/>
+      <c r="BF95" s="1"/>
       <c r="BG95" s="1"/>
       <c r="BH95" s="1"/>
       <c r="BI95" s="1"/>
@@ -11796,7 +11857,7 @@
       <c r="CG95" s="1"/>
     </row>
     <row r="96" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>93</v>
       </c>
       <c r="B96" s="1"/>
@@ -11857,6 +11918,7 @@
       </c>
       <c r="BD96" s="1"/>
       <c r="BE96" s="1"/>
+      <c r="BF96" s="1"/>
       <c r="BG96" s="1"/>
       <c r="BH96" s="1"/>
       <c r="BI96" s="1"/>
@@ -11886,7 +11948,7 @@
       <c r="CG96" s="1"/>
     </row>
     <row r="97" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -11953,7 +12015,7 @@
       <c r="BC97" s="1"/>
       <c r="BD97" s="1"/>
       <c r="BE97" s="1"/>
-      <c r="BF97" t="s">
+      <c r="BF97" s="1" t="s">
         <v>125</v>
       </c>
       <c r="BG97" s="1"/>
@@ -11985,7 +12047,7 @@
       <c r="CG97" s="1"/>
     </row>
     <row r="98" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>95</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -12052,7 +12114,7 @@
       <c r="BC98" s="1"/>
       <c r="BD98" s="1"/>
       <c r="BE98" s="1"/>
-      <c r="BF98" t="s">
+      <c r="BF98" s="1" t="s">
         <v>126</v>
       </c>
       <c r="BG98" s="1"/>
@@ -12084,7 +12146,7 @@
       <c r="CG98" s="1"/>
     </row>
     <row r="99" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -12153,7 +12215,7 @@
       </c>
       <c r="BD99" s="1"/>
       <c r="BE99" s="1"/>
-      <c r="BF99" t="s">
+      <c r="BF99" s="1" t="s">
         <v>127</v>
       </c>
       <c r="BG99" s="1"/>
@@ -12185,7 +12247,7 @@
       <c r="CG99" s="1"/>
     </row>
     <row r="100" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>97</v>
       </c>
       <c r="B100" s="1"/>
@@ -12246,6 +12308,7 @@
       <c r="BC100" s="1"/>
       <c r="BD100" s="1"/>
       <c r="BE100" s="1"/>
+      <c r="BF100" s="1"/>
       <c r="BG100" s="1"/>
       <c r="BH100" s="1"/>
       <c r="BI100" s="1"/>
@@ -12275,7 +12338,7 @@
       <c r="CG100" s="1"/>
     </row>
     <row r="101" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>98</v>
       </c>
       <c r="B101" s="1"/>
@@ -12346,6 +12409,7 @@
       <c r="BC101" s="1"/>
       <c r="BD101" s="1"/>
       <c r="BE101" s="1"/>
+      <c r="BF101" s="1"/>
       <c r="BG101" s="1"/>
       <c r="BH101" s="1"/>
       <c r="BI101" s="1"/>
@@ -12381,7 +12445,7 @@
       </c>
     </row>
     <row r="102" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>99</v>
       </c>
       <c r="B102" s="1"/>
@@ -12452,6 +12516,7 @@
       <c r="BC102" s="1"/>
       <c r="BD102" s="1"/>
       <c r="BE102" s="1"/>
+      <c r="BF102" s="1"/>
       <c r="BG102" s="1"/>
       <c r="BH102" s="1"/>
       <c r="BI102" s="1"/>
@@ -12487,7 +12552,7 @@
       </c>
     </row>
     <row r="103" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>100</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -12533,7 +12598,9 @@
       <c r="AN103" s="1"/>
       <c r="AO103" s="1"/>
       <c r="AP103" s="1"/>
-      <c r="AQ103" s="1"/>
+      <c r="AQ103" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="AR103" s="1"/>
       <c r="AS103" s="1"/>
       <c r="AT103" s="1"/>
@@ -12550,7 +12617,7 @@
       <c r="BC103" s="1"/>
       <c r="BD103" s="1"/>
       <c r="BE103" s="1"/>
-      <c r="BF103" t="s">
+      <c r="BF103" s="1" t="s">
         <v>130</v>
       </c>
       <c r="BG103" s="1"/>
@@ -12582,7 +12649,7 @@
       <c r="CG103" s="1"/>
     </row>
     <row r="104" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -12628,7 +12695,9 @@
       <c r="AN104" s="1"/>
       <c r="AO104" s="1"/>
       <c r="AP104" s="1"/>
-      <c r="AQ104" s="1"/>
+      <c r="AQ104" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="AR104" s="1"/>
       <c r="AS104" s="1"/>
       <c r="AT104" s="1"/>
@@ -12645,7 +12714,7 @@
       <c r="BC104" s="1"/>
       <c r="BD104" s="1"/>
       <c r="BE104" s="1"/>
-      <c r="BF104" t="s">
+      <c r="BF104" s="1" t="s">
         <v>131</v>
       </c>
       <c r="BG104" s="1"/>
@@ -12677,7 +12746,7 @@
       <c r="CG104" s="1"/>
     </row>
     <row r="105" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>102</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -12740,7 +12809,7 @@
       <c r="BC105" s="1"/>
       <c r="BD105" s="1"/>
       <c r="BE105" s="1"/>
-      <c r="BF105" t="s">
+      <c r="BF105" s="1" t="s">
         <v>132</v>
       </c>
       <c r="BG105" s="1"/>
@@ -12772,7 +12841,7 @@
       <c r="CG105" s="1"/>
     </row>
     <row r="106" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>103</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -12885,7 +12954,7 @@
       <c r="BE106" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BF106" t="s">
+      <c r="BF106" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BG106" s="1"/>
@@ -12917,7 +12986,7 @@
       <c r="CG106" s="1"/>
     </row>
     <row r="107" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>104</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -12986,7 +13055,7 @@
       </c>
       <c r="BD107" s="1"/>
       <c r="BE107" s="1"/>
-      <c r="BF107" t="s">
+      <c r="BF107" s="1" t="s">
         <v>134</v>
       </c>
       <c r="BG107" s="1"/>
@@ -13018,7 +13087,7 @@
       <c r="CG107" s="1"/>
     </row>
     <row r="108" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>105</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -13133,7 +13202,7 @@
       <c r="BE108" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BF108" t="s">
+      <c r="BF108" s="1" t="s">
         <v>136</v>
       </c>
       <c r="BG108" s="1"/>
@@ -13165,7 +13234,7 @@
       <c r="CG108" s="1"/>
     </row>
     <row r="109" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>106</v>
       </c>
       <c r="B109" s="1"/>
@@ -13232,6 +13301,7 @@
       <c r="BC109" s="1"/>
       <c r="BD109" s="1"/>
       <c r="BE109" s="1"/>
+      <c r="BF109" s="1"/>
       <c r="BG109" s="1"/>
       <c r="BH109" s="1"/>
       <c r="BI109" s="1"/>
@@ -13277,7 +13347,7 @@
       <c r="CG109" s="1"/>
     </row>
     <row r="110" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>107</v>
       </c>
       <c r="B110" s="1"/>
@@ -13360,6 +13430,7 @@
       <c r="BC110" s="1"/>
       <c r="BD110" s="1"/>
       <c r="BE110" s="1"/>
+      <c r="BF110" s="1"/>
       <c r="BG110" s="1"/>
       <c r="BH110" s="1"/>
       <c r="BI110" s="1">
@@ -13423,7 +13494,7 @@
       </c>
     </row>
     <row r="111" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>108</v>
       </c>
       <c r="B111" s="1"/>
@@ -13506,6 +13577,7 @@
       <c r="BC111" s="1"/>
       <c r="BD111" s="1"/>
       <c r="BE111" s="1"/>
+      <c r="BF111" s="1"/>
       <c r="BG111" s="1"/>
       <c r="BH111" s="1"/>
       <c r="BI111" s="1">
@@ -13569,7 +13641,7 @@
       </c>
     </row>
     <row r="112" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>109</v>
       </c>
       <c r="B112" s="1"/>
@@ -13634,6 +13706,7 @@
       <c r="BC112" s="1"/>
       <c r="BD112" s="1"/>
       <c r="BE112" s="1"/>
+      <c r="BF112" s="1"/>
       <c r="BG112" s="1"/>
       <c r="BH112" s="1"/>
       <c r="BI112" s="1"/>
@@ -13665,7 +13738,7 @@
       </c>
     </row>
     <row r="113" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>110</v>
       </c>
       <c r="B113" s="1"/>
@@ -13750,6 +13823,7 @@
       <c r="BC113" s="1"/>
       <c r="BD113" s="1"/>
       <c r="BE113" s="1"/>
+      <c r="BF113" s="1"/>
       <c r="BG113" s="1"/>
       <c r="BH113" s="1"/>
       <c r="BI113" s="1"/>
@@ -13781,7 +13855,7 @@
       <c r="CG113" s="1"/>
     </row>
     <row r="114" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>111</v>
       </c>
       <c r="B114" s="1"/>
@@ -13842,6 +13916,7 @@
       <c r="BC114" s="1"/>
       <c r="BD114" s="1"/>
       <c r="BE114" s="1"/>
+      <c r="BF114" s="1"/>
       <c r="BG114" s="1"/>
       <c r="BH114" s="1"/>
       <c r="BI114" s="1"/>
@@ -13871,7 +13946,7 @@
       <c r="CG114" s="1"/>
     </row>
     <row r="115" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>112</v>
       </c>
       <c r="B115" s="1"/>
@@ -13932,6 +14007,7 @@
       <c r="BC115" s="1"/>
       <c r="BD115" s="1"/>
       <c r="BE115" s="1"/>
+      <c r="BF115" s="1"/>
       <c r="BG115" s="1"/>
       <c r="BH115" s="1"/>
       <c r="BI115" s="1"/>
@@ -13961,7 +14037,7 @@
       <c r="CG115" s="1"/>
     </row>
     <row r="116" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>113</v>
       </c>
       <c r="B116" s="1"/>
@@ -14024,6 +14100,7 @@
       <c r="BC116" s="1"/>
       <c r="BD116" s="1"/>
       <c r="BE116" s="1"/>
+      <c r="BF116" s="1"/>
       <c r="BG116" s="1"/>
       <c r="BH116" s="1"/>
       <c r="BI116" s="1"/>
@@ -14053,7 +14130,7 @@
       <c r="CG116" s="1"/>
     </row>
     <row r="117" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>114</v>
       </c>
       <c r="B117" s="1"/>
@@ -14122,6 +14199,7 @@
       <c r="BC117" s="1"/>
       <c r="BD117" s="1"/>
       <c r="BE117" s="1"/>
+      <c r="BF117" s="1"/>
       <c r="BG117" s="1"/>
       <c r="BH117" s="1"/>
       <c r="BI117" s="1"/>
@@ -14165,7 +14243,7 @@
       <c r="CG117" s="1"/>
     </row>
     <row r="118" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>115</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -14234,7 +14312,7 @@
       </c>
       <c r="BD118" s="1"/>
       <c r="BE118" s="1"/>
-      <c r="BF118" t="s">
+      <c r="BF118" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BG118" s="1"/>
@@ -14266,7 +14344,7 @@
       <c r="CG118" s="1"/>
     </row>
     <row r="119" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>116</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -14379,7 +14457,7 @@
       <c r="BE119" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BF119" t="s">
+      <c r="BF119" s="1" t="s">
         <v>147</v>
       </c>
       <c r="BG119" s="1"/>
@@ -14411,7 +14489,7 @@
       <c r="CG119" s="1"/>
     </row>
     <row r="120" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>117</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -14480,7 +14558,7 @@
       </c>
       <c r="BD120" s="1"/>
       <c r="BE120" s="1"/>
-      <c r="BF120" t="s">
+      <c r="BF120" s="1" t="s">
         <v>148</v>
       </c>
       <c r="BG120" s="1"/>
@@ -14512,7 +14590,7 @@
       <c r="CG120" s="1"/>
     </row>
     <row r="121" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>118</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -14625,7 +14703,7 @@
       <c r="BE121" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BF121" t="s">
+      <c r="BF121" s="1" t="s">
         <v>149</v>
       </c>
       <c r="BG121" s="1"/>
@@ -14657,7 +14735,7 @@
       <c r="CG121" s="1"/>
     </row>
     <row r="122" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>119</v>
       </c>
       <c r="B122" s="1"/>
@@ -14718,6 +14796,7 @@
       <c r="BC122" s="1"/>
       <c r="BD122" s="1"/>
       <c r="BE122" s="1"/>
+      <c r="BF122" s="1"/>
       <c r="BG122" s="1"/>
       <c r="BH122" s="1"/>
       <c r="BI122" s="1"/>
@@ -14747,7 +14826,7 @@
       <c r="CG122" s="1"/>
     </row>
     <row r="123" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>120</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -14810,7 +14889,7 @@
       <c r="BC123" s="1"/>
       <c r="BD123" s="1"/>
       <c r="BE123" s="1"/>
-      <c r="BF123" t="s">
+      <c r="BF123" s="1" t="s">
         <v>151</v>
       </c>
       <c r="BG123" s="1"/>
@@ -14842,7 +14921,7 @@
       <c r="CG123" s="1"/>
     </row>
     <row r="124" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>121</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -14909,7 +14988,7 @@
       <c r="BC124" s="1"/>
       <c r="BD124" s="1"/>
       <c r="BE124" s="1"/>
-      <c r="BF124" t="s">
+      <c r="BF124" s="1" t="s">
         <v>153</v>
       </c>
       <c r="BG124" s="1"/>
@@ -14943,7 +15022,7 @@
       <c r="CG124" s="1"/>
     </row>
     <row r="125" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>122</v>
       </c>
       <c r="B125" s="1"/>
@@ -15024,6 +15103,7 @@
       <c r="BC125" s="1"/>
       <c r="BD125" s="1"/>
       <c r="BE125" s="1"/>
+      <c r="BF125" s="1"/>
       <c r="BG125" s="1"/>
       <c r="BH125" s="1">
         <v>138</v>
@@ -15087,7 +15167,7 @@
       </c>
     </row>
     <row r="126" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -15152,7 +15232,7 @@
       <c r="BC126" s="1"/>
       <c r="BD126" s="1"/>
       <c r="BE126" s="1"/>
-      <c r="BF126" t="s">
+      <c r="BF126" s="1" t="s">
         <v>155</v>
       </c>
       <c r="BG126" s="1"/>
@@ -15186,7 +15266,7 @@
       <c r="CG126" s="1"/>
     </row>
     <row r="127" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>124</v>
       </c>
       <c r="B127" s="1"/>
@@ -15247,6 +15327,7 @@
       <c r="BC127" s="1"/>
       <c r="BD127" s="1"/>
       <c r="BE127" s="1"/>
+      <c r="BF127" s="1"/>
       <c r="BG127" s="1"/>
       <c r="BH127" s="1"/>
       <c r="BI127" s="1"/>
@@ -15276,7 +15357,7 @@
       <c r="CG127" s="1"/>
     </row>
     <row r="128" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>125</v>
       </c>
       <c r="B128" s="1"/>
@@ -15343,6 +15424,7 @@
       <c r="BC128" s="1"/>
       <c r="BD128" s="1"/>
       <c r="BE128" s="1"/>
+      <c r="BF128" s="1"/>
       <c r="BG128" s="1"/>
       <c r="BH128" s="1"/>
       <c r="BI128" s="1"/>
@@ -15386,7 +15468,7 @@
       <c r="CG128" s="1"/>
     </row>
     <row r="129" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>126</v>
       </c>
       <c r="B129" s="1"/>
@@ -15453,6 +15535,7 @@
       <c r="BC129" s="1"/>
       <c r="BD129" s="1"/>
       <c r="BE129" s="1"/>
+      <c r="BF129" s="1"/>
       <c r="BG129" s="1"/>
       <c r="BH129" s="1"/>
       <c r="BI129" s="1"/>
@@ -15496,7 +15579,7 @@
       <c r="CG129" s="1"/>
     </row>
     <row r="130" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>127</v>
       </c>
       <c r="B130" s="1"/>
@@ -15563,6 +15646,7 @@
       <c r="BC130" s="1"/>
       <c r="BD130" s="1"/>
       <c r="BE130" s="1"/>
+      <c r="BF130" s="1"/>
       <c r="BG130" s="1"/>
       <c r="BH130" s="1"/>
       <c r="BI130" s="1"/>
@@ -15608,7 +15692,7 @@
       <c r="CG130" s="1"/>
     </row>
     <row r="131" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -15677,7 +15761,7 @@
       </c>
       <c r="BD131" s="1"/>
       <c r="BE131" s="1"/>
-      <c r="BF131" t="s">
+      <c r="BF131" s="1" t="s">
         <v>158</v>
       </c>
       <c r="BG131" s="1"/>
@@ -15709,7 +15793,7 @@
       <c r="CG131" s="1"/>
     </row>
     <row r="132" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>129</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -15778,7 +15862,7 @@
       </c>
       <c r="BD132" s="1"/>
       <c r="BE132" s="1"/>
-      <c r="BF132" t="s">
+      <c r="BF132" s="1" t="s">
         <v>159</v>
       </c>
       <c r="BG132" s="1"/>
@@ -15810,7 +15894,7 @@
       <c r="CG132" s="1"/>
     </row>
     <row r="133" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -15881,7 +15965,7 @@
       </c>
       <c r="BD133" s="1"/>
       <c r="BE133" s="1"/>
-      <c r="BF133" t="s">
+      <c r="BF133" s="1" t="s">
         <v>160</v>
       </c>
       <c r="BG133" s="1"/>
@@ -15913,7 +15997,7 @@
       <c r="CG133" s="1"/>
     </row>
     <row r="134" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>131</v>
       </c>
       <c r="B134" s="1"/>
@@ -15976,6 +16060,7 @@
       <c r="BC134" s="1"/>
       <c r="BD134" s="1"/>
       <c r="BE134" s="1"/>
+      <c r="BF134" s="1"/>
       <c r="BG134" s="1"/>
       <c r="BH134" s="1"/>
       <c r="BI134" s="1"/>
@@ -16011,7 +16096,7 @@
       <c r="CG134" s="1"/>
     </row>
     <row r="135" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>132</v>
       </c>
       <c r="B135" s="1"/>
@@ -16072,6 +16157,7 @@
       <c r="BC135" s="1"/>
       <c r="BD135" s="1"/>
       <c r="BE135" s="1"/>
+      <c r="BF135" s="1"/>
       <c r="BG135" s="1"/>
       <c r="BH135" s="1"/>
       <c r="BI135" s="1"/>
@@ -16101,7 +16187,7 @@
       <c r="CG135" s="1"/>
     </row>
     <row r="136" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>133</v>
       </c>
       <c r="B136" s="1"/>
@@ -16162,6 +16248,7 @@
       <c r="BC136" s="1"/>
       <c r="BD136" s="1"/>
       <c r="BE136" s="1"/>
+      <c r="BF136" s="1"/>
       <c r="BG136" s="1"/>
       <c r="BH136" s="1"/>
       <c r="BI136" s="1"/>
@@ -16191,7 +16278,7 @@
       <c r="CG136" s="1"/>
     </row>
     <row r="137" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>134</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -16258,7 +16345,7 @@
       <c r="BC137" s="1"/>
       <c r="BD137" s="1"/>
       <c r="BE137" s="1"/>
-      <c r="BF137" t="s">
+      <c r="BF137" s="1" t="s">
         <v>163</v>
       </c>
       <c r="BG137" s="1"/>
@@ -16290,7 +16377,7 @@
       <c r="CG137" s="1"/>
     </row>
     <row r="138" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>135</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -16357,7 +16444,7 @@
       <c r="BC138" s="1"/>
       <c r="BD138" s="1"/>
       <c r="BE138" s="1"/>
-      <c r="BF138" t="s">
+      <c r="BF138" s="1" t="s">
         <v>164</v>
       </c>
       <c r="BG138" s="1"/>
@@ -16389,7 +16476,7 @@
       <c r="CG138" s="1"/>
     </row>
     <row r="139" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>136</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -16454,7 +16541,7 @@
       <c r="BC139" s="1"/>
       <c r="BD139" s="1"/>
       <c r="BE139" s="1"/>
-      <c r="BF139" t="s">
+      <c r="BF139" s="1" t="s">
         <v>155</v>
       </c>
       <c r="BG139" s="1"/>
@@ -16488,7 +16575,7 @@
       <c r="CG139" s="1"/>
     </row>
     <row r="140" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>137</v>
       </c>
       <c r="B140" s="1"/>
@@ -16555,6 +16642,7 @@
       <c r="BC140" s="1"/>
       <c r="BD140" s="1"/>
       <c r="BE140" s="1"/>
+      <c r="BF140" s="1"/>
       <c r="BG140" s="1"/>
       <c r="BH140" s="1"/>
       <c r="BI140" s="1"/>
@@ -16600,7 +16688,7 @@
       <c r="CG140" s="1"/>
     </row>
     <row r="141" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>138</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -16667,7 +16755,7 @@
       <c r="BC141" s="1"/>
       <c r="BD141" s="1"/>
       <c r="BE141" s="1"/>
-      <c r="BF141" t="s">
+      <c r="BF141" s="1" t="s">
         <v>165</v>
       </c>
       <c r="BG141" s="1"/>
@@ -16699,7 +16787,7 @@
       <c r="CG141" s="1"/>
     </row>
     <row r="142" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>139</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -16762,7 +16850,7 @@
       <c r="BC142" s="1"/>
       <c r="BD142" s="1"/>
       <c r="BE142" s="1"/>
-      <c r="BF142" t="s">
+      <c r="BF142" s="1" t="s">
         <v>166</v>
       </c>
       <c r="BG142" s="1"/>
@@ -16794,7 +16882,7 @@
       <c r="CG142" s="1"/>
     </row>
     <row r="143" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>140</v>
       </c>
       <c r="B143" s="1"/>
@@ -16861,6 +16949,7 @@
       <c r="BC143" s="1"/>
       <c r="BD143" s="1"/>
       <c r="BE143" s="1"/>
+      <c r="BF143" s="1"/>
       <c r="BG143" s="1"/>
       <c r="BH143" s="1"/>
       <c r="BI143" s="1"/>
@@ -16906,7 +16995,7 @@
       <c r="CG143" s="1"/>
     </row>
     <row r="144" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>141</v>
       </c>
       <c r="B144" s="1"/>
@@ -16989,6 +17078,7 @@
       <c r="BC144" s="1"/>
       <c r="BD144" s="1"/>
       <c r="BE144" s="1"/>
+      <c r="BF144" s="1"/>
       <c r="BG144" s="1"/>
       <c r="BH144" s="1"/>
       <c r="BI144" s="1">
@@ -17052,7 +17142,7 @@
       </c>
     </row>
     <row r="145" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>142</v>
       </c>
       <c r="B145" s="1"/>
@@ -17113,6 +17203,7 @@
       <c r="BC145" s="1"/>
       <c r="BD145" s="1"/>
       <c r="BE145" s="1"/>
+      <c r="BF145" s="1"/>
       <c r="BG145" s="1"/>
       <c r="BH145" s="1"/>
       <c r="BI145" s="1"/>
@@ -17142,7 +17233,7 @@
       <c r="CG145" s="1"/>
     </row>
     <row r="146" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
+      <c r="A146" s="4">
         <v>143</v>
       </c>
       <c r="B146" s="1"/>
@@ -17203,6 +17294,7 @@
       </c>
       <c r="BD146" s="1"/>
       <c r="BE146" s="1"/>
+      <c r="BF146" s="1"/>
       <c r="BG146" s="1"/>
       <c r="BH146" s="1"/>
       <c r="BI146" s="1"/>
@@ -17232,7 +17324,7 @@
       <c r="CG146" s="1"/>
     </row>
     <row r="147" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
+      <c r="A147" s="4">
         <v>144</v>
       </c>
       <c r="B147" s="1"/>
@@ -17295,6 +17387,7 @@
       <c r="BC147" s="1"/>
       <c r="BD147" s="1"/>
       <c r="BE147" s="1"/>
+      <c r="BF147" s="1"/>
       <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
       <c r="BI147" s="1"/>
@@ -17324,7 +17417,7 @@
       <c r="CG147" s="1"/>
     </row>
     <row r="148" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
+      <c r="A148" s="4">
         <v>145</v>
       </c>
       <c r="B148" s="1"/>
@@ -17387,6 +17480,7 @@
       <c r="BC148" s="1"/>
       <c r="BD148" s="1"/>
       <c r="BE148" s="1"/>
+      <c r="BF148" s="1"/>
       <c r="BG148" s="1"/>
       <c r="BH148" s="1"/>
       <c r="BI148" s="1"/>
@@ -17416,7 +17510,7 @@
       <c r="CG148" s="1"/>
     </row>
     <row r="149" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
+      <c r="A149" s="4">
         <v>146</v>
       </c>
       <c r="B149" s="1"/>
@@ -17477,6 +17571,7 @@
       <c r="BC149" s="1"/>
       <c r="BD149" s="1"/>
       <c r="BE149" s="1"/>
+      <c r="BF149" s="1"/>
       <c r="BG149" s="1"/>
       <c r="BH149" s="1"/>
       <c r="BI149" s="1"/>
@@ -17506,7 +17601,7 @@
       <c r="CG149" s="1"/>
     </row>
     <row r="150" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
+      <c r="A150" s="4">
         <v>147</v>
       </c>
       <c r="B150" s="1"/>
@@ -17589,6 +17684,7 @@
       <c r="BC150" s="1"/>
       <c r="BD150" s="1"/>
       <c r="BE150" s="1"/>
+      <c r="BF150" s="1"/>
       <c r="BG150" s="1"/>
       <c r="BH150" s="1"/>
       <c r="BI150" s="1">
@@ -17652,7 +17748,7 @@
       </c>
     </row>
     <row r="151" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
+      <c r="A151" s="4">
         <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -17715,7 +17811,7 @@
       <c r="BC151" s="1"/>
       <c r="BD151" s="1"/>
       <c r="BE151" s="1"/>
-      <c r="BF151" t="s">
+      <c r="BF151" s="1" t="s">
         <v>173</v>
       </c>
       <c r="BG151" s="1"/>
@@ -17747,7 +17843,7 @@
       <c r="CG151" s="1"/>
     </row>
     <row r="152" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
+      <c r="A152" s="4">
         <v>149</v>
       </c>
       <c r="B152" s="1"/>
@@ -17808,6 +17904,7 @@
       <c r="BC152" s="1"/>
       <c r="BD152" s="1"/>
       <c r="BE152" s="1"/>
+      <c r="BF152" s="1"/>
       <c r="BG152" s="1"/>
       <c r="BH152" s="1"/>
       <c r="BI152" s="1"/>
@@ -17837,7 +17934,7 @@
       <c r="CG152" s="1"/>
     </row>
     <row r="153" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
+      <c r="A153" s="4">
         <v>150</v>
       </c>
       <c r="B153" s="1"/>
@@ -17898,6 +17995,7 @@
       <c r="BC153" s="1"/>
       <c r="BD153" s="1"/>
       <c r="BE153" s="1"/>
+      <c r="BF153" s="1"/>
       <c r="BG153" s="1"/>
       <c r="BH153" s="1"/>
       <c r="BI153" s="1"/>
@@ -17927,7 +18025,7 @@
       <c r="CG153" s="1"/>
     </row>
     <row r="154" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
+      <c r="A154" s="4">
         <v>151</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -17990,7 +18088,7 @@
       <c r="BC154" s="1"/>
       <c r="BD154" s="1"/>
       <c r="BE154" s="1"/>
-      <c r="BF154" t="s">
+      <c r="BF154" s="1" t="s">
         <v>176</v>
       </c>
       <c r="BG154" s="1"/>
@@ -18022,7 +18120,7 @@
       <c r="CG154" s="1"/>
     </row>
     <row r="155" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
+      <c r="A155" s="4">
         <v>152</v>
       </c>
       <c r="B155" s="1"/>
@@ -18083,6 +18181,7 @@
       <c r="BC155" s="1"/>
       <c r="BD155" s="1"/>
       <c r="BE155" s="1"/>
+      <c r="BF155" s="1"/>
       <c r="BG155" s="1"/>
       <c r="BH155" s="1"/>
       <c r="BI155" s="1"/>
@@ -18112,7 +18211,7 @@
       <c r="CG155" s="1"/>
     </row>
     <row r="156" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
+      <c r="A156" s="4">
         <v>153</v>
       </c>
       <c r="B156" s="1"/>
@@ -18173,6 +18272,7 @@
       <c r="BC156" s="1"/>
       <c r="BD156" s="1"/>
       <c r="BE156" s="1"/>
+      <c r="BF156" s="1"/>
       <c r="BG156" s="1"/>
       <c r="BH156" s="1"/>
       <c r="BI156" s="1"/>
@@ -18202,7 +18302,7 @@
       <c r="CG156" s="1"/>
     </row>
     <row r="157" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>154</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -18273,7 +18373,7 @@
       </c>
       <c r="BD157" s="1"/>
       <c r="BE157" s="1"/>
-      <c r="BF157" t="s">
+      <c r="BF157" s="1" t="s">
         <v>179</v>
       </c>
       <c r="BG157" s="1"/>
@@ -18305,7 +18405,7 @@
       <c r="CG157" s="1"/>
     </row>
     <row r="158" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
+      <c r="A158" s="4">
         <v>155</v>
       </c>
       <c r="B158" s="1"/>
@@ -18368,6 +18468,7 @@
       <c r="BC158" s="1"/>
       <c r="BD158" s="1"/>
       <c r="BE158" s="1"/>
+      <c r="BF158" s="1"/>
       <c r="BG158" s="1"/>
       <c r="BH158" s="1"/>
       <c r="BI158" s="1"/>
@@ -18403,7 +18504,7 @@
       <c r="CG158" s="1"/>
     </row>
     <row r="159" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
+      <c r="A159" s="4">
         <v>156</v>
       </c>
       <c r="B159" s="1"/>
@@ -18486,6 +18587,7 @@
       <c r="BC159" s="1"/>
       <c r="BD159" s="1"/>
       <c r="BE159" s="1"/>
+      <c r="BF159" s="1"/>
       <c r="BG159" s="1"/>
       <c r="BH159" s="1"/>
       <c r="BI159" s="1">
@@ -18549,7 +18651,7 @@
       </c>
     </row>
     <row r="160" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
+      <c r="A160" s="4">
         <v>157</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -18612,7 +18714,7 @@
       <c r="BC160" s="1"/>
       <c r="BD160" s="1"/>
       <c r="BE160" s="1"/>
-      <c r="BF160" t="s">
+      <c r="BF160" s="1" t="s">
         <v>180</v>
       </c>
       <c r="BG160" s="1"/>
@@ -18644,7 +18746,7 @@
       <c r="CG160" s="1"/>
     </row>
     <row r="161" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
+      <c r="A161" s="4">
         <v>158</v>
       </c>
       <c r="B161" s="1"/>
@@ -18727,6 +18829,7 @@
       <c r="BC161" s="1"/>
       <c r="BD161" s="1"/>
       <c r="BE161" s="1"/>
+      <c r="BF161" s="1"/>
       <c r="BG161" s="1"/>
       <c r="BH161" s="1"/>
       <c r="BI161" s="1">
@@ -18790,7 +18893,7 @@
       </c>
     </row>
     <row r="162" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <v>159</v>
       </c>
       <c r="B162" s="1"/>
@@ -18873,6 +18976,7 @@
       <c r="BC162" s="1"/>
       <c r="BD162" s="1"/>
       <c r="BE162" s="1"/>
+      <c r="BF162" s="1"/>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
       <c r="BI162" s="1">
@@ -18936,7 +19040,7 @@
       </c>
     </row>
     <row r="163" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
+      <c r="A163" s="4">
         <v>160</v>
       </c>
       <c r="B163" s="1"/>
@@ -19019,6 +19123,7 @@
       <c r="BC163" s="1"/>
       <c r="BD163" s="1"/>
       <c r="BE163" s="1"/>
+      <c r="BF163" s="1"/>
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
       <c r="BI163" s="1">
@@ -19082,7 +19187,7 @@
       </c>
     </row>
     <row r="164" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
+      <c r="A164" s="4">
         <v>161</v>
       </c>
       <c r="B164" s="1"/>
@@ -19165,6 +19270,7 @@
       <c r="BC164" s="1"/>
       <c r="BD164" s="1"/>
       <c r="BE164" s="1"/>
+      <c r="BF164" s="1"/>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="1">
@@ -19228,7 +19334,7 @@
       </c>
     </row>
     <row r="165" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
+      <c r="A165" s="4">
         <v>162</v>
       </c>
       <c r="B165" s="1"/>
@@ -19289,6 +19395,7 @@
       <c r="BC165" s="1"/>
       <c r="BD165" s="1"/>
       <c r="BE165" s="1"/>
+      <c r="BF165" s="1"/>
       <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
       <c r="BI165" s="1"/>
@@ -19318,7 +19425,7 @@
       <c r="CG165" s="1"/>
     </row>
     <row r="166" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+      <c r="A166" s="4">
         <v>163</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -19381,7 +19488,7 @@
       <c r="BC166" s="1"/>
       <c r="BD166" s="1"/>
       <c r="BE166" s="1"/>
-      <c r="BF166" t="s">
+      <c r="BF166" s="1" t="s">
         <v>182</v>
       </c>
       <c r="BG166" s="1"/>
@@ -19413,7 +19520,7 @@
       <c r="CG166" s="1"/>
     </row>
     <row r="167" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+      <c r="A167" s="4">
         <v>164</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -19480,7 +19587,7 @@
       <c r="BC167" s="1"/>
       <c r="BD167" s="1"/>
       <c r="BE167" s="1"/>
-      <c r="BF167" t="s">
+      <c r="BF167" s="1" t="s">
         <v>153</v>
       </c>
       <c r="BG167" s="1"/>
@@ -19514,7 +19621,7 @@
       <c r="CG167" s="1"/>
     </row>
     <row r="168" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
+      <c r="A168" s="4">
         <v>165</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -19577,7 +19684,7 @@
       <c r="BC168" s="1"/>
       <c r="BD168" s="1"/>
       <c r="BE168" s="1"/>
-      <c r="BF168" t="s">
+      <c r="BF168" s="1" t="s">
         <v>183</v>
       </c>
       <c r="BG168" s="1"/>
@@ -19609,7 +19716,7 @@
       <c r="CG168" s="1"/>
     </row>
     <row r="169" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+      <c r="A169" s="4">
         <v>166</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -19672,7 +19779,7 @@
       <c r="BC169" s="1"/>
       <c r="BD169" s="1"/>
       <c r="BE169" s="1"/>
-      <c r="BF169" t="s">
+      <c r="BF169" s="1" t="s">
         <v>184</v>
       </c>
       <c r="BG169" s="1"/>
@@ -19704,7 +19811,7 @@
       <c r="CG169" s="1"/>
     </row>
     <row r="170" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
+      <c r="A170" s="4">
         <v>167</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -19767,7 +19874,7 @@
       <c r="BC170" s="1"/>
       <c r="BD170" s="1"/>
       <c r="BE170" s="1"/>
-      <c r="BF170" t="s">
+      <c r="BF170" s="1" t="s">
         <v>185</v>
       </c>
       <c r="BG170" s="1"/>
@@ -19799,7 +19906,7 @@
       <c r="CG170" s="1"/>
     </row>
     <row r="171" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
+      <c r="A171" s="4">
         <v>168</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -19870,7 +19977,7 @@
       </c>
       <c r="BD171" s="1"/>
       <c r="BE171" s="1"/>
-      <c r="BF171" t="s">
+      <c r="BF171" s="1" t="s">
         <v>186</v>
       </c>
       <c r="BG171" s="1"/>
@@ -19902,7 +20009,7 @@
       <c r="CG171" s="1"/>
     </row>
     <row r="172" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
+      <c r="A172" s="4">
         <v>169</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -19967,7 +20074,7 @@
       <c r="BC172" s="1"/>
       <c r="BD172" s="1"/>
       <c r="BE172" s="1"/>
-      <c r="BF172" t="s">
+      <c r="BF172" s="1" t="s">
         <v>187</v>
       </c>
       <c r="BG172" s="1"/>

--- a/src/testes/TabelaSLR_Debug.xlsx
+++ b/src/testes/TabelaSLR_Debug.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7290" windowWidth="14340" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="8505" windowWidth="14340" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="246">
   <si>
     <t>S19</t>
   </si>
@@ -641,87 +641,33 @@
     <t>S74</t>
   </si>
   <si>
-    <t>S89</t>
-  </si>
-  <si>
     <t>S132</t>
   </si>
   <si>
-    <t>S139</t>
-  </si>
-  <si>
-    <t>S162</t>
-  </si>
-  <si>
-    <t>S164</t>
-  </si>
-  <si>
-    <t>S165</t>
-  </si>
-  <si>
     <t>R93</t>
   </si>
   <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>S57</t>
-  </si>
-  <si>
     <t>S75</t>
   </si>
   <si>
-    <t>S85</t>
-  </si>
-  <si>
-    <t>S90</t>
-  </si>
-  <si>
     <t>S102</t>
   </si>
   <si>
-    <t>S123</t>
-  </si>
-  <si>
-    <t>S124</t>
-  </si>
-  <si>
     <t>S128</t>
   </si>
   <si>
-    <t>S136</t>
-  </si>
-  <si>
     <t>S140</t>
   </si>
   <si>
-    <t>S143</t>
-  </si>
-  <si>
     <t>S147</t>
   </si>
   <si>
-    <t>S166</t>
-  </si>
-  <si>
     <t>R94</t>
   </si>
   <si>
-    <t>S76</t>
-  </si>
-  <si>
     <t>S86</t>
   </si>
   <si>
-    <t>S91</t>
-  </si>
-  <si>
-    <t>S103</t>
-  </si>
-  <si>
-    <t>S111</t>
-  </si>
-  <si>
     <t>S115</t>
   </si>
   <si>
@@ -737,58 +683,88 @@
     <t>S126</t>
   </si>
   <si>
-    <t>{S33,R26}</t>
-  </si>
-  <si>
-    <t>S127</t>
-  </si>
-  <si>
-    <t>{S33,R29}</t>
-  </si>
-  <si>
-    <t>S138</t>
-  </si>
-  <si>
-    <t>S144</t>
-  </si>
-  <si>
-    <t>S145</t>
-  </si>
-  <si>
-    <t>S150</t>
-  </si>
-  <si>
-    <t>S151</t>
-  </si>
-  <si>
     <t>S156</t>
   </si>
   <si>
-    <t>S157</t>
-  </si>
-  <si>
-    <t>S163</t>
-  </si>
-  <si>
     <t>S168</t>
   </si>
   <si>
-    <t>S169</t>
-  </si>
-  <si>
-    <t>S170</t>
-  </si>
-  <si>
-    <t>S171</t>
-  </si>
-  <si>
-    <t>R95</t>
-  </si>
-  <si>
     <t>S178</t>
   </si>
   <si>
-    <t>R96</t>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S58</t>
+  </si>
+  <si>
+    <t>S87</t>
+  </si>
+  <si>
+    <t>S88</t>
+  </si>
+  <si>
+    <t>S107</t>
+  </si>
+  <si>
+    <t>S108</t>
+  </si>
+  <si>
+    <t>S109</t>
+  </si>
+  <si>
+    <t>S114</t>
+  </si>
+  <si>
+    <t>S118</t>
+  </si>
+  <si>
+    <t>S129</t>
+  </si>
+  <si>
+    <t>S130</t>
+  </si>
+  <si>
+    <t>S131</t>
+  </si>
+  <si>
+    <t>S133</t>
+  </si>
+  <si>
+    <t>S134</t>
+  </si>
+  <si>
+    <t>S137</t>
+  </si>
+  <si>
+    <t>S146</t>
+  </si>
+  <si>
+    <t>S152</t>
+  </si>
+  <si>
+    <t>S153</t>
+  </si>
+  <si>
+    <t>S154</t>
+  </si>
+  <si>
+    <t>S155</t>
+  </si>
+  <si>
+    <t>S158</t>
+  </si>
+  <si>
+    <t>S159</t>
+  </si>
+  <si>
+    <t>S160</t>
+  </si>
+  <si>
+    <t>S161</t>
+  </si>
+  <si>
+    <t>R97</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1141,10 @@
   <dimension ref="A1:CG182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="BG10" sqref="BG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,19 +1697,25 @@
       <c r="AX6" t="s">
         <v>21</v>
       </c>
+      <c r="BF6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:85" x14ac:dyDescent="0.25">
@@ -1741,13 +1723,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX8" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:85" x14ac:dyDescent="0.25">
@@ -1755,13 +1740,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.25">
@@ -1769,13 +1757,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:85" x14ac:dyDescent="0.25">
@@ -1783,13 +1774,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX11" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:85" x14ac:dyDescent="0.25">
@@ -1797,16 +1791,16 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="AX12" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:85" x14ac:dyDescent="0.25">
@@ -1814,13 +1808,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="AK13" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="AX13" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:85" x14ac:dyDescent="0.25">
@@ -1828,88 +1825,91 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>26</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>28</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>30</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="M14" t="s">
+      <c r="W14" t="s">
         <v>32</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>33</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>34</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>35</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AK14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR14" t="s">
         <v>36</v>
       </c>
-      <c r="AK14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR14" t="s">
+      <c r="AS14" t="s">
         <v>37</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AU14" t="s">
         <v>38</v>
       </c>
-      <c r="AU14" t="s">
+      <c r="AW14" t="s">
         <v>39</v>
       </c>
-      <c r="AW14" t="s">
+      <c r="AX14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY14" t="s">
         <v>40</v>
       </c>
-      <c r="AX14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>41</v>
       </c>
-      <c r="AZ14" t="s">
+      <c r="BA14" t="s">
         <v>42</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="BD14" t="s">
         <v>43</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BE14" t="s">
         <v>44</v>
       </c>
-      <c r="BE14" t="s">
-        <v>212</v>
+      <c r="BF14" t="s">
+        <v>112</v>
       </c>
       <c r="BR14">
+        <v>33</v>
+      </c>
+      <c r="BT14">
         <v>34</v>
-      </c>
-      <c r="BT14">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:85" x14ac:dyDescent="0.25">
@@ -1917,136 +1917,139 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N15" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" t="s">
         <v>46</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>47</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>49</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>50</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>51</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>52</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>53</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA15" t="s">
         <v>54</v>
       </c>
-      <c r="W15" t="s">
-        <v>67</v>
-      </c>
-      <c r="X15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>55</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>56</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>57</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB15" t="s">
         <v>59</v>
       </c>
-      <c r="AF15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>111</v>
-      </c>
       <c r="BC15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BD15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="BE15" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>64</v>
       </c>
       <c r="BW15">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:85" x14ac:dyDescent="0.25">
@@ -2054,684 +2057,696 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AF16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AQ16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AR16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AS16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AT16" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="AU16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AW16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AX16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AY16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AZ16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BA16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BC16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BD16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BE16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="W17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="X17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Y17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Z17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AF17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AQ17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AR17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AS17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AT17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AU17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AW17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AX17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AY17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="AZ17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="BA17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="BC17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="BD17" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="BE17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="U18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="V18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AC18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AD18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AF18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AK18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AP18" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="AQ18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AR18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AS18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AT18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AU18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AW18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AX18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AY18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AZ18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BA18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BB18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BC18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BD18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BE18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="W19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="X19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Y19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Z19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AK19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AQ19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AR19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AS19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AT19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AU19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AV19" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="AW19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AX19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AY19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AZ19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BA19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BC19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BD19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BE19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AQ20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AR20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AT20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AU20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AX20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AY20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AZ20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BA20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BC20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BD20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BE20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AX21" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="N22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="Q22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="R22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="S22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="T22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="U22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="V22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="W22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="X22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="Y22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="Z22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AA22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AB22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AD22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AP22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AQ22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AR22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AS22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AT22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AU22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AV22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AW22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AX22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AY22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="AZ22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="BA22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="BB22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="BC22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="BD22" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="BE22" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>106</v>
       </c>
       <c r="CA22">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -2740,145 +2755,148 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="M23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="N23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="P23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="Q23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="R23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="S23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="T23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="U23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="V23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="W23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="X23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="Y23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="Z23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AA23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AB23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AC23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AD23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AF23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AK23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AP23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AQ23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AR23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AS23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AT23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AU23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AW23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AX23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AY23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="AZ23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="BA23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="BB23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="BC23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="BD23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="BE23" t="s">
-        <v>106</v>
+        <v>66</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>66</v>
       </c>
       <c r="BZ23">
+        <v>77</v>
+      </c>
+      <c r="CA23">
         <v>78</v>
       </c>
-      <c r="CA23">
+      <c r="CC23">
         <v>79</v>
       </c>
-      <c r="CC23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2889,19 +2907,19 @@
         <v>1</v>
       </c>
       <c r="AP24" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="BB24" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="BQ24">
+        <v>80</v>
+      </c>
+      <c r="BS24">
         <v>81</v>
       </c>
-      <c r="BS24">
+      <c r="BV24">
         <v>82</v>
-      </c>
-      <c r="BV24">
-        <v>83</v>
       </c>
       <c r="BX24">
         <v>13</v>
@@ -2910,7 +2928,7 @@
         <v>14</v>
       </c>
       <c r="BZ24">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CA24">
         <v>16</v>
@@ -2919,7 +2937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -2930,19 +2948,19 @@
         <v>1</v>
       </c>
       <c r="AP25" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="BB25" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="BQ25">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BS25">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="BV25">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BX25">
         <v>13</v>
@@ -2951,7 +2969,7 @@
         <v>14</v>
       </c>
       <c r="BZ25">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CA25">
         <v>16</v>
@@ -2960,7 +2978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -2968,34 +2986,34 @@
         <v>1</v>
       </c>
       <c r="BZ26">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="AP27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="AP28" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="AP29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3003,10 +3021,10 @@
         <v>1</v>
       </c>
       <c r="BZ30">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3016,29 +3034,17 @@
       <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="AL31" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>7</v>
-      </c>
       <c r="AP31" t="s">
         <v>9</v>
       </c>
       <c r="BB31" t="s">
         <v>10</v>
       </c>
-      <c r="BO31">
-        <v>93</v>
-      </c>
       <c r="BQ31">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="BV31">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BX31">
         <v>13</v>
@@ -3047,7 +3053,7 @@
         <v>14</v>
       </c>
       <c r="BZ31">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="CA31">
         <v>16</v>
@@ -3055,11 +3061,8 @@
       <c r="CB31">
         <v>17</v>
       </c>
-      <c r="CG31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3069,29 +3072,17 @@
       <c r="D32" t="s">
         <v>1</v>
       </c>
-      <c r="AL32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>7</v>
-      </c>
       <c r="AP32" t="s">
         <v>9</v>
       </c>
       <c r="BB32" t="s">
         <v>10</v>
       </c>
-      <c r="BO32">
-        <v>95</v>
-      </c>
       <c r="BQ32">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BV32">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BX32">
         <v>13</v>
@@ -3100,16 +3091,13 @@
         <v>14</v>
       </c>
       <c r="BZ32">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="CA32">
         <v>16</v>
       </c>
       <c r="CB32">
         <v>17</v>
-      </c>
-      <c r="CG32">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:85" x14ac:dyDescent="0.25">
@@ -3168,7 +3156,7 @@
         <v>68</v>
       </c>
       <c r="BH33">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BI33">
         <v>3</v>
@@ -3223,6 +3211,9 @@
       <c r="A34" s="3">
         <v>31</v>
       </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
       <c r="C34" t="s">
         <v>0</v>
       </c>
@@ -3232,12 +3223,21 @@
       <c r="AE34" t="s">
         <v>2</v>
       </c>
+      <c r="AG34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>109</v>
+      </c>
       <c r="AI34" t="s">
         <v>3</v>
       </c>
       <c r="AJ34" t="s">
         <v>4</v>
       </c>
+      <c r="AK34" t="s">
+        <v>109</v>
+      </c>
       <c r="AL34" t="s">
         <v>5</v>
       </c>
@@ -3253,11 +3253,17 @@
       <c r="AP34" t="s">
         <v>9</v>
       </c>
+      <c r="AX34" t="s">
+        <v>109</v>
+      </c>
       <c r="BB34" t="s">
         <v>10</v>
       </c>
+      <c r="BF34" t="s">
+        <v>109</v>
+      </c>
       <c r="BH34">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="BI34">
         <v>3</v>
@@ -3346,7 +3352,7 @@
         <v>10</v>
       </c>
       <c r="BH35">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BI35">
         <v>3</v>
@@ -3401,32 +3407,41 @@
       <c r="A36" s="3">
         <v>33</v>
       </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
-      <c r="AL36" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>7</v>
-      </c>
       <c r="AP36" t="s">
-        <v>216</v>
+        <v>9</v>
       </c>
       <c r="BB36" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO36">
-        <v>100</v>
+        <v>10</v>
+      </c>
+      <c r="BJ36">
+        <v>95</v>
+      </c>
+      <c r="BQ36">
+        <v>11</v>
+      </c>
+      <c r="BV36">
+        <v>82</v>
+      </c>
+      <c r="BX36">
+        <v>13</v>
+      </c>
+      <c r="BY36">
+        <v>14</v>
       </c>
       <c r="BZ36">
-        <v>101</v>
-      </c>
-      <c r="CG36">
-        <v>18</v>
+        <v>83</v>
+      </c>
+      <c r="CA36">
+        <v>16</v>
+      </c>
+      <c r="CB36">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:85" x14ac:dyDescent="0.25">
@@ -3434,40 +3449,16 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="AP37" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="BB37" t="s">
-        <v>227</v>
-      </c>
-      <c r="BJ37">
-        <v>104</v>
-      </c>
-      <c r="BQ37">
-        <v>11</v>
-      </c>
-      <c r="BV37">
-        <v>83</v>
-      </c>
-      <c r="BX37">
-        <v>13</v>
-      </c>
-      <c r="BY37">
-        <v>14</v>
-      </c>
-      <c r="BZ37">
-        <v>84</v>
-      </c>
-      <c r="CA37">
-        <v>16</v>
-      </c>
-      <c r="CB37">
-        <v>17</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:85" x14ac:dyDescent="0.25">
@@ -3475,16 +3466,16 @@
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AP38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BB38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:85" x14ac:dyDescent="0.25">
@@ -3492,16 +3483,16 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AP39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BB39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:85" x14ac:dyDescent="0.25">
@@ -3509,16 +3500,16 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AP40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BB40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:85" x14ac:dyDescent="0.25">
@@ -3526,16 +3517,16 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BB41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:85" x14ac:dyDescent="0.25">
@@ -3543,16 +3534,16 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BB42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:85" x14ac:dyDescent="0.25">
@@ -3560,16 +3551,16 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AP43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BB43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:85" x14ac:dyDescent="0.25">
@@ -3577,16 +3568,16 @@
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AP44" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="BB44" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:85" x14ac:dyDescent="0.25">
@@ -3594,16 +3585,16 @@
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="AP45" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="BB45" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:85" x14ac:dyDescent="0.25">
@@ -3611,16 +3602,16 @@
         <v>43</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="AP46" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="BB46" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:85" x14ac:dyDescent="0.25">
@@ -3628,16 +3619,16 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AP47" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="BB47" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:85" x14ac:dyDescent="0.25">
@@ -3645,16 +3636,16 @@
         <v>45</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="AP48" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="BB48" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:80" x14ac:dyDescent="0.25">
@@ -3662,16 +3653,16 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AP49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BB49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:80" x14ac:dyDescent="0.25">
@@ -3679,16 +3670,16 @@
         <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AP50" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="BB50" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:80" x14ac:dyDescent="0.25">
@@ -3696,16 +3687,16 @@
         <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="BB51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:80" x14ac:dyDescent="0.25">
@@ -3713,16 +3704,16 @@
         <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AP52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BB52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:80" x14ac:dyDescent="0.25">
@@ -3730,16 +3721,16 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BB53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:80" x14ac:dyDescent="0.25">
@@ -3747,16 +3738,16 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AP54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BB54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:80" x14ac:dyDescent="0.25">
@@ -3764,16 +3755,16 @@
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="AP55" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="BB55" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:80" x14ac:dyDescent="0.25">
@@ -3781,16 +3772,40 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="AP56" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="BB56" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="BJ56">
+        <v>96</v>
+      </c>
+      <c r="BQ56">
+        <v>11</v>
+      </c>
+      <c r="BV56">
+        <v>82</v>
+      </c>
+      <c r="BX56">
+        <v>13</v>
+      </c>
+      <c r="BY56">
+        <v>14</v>
+      </c>
+      <c r="BZ56">
+        <v>83</v>
+      </c>
+      <c r="CA56">
+        <v>16</v>
+      </c>
+      <c r="CB56">
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:80" x14ac:dyDescent="0.25">
@@ -3798,40 +3813,16 @@
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="AP57" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="BB57" t="s">
-        <v>227</v>
-      </c>
-      <c r="BJ57">
-        <v>105</v>
-      </c>
-      <c r="BQ57">
-        <v>11</v>
-      </c>
-      <c r="BV57">
-        <v>83</v>
-      </c>
-      <c r="BX57">
-        <v>13</v>
-      </c>
-      <c r="BY57">
-        <v>14</v>
-      </c>
-      <c r="BZ57">
-        <v>84</v>
-      </c>
-      <c r="CA57">
-        <v>16</v>
-      </c>
-      <c r="CB57">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:80" x14ac:dyDescent="0.25">
@@ -3839,16 +3830,16 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AP58" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="BB58" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:80" x14ac:dyDescent="0.25">
@@ -3856,16 +3847,16 @@
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AP59" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="BB59" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:80" x14ac:dyDescent="0.25">
@@ -3873,16 +3864,28 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB60" t="s">
-        <v>124</v>
+        <v>1</v>
+      </c>
+      <c r="BV60">
+        <v>97</v>
+      </c>
+      <c r="BX60">
+        <v>98</v>
+      </c>
+      <c r="BY60">
+        <v>14</v>
+      </c>
+      <c r="BZ60">
+        <v>83</v>
+      </c>
+      <c r="CA60">
+        <v>16</v>
+      </c>
+      <c r="CB60">
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:80" x14ac:dyDescent="0.25">
@@ -3890,28 +3893,10 @@
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV61">
-        <v>106</v>
-      </c>
-      <c r="BX61">
-        <v>107</v>
-      </c>
-      <c r="BY61">
-        <v>14</v>
-      </c>
-      <c r="BZ61">
-        <v>84</v>
-      </c>
-      <c r="CA61">
-        <v>16</v>
-      </c>
-      <c r="CB61">
-        <v>17</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:80" x14ac:dyDescent="0.25">
@@ -3919,10 +3904,10 @@
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:80" x14ac:dyDescent="0.25">
@@ -3930,10 +3915,10 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:80" x14ac:dyDescent="0.25">
@@ -3941,10 +3926,10 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:85" x14ac:dyDescent="0.25">
@@ -3952,10 +3937,10 @@
         <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:85" x14ac:dyDescent="0.25">
@@ -3963,10 +3948,10 @@
         <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:85" x14ac:dyDescent="0.25">
@@ -3974,10 +3959,10 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:85" x14ac:dyDescent="0.25">
@@ -3985,10 +3970,10 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:85" x14ac:dyDescent="0.25">
@@ -3996,10 +3981,10 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:85" x14ac:dyDescent="0.25">
@@ -4007,10 +3992,10 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:85" x14ac:dyDescent="0.25">
@@ -4018,10 +4003,10 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:85" x14ac:dyDescent="0.25">
@@ -4029,10 +4014,10 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:85" x14ac:dyDescent="0.25">
@@ -4040,10 +4025,10 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D73" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:85" x14ac:dyDescent="0.25">
@@ -4051,10 +4036,28 @@
         <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="BV74">
+        <v>97</v>
+      </c>
+      <c r="BX74">
+        <v>99</v>
+      </c>
+      <c r="BY74">
+        <v>14</v>
+      </c>
+      <c r="BZ74">
+        <v>83</v>
+      </c>
+      <c r="CA74">
+        <v>16</v>
+      </c>
+      <c r="CB74">
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:85" x14ac:dyDescent="0.25">
@@ -4067,17 +4070,26 @@
       <c r="D75" t="s">
         <v>1</v>
       </c>
+      <c r="AP75" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB75" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ75">
+        <v>100</v>
+      </c>
       <c r="BV75">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="BX75">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="BY75">
         <v>14</v>
       </c>
       <c r="BZ75">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CA75">
         <v>16</v>
@@ -4097,16 +4109,22 @@
         <v>1</v>
       </c>
       <c r="AP76" t="s">
-        <v>214</v>
+        <v>9</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>207</v>
       </c>
       <c r="BB76" t="s">
-        <v>227</v>
+        <v>10</v>
+      </c>
+      <c r="BJ76">
+        <v>101</v>
       </c>
       <c r="BQ76">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="BV76">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BX76">
         <v>13</v>
@@ -4115,7 +4133,7 @@
         <v>14</v>
       </c>
       <c r="BZ76">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CA76">
         <v>16</v>
@@ -4128,87 +4146,180 @@
       <c r="A77" s="3">
         <v>74</v>
       </c>
-      <c r="C77" t="s">
-        <v>0</v>
-      </c>
       <c r="D77" t="s">
         <v>1</v>
       </c>
-      <c r="AP77" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>230</v>
-      </c>
-      <c r="BB77" t="s">
-        <v>227</v>
-      </c>
-      <c r="BJ77">
-        <v>110</v>
-      </c>
-      <c r="BQ77">
-        <v>11</v>
-      </c>
-      <c r="BV77">
-        <v>83</v>
-      </c>
-      <c r="BX77">
-        <v>13</v>
-      </c>
-      <c r="BY77">
-        <v>14</v>
+      <c r="AL77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>7</v>
+      </c>
+      <c r="BO77">
+        <v>103</v>
       </c>
       <c r="BZ77">
-        <v>84</v>
-      </c>
-      <c r="CA77">
-        <v>16</v>
-      </c>
-      <c r="CB77">
-        <v>17</v>
+        <v>104</v>
+      </c>
+      <c r="CG77">
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>75</v>
       </c>
-      <c r="D78" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL78" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM78" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN78" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP78" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO78">
-        <v>112</v>
-      </c>
-      <c r="BZ78">
-        <v>101</v>
-      </c>
-      <c r="CG78">
-        <v>18</v>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA78">
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>76</v>
       </c>
-      <c r="C79" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA79">
-        <v>113</v>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" t="s">
+        <v>117</v>
+      </c>
+      <c r="G79" t="s">
+        <v>117</v>
+      </c>
+      <c r="H79" t="s">
+        <v>117</v>
+      </c>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+      <c r="K79" t="s">
+        <v>117</v>
+      </c>
+      <c r="L79" t="s">
+        <v>117</v>
+      </c>
+      <c r="M79" t="s">
+        <v>117</v>
+      </c>
+      <c r="N79" t="s">
+        <v>117</v>
+      </c>
+      <c r="O79" t="s">
+        <v>117</v>
+      </c>
+      <c r="P79" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>117</v>
+      </c>
+      <c r="R79" t="s">
+        <v>117</v>
+      </c>
+      <c r="S79" t="s">
+        <v>117</v>
+      </c>
+      <c r="T79" t="s">
+        <v>117</v>
+      </c>
+      <c r="U79" t="s">
+        <v>117</v>
+      </c>
+      <c r="V79" t="s">
+        <v>117</v>
+      </c>
+      <c r="W79" t="s">
+        <v>117</v>
+      </c>
+      <c r="X79" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AY79" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ79" t="s">
+        <v>117</v>
+      </c>
+      <c r="BA79" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB79" t="s">
+        <v>117</v>
+      </c>
+      <c r="BC79" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD79" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE79" t="s">
+        <v>117</v>
+      </c>
+      <c r="BF79" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:85" x14ac:dyDescent="0.25">
@@ -4216,139 +4327,139 @@
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="J80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="K80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="M80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="N80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="O80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="Q80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="R80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="S80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="T80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="U80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="V80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="W80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="X80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="Y80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="Z80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AA80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AB80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AC80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AD80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AF80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AK80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AP80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AQ80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AR80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AS80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AT80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AU80" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AW80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AX80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AY80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="AZ80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="BA80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="BB80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="BC80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="BD80" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="BE80" t="s">
-        <v>105</v>
+        <v>132</v>
+      </c>
+      <c r="BF80" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:81" x14ac:dyDescent="0.25">
@@ -4356,136 +4467,139 @@
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="L81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="N81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="O81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="P81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Q81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="R81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="S81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="T81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="U81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="V81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="W81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="X81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Z81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AA81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AB81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AC81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AD81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AF81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AK81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AP81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AQ81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AR81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AS81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AT81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AU81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AW81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AX81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AY81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AZ81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="BA81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="BB81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="BC81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="BD81" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="BE81" t="s">
-        <v>146</v>
+        <v>134</v>
+      </c>
+      <c r="BF81" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="1:81" x14ac:dyDescent="0.25">
@@ -4493,322 +4607,286 @@
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="F82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="H82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="I82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="J82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="K82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="L82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="M82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="N82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="O82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="P82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="Q82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="R82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="S82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="T82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="U82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="V82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="W82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="X82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="Y82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="Z82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AA82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AB82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AC82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AD82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AF82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AK82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AP82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AQ82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AR82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AS82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AT82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AU82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AW82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AX82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AY82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="AZ82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="BA82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="BB82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="BC82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="BD82" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="BE82" t="s">
-        <v>133</v>
+        <v>104</v>
+      </c>
+      <c r="BF82" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>80</v>
       </c>
-      <c r="B83" t="s">
-        <v>117</v>
-      </c>
       <c r="E83" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="G83" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I83" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="J83" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="K83" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="L83" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="M83" t="s">
-        <v>117</v>
-      </c>
-      <c r="N83" t="s">
-        <v>117</v>
-      </c>
-      <c r="O83" t="s">
-        <v>117</v>
-      </c>
-      <c r="P83" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>117</v>
-      </c>
-      <c r="R83" t="s">
-        <v>117</v>
-      </c>
-      <c r="S83" t="s">
-        <v>117</v>
-      </c>
-      <c r="T83" t="s">
-        <v>117</v>
-      </c>
-      <c r="U83" t="s">
-        <v>117</v>
-      </c>
-      <c r="V83" t="s">
-        <v>117</v>
-      </c>
-      <c r="W83" t="s">
-        <v>117</v>
-      </c>
-      <c r="X83" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX83" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="AY83" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ83" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="BA83" t="s">
-        <v>117</v>
-      </c>
-      <c r="BB83" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC83" t="s">
-        <v>117</v>
-      </c>
-      <c r="BD83" t="s">
-        <v>117</v>
-      </c>
-      <c r="BE83" t="s">
-        <v>117</v>
+        <v>42</v>
+      </c>
+      <c r="BT83">
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>81</v>
       </c>
-      <c r="E84" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" t="s">
-        <v>29</v>
-      </c>
-      <c r="K84" t="s">
-        <v>30</v>
-      </c>
-      <c r="L84" t="s">
-        <v>31</v>
-      </c>
-      <c r="M84" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY84" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA84" t="s">
-        <v>43</v>
-      </c>
-      <c r="BT84">
-        <v>114</v>
+      <c r="AF84" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>82</v>
       </c>
+      <c r="B85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" t="s">
+        <v>64</v>
+      </c>
+      <c r="H85" t="s">
+        <v>64</v>
+      </c>
+      <c r="I85" t="s">
+        <v>64</v>
+      </c>
+      <c r="J85" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85" t="s">
+        <v>64</v>
+      </c>
+      <c r="L85" t="s">
+        <v>64</v>
+      </c>
+      <c r="M85" t="s">
+        <v>64</v>
+      </c>
+      <c r="W85" t="s">
+        <v>64</v>
+      </c>
+      <c r="X85" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>64</v>
+      </c>
       <c r="AF85" t="s">
-        <v>231</v>
+        <v>64</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY85" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ85" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA85" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB85" t="s">
+        <v>59</v>
+      </c>
+      <c r="BC85" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE85" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF85" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:81" x14ac:dyDescent="0.25">
@@ -4816,266 +4894,152 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="J86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="L86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="M86" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="N86" t="s">
+        <v>92</v>
+      </c>
+      <c r="O86" t="s">
+        <v>92</v>
+      </c>
+      <c r="P86" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>92</v>
+      </c>
+      <c r="R86" t="s">
+        <v>92</v>
+      </c>
+      <c r="S86" t="s">
+        <v>92</v>
+      </c>
+      <c r="T86" t="s">
+        <v>92</v>
+      </c>
+      <c r="U86" t="s">
+        <v>92</v>
+      </c>
+      <c r="V86" t="s">
+        <v>92</v>
       </c>
       <c r="W86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="X86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="Y86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="Z86" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD86" t="s">
+        <v>92</v>
       </c>
       <c r="AF86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AK86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AQ86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AR86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AS86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AT86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AU86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AW86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AX86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AY86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AZ86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="BA86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="BB86" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="BC86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="BD86" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="BE86" t="s">
-        <v>67</v>
+        <v>92</v>
+      </c>
+      <c r="BF86" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>84</v>
       </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" t="s">
-        <v>94</v>
-      </c>
-      <c r="F87" t="s">
-        <v>94</v>
-      </c>
-      <c r="G87" t="s">
-        <v>94</v>
-      </c>
-      <c r="H87" t="s">
-        <v>94</v>
-      </c>
-      <c r="I87" t="s">
-        <v>94</v>
-      </c>
-      <c r="J87" t="s">
-        <v>94</v>
-      </c>
-      <c r="K87" t="s">
-        <v>94</v>
-      </c>
-      <c r="L87" t="s">
-        <v>94</v>
-      </c>
-      <c r="M87" t="s">
-        <v>94</v>
-      </c>
-      <c r="N87" t="s">
-        <v>94</v>
-      </c>
-      <c r="O87" t="s">
-        <v>94</v>
-      </c>
-      <c r="P87" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>94</v>
-      </c>
-      <c r="R87" t="s">
-        <v>94</v>
-      </c>
-      <c r="S87" t="s">
-        <v>94</v>
-      </c>
-      <c r="T87" t="s">
-        <v>94</v>
-      </c>
-      <c r="U87" t="s">
-        <v>94</v>
-      </c>
-      <c r="V87" t="s">
-        <v>94</v>
-      </c>
-      <c r="W87" t="s">
-        <v>94</v>
-      </c>
-      <c r="X87" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD87" t="s">
-        <v>94</v>
-      </c>
       <c r="AF87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AX87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY87" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ87" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA87" t="s">
-        <v>94</v>
-      </c>
-      <c r="BB87" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC87" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD87" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE87" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>85</v>
       </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP88" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB88" t="s">
+      <c r="L88" t="s">
         <v>227</v>
-      </c>
-      <c r="BQ88">
-        <v>94</v>
-      </c>
-      <c r="BV88">
-        <v>83</v>
-      </c>
-      <c r="BX88">
-        <v>13</v>
-      </c>
-      <c r="BY88">
-        <v>14</v>
-      </c>
-      <c r="BZ88">
-        <v>84</v>
-      </c>
-      <c r="CA88">
-        <v>16</v>
-      </c>
-      <c r="CB88">
-        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:81" x14ac:dyDescent="0.25">
@@ -5089,16 +5053,19 @@
         <v>1</v>
       </c>
       <c r="AP89" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="BB89" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="BQ89">
-        <v>96</v>
+        <v>110</v>
+      </c>
+      <c r="BU89">
+        <v>111</v>
       </c>
       <c r="BV89">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BX89">
         <v>13</v>
@@ -5107,7 +5074,7 @@
         <v>14</v>
       </c>
       <c r="BZ89">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CA89">
         <v>16</v>
@@ -5120,164 +5087,194 @@
       <c r="A90" s="3">
         <v>87</v>
       </c>
-      <c r="AF90" t="s">
-        <v>232</v>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP90" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB90" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ90">
+        <v>112</v>
+      </c>
+      <c r="BQ90">
+        <v>11</v>
+      </c>
+      <c r="BV90">
+        <v>82</v>
+      </c>
+      <c r="BX90">
+        <v>13</v>
+      </c>
+      <c r="BY90">
+        <v>14</v>
+      </c>
+      <c r="BZ90">
+        <v>83</v>
+      </c>
+      <c r="CA90">
+        <v>16</v>
+      </c>
+      <c r="CB90">
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>88</v>
       </c>
-      <c r="L91" t="s">
-        <v>233</v>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ91">
+        <v>77</v>
+      </c>
+      <c r="CA91">
+        <v>78</v>
+      </c>
+      <c r="CC91">
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>89</v>
       </c>
-      <c r="C92" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1</v>
-      </c>
       <c r="AP92" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB92" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ92">
-        <v>118</v>
-      </c>
-      <c r="BU92">
-        <v>119</v>
-      </c>
-      <c r="BV92">
-        <v>83</v>
-      </c>
-      <c r="BX92">
-        <v>13</v>
-      </c>
-      <c r="BY92">
-        <v>14</v>
-      </c>
-      <c r="BZ92">
-        <v>84</v>
-      </c>
-      <c r="CA92">
-        <v>16</v>
-      </c>
-      <c r="CB92">
-        <v>17</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>90</v>
       </c>
-      <c r="C93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP93" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB93" t="s">
-        <v>227</v>
-      </c>
-      <c r="BJ93">
-        <v>120</v>
-      </c>
-      <c r="BQ93">
-        <v>11</v>
-      </c>
-      <c r="BV93">
-        <v>83</v>
-      </c>
-      <c r="BX93">
-        <v>13</v>
-      </c>
-      <c r="BY93">
-        <v>14</v>
-      </c>
-      <c r="BZ93">
-        <v>84</v>
-      </c>
-      <c r="CA93">
-        <v>16</v>
-      </c>
-      <c r="CB93">
-        <v>17</v>
+      <c r="AQ93" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>91</v>
       </c>
-      <c r="C94" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ94">
-        <v>78</v>
-      </c>
-      <c r="CA94">
-        <v>79</v>
-      </c>
-      <c r="CC94">
-        <v>121</v>
+      <c r="BC94" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>92</v>
       </c>
-      <c r="AP95" t="s">
-        <v>118</v>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX95" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF95" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>93</v>
       </c>
-      <c r="AQ96" t="s">
-        <v>217</v>
-      </c>
-      <c r="AT96" t="s">
-        <v>211</v>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX96" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF96" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>94</v>
       </c>
-      <c r="AQ97" t="s">
-        <v>218</v>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX97" t="s">
+        <v>108</v>
+      </c>
+      <c r="BF97" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>95</v>
       </c>
-      <c r="AT98" t="s">
-        <v>211</v>
-      </c>
-      <c r="BC98" t="s">
-        <v>234</v>
+      <c r="B98" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ98" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX98" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF98" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>96</v>
       </c>
-      <c r="BC99" t="s">
-        <v>235</v>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ99" t="s">
+        <v>114</v>
+      </c>
+      <c r="AX99" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF99" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:85" x14ac:dyDescent="0.25">
@@ -5285,22 +5282,94 @@
         <v>97</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG100" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH100" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="E100" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" t="s">
+        <v>64</v>
+      </c>
+      <c r="H100" t="s">
+        <v>64</v>
+      </c>
+      <c r="I100" t="s">
+        <v>64</v>
+      </c>
+      <c r="J100" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" t="s">
+        <v>64</v>
+      </c>
+      <c r="L100" t="s">
+        <v>64</v>
+      </c>
+      <c r="M100" t="s">
+        <v>64</v>
+      </c>
+      <c r="W100" t="s">
+        <v>64</v>
+      </c>
+      <c r="X100" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>64</v>
       </c>
       <c r="AK100" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="AQ100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW100" t="s">
+        <v>64</v>
       </c>
       <c r="AX100" t="s">
-        <v>108</v>
+        <v>64</v>
+      </c>
+      <c r="AY100" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ100" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA100" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC100" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD100" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE100" t="s">
+        <v>64</v>
       </c>
       <c r="BF100" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:85" x14ac:dyDescent="0.25">
@@ -5308,45 +5377,24 @@
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG101" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH101" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="AK101" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="AX101" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="BF101" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>99</v>
       </c>
-      <c r="B102" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG102" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH102" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK102" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX102" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF102" t="s">
-        <v>109</v>
+      <c r="BC102" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:85" x14ac:dyDescent="0.25">
@@ -5354,114 +5402,144 @@
         <v>100</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="E103" t="s">
+        <v>123</v>
+      </c>
+      <c r="F103" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" t="s">
+        <v>123</v>
+      </c>
+      <c r="H103" t="s">
+        <v>123</v>
+      </c>
+      <c r="I103" t="s">
+        <v>123</v>
+      </c>
+      <c r="J103" t="s">
+        <v>123</v>
+      </c>
+      <c r="K103" t="s">
+        <v>123</v>
+      </c>
+      <c r="L103" t="s">
+        <v>123</v>
+      </c>
+      <c r="M103" t="s">
+        <v>123</v>
+      </c>
+      <c r="W103" t="s">
+        <v>123</v>
+      </c>
+      <c r="X103" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>123</v>
       </c>
       <c r="AK103" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AQ103" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT103" t="s">
-        <v>236</v>
+        <v>123</v>
+      </c>
+      <c r="AR103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW103" t="s">
+        <v>123</v>
       </c>
       <c r="AX103" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="AY103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ103" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA103" t="s">
+        <v>123</v>
       </c>
       <c r="BC103" t="s">
-        <v>116</v>
+        <v>123</v>
+      </c>
+      <c r="BD103" t="s">
+        <v>123</v>
+      </c>
+      <c r="BE103" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF103" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>101</v>
       </c>
-      <c r="AP104" t="s">
-        <v>203</v>
-      </c>
-      <c r="AZ104" t="s">
-        <v>213</v>
+      <c r="AQ104" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>102</v>
       </c>
-      <c r="D105" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL105" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM105" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN105" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP105" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB105" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO105">
-        <v>93</v>
-      </c>
-      <c r="BZ105">
-        <v>101</v>
-      </c>
-      <c r="CG105">
-        <v>18</v>
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX105" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF105" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>103</v>
       </c>
-      <c r="D106" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL106" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM106" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN106" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP106" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB106" t="s">
-        <v>229</v>
-      </c>
-      <c r="BO106">
-        <v>95</v>
-      </c>
-      <c r="BZ106">
-        <v>101</v>
-      </c>
-      <c r="CG106">
-        <v>18</v>
+      <c r="B106" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX106" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF106" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="107" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>104</v>
       </c>
-      <c r="B107" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK107" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ107" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX107" t="s">
-        <v>114</v>
+      <c r="AP107" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ107" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:85" x14ac:dyDescent="0.25">
@@ -5469,365 +5547,410 @@
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="E108" t="s">
+        <v>105</v>
+      </c>
+      <c r="F108" t="s">
+        <v>105</v>
+      </c>
+      <c r="G108" t="s">
+        <v>105</v>
+      </c>
+      <c r="H108" t="s">
+        <v>105</v>
+      </c>
+      <c r="I108" t="s">
+        <v>105</v>
+      </c>
+      <c r="J108" t="s">
+        <v>105</v>
+      </c>
+      <c r="K108" t="s">
+        <v>105</v>
+      </c>
+      <c r="L108" t="s">
+        <v>105</v>
+      </c>
+      <c r="M108" t="s">
+        <v>105</v>
+      </c>
+      <c r="W108" t="s">
+        <v>105</v>
+      </c>
+      <c r="X108" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>105</v>
       </c>
       <c r="AK108" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AQ108" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="AR108" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS108" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT108" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU108" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW108" t="s">
+        <v>105</v>
       </c>
       <c r="AX108" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="AY108" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ108" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA108" t="s">
+        <v>105</v>
+      </c>
+      <c r="BC108" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD108" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE108" t="s">
+        <v>105</v>
+      </c>
+      <c r="BF108" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>106</v>
       </c>
-      <c r="B109" t="s">
-        <v>67</v>
-      </c>
-      <c r="E109" t="s">
-        <v>67</v>
-      </c>
-      <c r="F109" t="s">
-        <v>67</v>
-      </c>
-      <c r="G109" t="s">
-        <v>67</v>
-      </c>
-      <c r="H109" t="s">
-        <v>67</v>
-      </c>
-      <c r="I109" t="s">
-        <v>67</v>
-      </c>
-      <c r="J109" t="s">
-        <v>67</v>
-      </c>
-      <c r="K109" t="s">
-        <v>67</v>
-      </c>
-      <c r="L109" t="s">
-        <v>67</v>
-      </c>
-      <c r="M109" t="s">
-        <v>67</v>
-      </c>
-      <c r="W109" t="s">
-        <v>67</v>
-      </c>
-      <c r="X109" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y109" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY109" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ109" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA109" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC109" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD109" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE109" t="s">
-        <v>67</v>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP109" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB109" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ109">
+        <v>110</v>
+      </c>
+      <c r="BU109">
+        <v>119</v>
+      </c>
+      <c r="BV109">
+        <v>82</v>
+      </c>
+      <c r="BX109">
+        <v>13</v>
+      </c>
+      <c r="BY109">
+        <v>14</v>
+      </c>
+      <c r="BZ109">
+        <v>83</v>
+      </c>
+      <c r="CA109">
+        <v>16</v>
+      </c>
+      <c r="CB109">
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>107</v>
       </c>
-      <c r="B110" t="s">
-        <v>137</v>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ110" t="s">
+        <v>4</v>
       </c>
       <c r="AK110" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX110" t="s">
-        <v>137</v>
+        <v>118</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN110" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB110" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI110">
+        <v>120</v>
+      </c>
+      <c r="BJ110">
+        <v>4</v>
+      </c>
+      <c r="BK110">
+        <v>5</v>
+      </c>
+      <c r="BL110">
+        <v>6</v>
+      </c>
+      <c r="BM110">
+        <v>7</v>
+      </c>
+      <c r="BN110">
+        <v>8</v>
+      </c>
+      <c r="BO110">
+        <v>9</v>
+      </c>
+      <c r="BP110">
+        <v>10</v>
+      </c>
+      <c r="BQ110">
+        <v>11</v>
+      </c>
+      <c r="BV110">
+        <v>12</v>
+      </c>
+      <c r="BX110">
+        <v>13</v>
+      </c>
+      <c r="BY110">
+        <v>14</v>
+      </c>
+      <c r="BZ110">
+        <v>15</v>
+      </c>
+      <c r="CA110">
+        <v>16</v>
+      </c>
+      <c r="CB110">
+        <v>17</v>
+      </c>
+      <c r="CD110">
+        <v>121</v>
+      </c>
+      <c r="CG110">
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>108</v>
       </c>
-      <c r="BC111" t="s">
-        <v>237</v>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ111" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN111" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB111" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI111">
+        <v>120</v>
+      </c>
+      <c r="BJ111">
+        <v>4</v>
+      </c>
+      <c r="BK111">
+        <v>5</v>
+      </c>
+      <c r="BL111">
+        <v>6</v>
+      </c>
+      <c r="BM111">
+        <v>7</v>
+      </c>
+      <c r="BN111">
+        <v>8</v>
+      </c>
+      <c r="BO111">
+        <v>9</v>
+      </c>
+      <c r="BP111">
+        <v>10</v>
+      </c>
+      <c r="BQ111">
+        <v>11</v>
+      </c>
+      <c r="BV111">
+        <v>12</v>
+      </c>
+      <c r="BX111">
+        <v>13</v>
+      </c>
+      <c r="BY111">
+        <v>14</v>
+      </c>
+      <c r="BZ111">
+        <v>15</v>
+      </c>
+      <c r="CA111">
+        <v>16</v>
+      </c>
+      <c r="CB111">
+        <v>17</v>
+      </c>
+      <c r="CD111">
+        <v>123</v>
+      </c>
+      <c r="CG111">
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>109</v>
       </c>
-      <c r="B112" t="s">
-        <v>58</v>
-      </c>
-      <c r="E112" t="s">
-        <v>58</v>
-      </c>
-      <c r="F112" t="s">
-        <v>58</v>
-      </c>
-      <c r="G112" t="s">
-        <v>58</v>
-      </c>
-      <c r="H112" t="s">
-        <v>58</v>
-      </c>
-      <c r="I112" t="s">
-        <v>58</v>
-      </c>
-      <c r="J112" t="s">
-        <v>58</v>
-      </c>
-      <c r="K112" t="s">
-        <v>58</v>
-      </c>
-      <c r="L112" t="s">
-        <v>58</v>
-      </c>
-      <c r="M112" t="s">
-        <v>58</v>
-      </c>
-      <c r="W112" t="s">
-        <v>58</v>
-      </c>
-      <c r="X112" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY112" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ112" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA112" t="s">
-        <v>58</v>
-      </c>
-      <c r="BC112" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD112" t="s">
-        <v>58</v>
-      </c>
-      <c r="BE112" t="s">
-        <v>58</v>
+      <c r="AN112" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB112" t="s">
+        <v>217</v>
+      </c>
+      <c r="CG112">
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>110</v>
       </c>
+      <c r="E113" t="s">
+        <v>221</v>
+      </c>
+      <c r="F113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" t="s">
+        <v>27</v>
+      </c>
+      <c r="J113" t="s">
+        <v>28</v>
+      </c>
+      <c r="K113" t="s">
+        <v>29</v>
+      </c>
+      <c r="L113" t="s">
+        <v>30</v>
+      </c>
+      <c r="M113" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>91</v>
+      </c>
       <c r="AQ113" t="s">
-        <v>219</v>
+        <v>91</v>
+      </c>
+      <c r="AY113" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA113" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT113">
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>111</v>
       </c>
-      <c r="B114" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK114" t="s">
-        <v>122</v>
-      </c>
       <c r="AQ114" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT114" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX114" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC114" t="s">
-        <v>122</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>112</v>
       </c>
-      <c r="B115" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK115" t="s">
-        <v>115</v>
-      </c>
       <c r="AQ115" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT115" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX115" t="s">
-        <v>115</v>
-      </c>
-      <c r="BC115" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>113</v>
       </c>
-      <c r="B116" t="s">
-        <v>132</v>
-      </c>
-      <c r="E116" t="s">
-        <v>132</v>
-      </c>
-      <c r="F116" t="s">
-        <v>132</v>
-      </c>
-      <c r="G116" t="s">
-        <v>132</v>
-      </c>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-      <c r="I116" t="s">
-        <v>132</v>
-      </c>
-      <c r="J116" t="s">
-        <v>132</v>
-      </c>
-      <c r="K116" t="s">
-        <v>132</v>
-      </c>
-      <c r="L116" t="s">
-        <v>132</v>
-      </c>
-      <c r="M116" t="s">
-        <v>132</v>
-      </c>
-      <c r="W116" t="s">
-        <v>132</v>
-      </c>
-      <c r="X116" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y116" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK116" t="s">
-        <v>132</v>
-      </c>
       <c r="AQ116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS116" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="AT116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY116" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ116" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA116" t="s">
-        <v>132</v>
-      </c>
-      <c r="BC116" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD116" t="s">
-        <v>132</v>
-      </c>
-      <c r="BE116" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="1:85" x14ac:dyDescent="0.25">
@@ -5841,19 +5964,19 @@
         <v>1</v>
       </c>
       <c r="AP117" t="s">
-        <v>214</v>
+        <v>9</v>
+      </c>
+      <c r="AQ117" t="s">
+        <v>233</v>
       </c>
       <c r="BB117" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="BQ117">
-        <v>118</v>
-      </c>
-      <c r="BU117">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="BV117">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BX117">
         <v>13</v>
@@ -5862,7 +5985,7 @@
         <v>14</v>
       </c>
       <c r="BZ117">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CA117">
         <v>16</v>
@@ -5875,275 +5998,341 @@
       <c r="A118" s="3">
         <v>115</v>
       </c>
-      <c r="C118" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI118" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ118" t="s">
-        <v>4</v>
+      <c r="B118" t="s">
+        <v>58</v>
+      </c>
+      <c r="E118" t="s">
+        <v>58</v>
+      </c>
+      <c r="F118" t="s">
+        <v>58</v>
+      </c>
+      <c r="G118" t="s">
+        <v>58</v>
+      </c>
+      <c r="H118" t="s">
+        <v>58</v>
+      </c>
+      <c r="I118" t="s">
+        <v>58</v>
+      </c>
+      <c r="J118" t="s">
+        <v>58</v>
+      </c>
+      <c r="K118" t="s">
+        <v>58</v>
+      </c>
+      <c r="L118" t="s">
+        <v>58</v>
+      </c>
+      <c r="M118" t="s">
+        <v>58</v>
+      </c>
+      <c r="W118" t="s">
+        <v>58</v>
+      </c>
+      <c r="X118" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>58</v>
       </c>
       <c r="AK118" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL118" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM118" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN118" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO118" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP118" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB118" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI118">
-        <v>130</v>
-      </c>
-      <c r="BJ118">
-        <v>4</v>
-      </c>
-      <c r="BK118">
-        <v>5</v>
-      </c>
-      <c r="BL118">
-        <v>6</v>
-      </c>
-      <c r="BM118">
-        <v>7</v>
-      </c>
-      <c r="BN118">
-        <v>8</v>
-      </c>
-      <c r="BO118">
-        <v>9</v>
-      </c>
-      <c r="BP118">
-        <v>10</v>
-      </c>
-      <c r="BQ118">
-        <v>11</v>
-      </c>
-      <c r="BV118">
-        <v>12</v>
-      </c>
-      <c r="BX118">
-        <v>13</v>
-      </c>
-      <c r="BY118">
-        <v>14</v>
-      </c>
-      <c r="BZ118">
-        <v>15</v>
-      </c>
-      <c r="CA118">
-        <v>16</v>
-      </c>
-      <c r="CB118">
-        <v>17</v>
-      </c>
-      <c r="CD118">
-        <v>131</v>
-      </c>
-      <c r="CG118">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="AQ118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY118" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ118" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA118" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC118" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD118" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE118" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF118" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>116</v>
       </c>
-      <c r="C119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI119" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ119" t="s">
-        <v>4</v>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119" t="s">
+        <v>121</v>
+      </c>
+      <c r="F119" t="s">
+        <v>121</v>
+      </c>
+      <c r="G119" t="s">
+        <v>121</v>
+      </c>
+      <c r="H119" t="s">
+        <v>121</v>
+      </c>
+      <c r="I119" t="s">
+        <v>121</v>
+      </c>
+      <c r="J119" t="s">
+        <v>121</v>
+      </c>
+      <c r="K119" t="s">
+        <v>121</v>
+      </c>
+      <c r="L119" t="s">
+        <v>121</v>
+      </c>
+      <c r="M119" t="s">
+        <v>121</v>
+      </c>
+      <c r="W119" t="s">
+        <v>121</v>
+      </c>
+      <c r="X119" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF119" t="s">
+        <v>121</v>
       </c>
       <c r="AK119" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL119" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM119" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN119" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO119" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP119" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB119" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI119">
-        <v>130</v>
-      </c>
-      <c r="BJ119">
-        <v>4</v>
-      </c>
-      <c r="BK119">
-        <v>5</v>
-      </c>
-      <c r="BL119">
-        <v>6</v>
-      </c>
-      <c r="BM119">
-        <v>7</v>
-      </c>
-      <c r="BN119">
-        <v>8</v>
-      </c>
-      <c r="BO119">
-        <v>9</v>
-      </c>
-      <c r="BP119">
-        <v>10</v>
-      </c>
-      <c r="BQ119">
-        <v>11</v>
-      </c>
-      <c r="BV119">
-        <v>12</v>
-      </c>
-      <c r="BX119">
-        <v>13</v>
-      </c>
-      <c r="BY119">
-        <v>14</v>
-      </c>
-      <c r="BZ119">
-        <v>15</v>
-      </c>
-      <c r="CA119">
-        <v>16</v>
-      </c>
-      <c r="CB119">
-        <v>17</v>
-      </c>
-      <c r="CD119">
-        <v>133</v>
-      </c>
-      <c r="CG119">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="AQ119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY119" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ119" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA119" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC119" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD119" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE119" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF119" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>117</v>
       </c>
-      <c r="AN120" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP120" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB120" t="s">
-        <v>220</v>
-      </c>
-      <c r="CG120">
-        <v>134</v>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="E120" t="s">
+        <v>85</v>
+      </c>
+      <c r="F120" t="s">
+        <v>85</v>
+      </c>
+      <c r="G120" t="s">
+        <v>85</v>
+      </c>
+      <c r="H120" t="s">
+        <v>85</v>
+      </c>
+      <c r="I120" t="s">
+        <v>85</v>
+      </c>
+      <c r="J120" t="s">
+        <v>85</v>
+      </c>
+      <c r="K120" t="s">
+        <v>85</v>
+      </c>
+      <c r="L120" t="s">
+        <v>85</v>
+      </c>
+      <c r="M120" t="s">
+        <v>85</v>
+      </c>
+      <c r="W120" t="s">
+        <v>85</v>
+      </c>
+      <c r="X120" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AS120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY120" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ120" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA120" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC120" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD120" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE120" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF120" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>118</v>
       </c>
-      <c r="E121" t="s">
-        <v>24</v>
-      </c>
-      <c r="F121" t="s">
-        <v>25</v>
-      </c>
-      <c r="G121" t="s">
-        <v>26</v>
-      </c>
-      <c r="H121" t="s">
-        <v>27</v>
-      </c>
-      <c r="I121" t="s">
-        <v>28</v>
-      </c>
-      <c r="J121" t="s">
-        <v>29</v>
-      </c>
-      <c r="K121" t="s">
-        <v>30</v>
-      </c>
-      <c r="L121" t="s">
-        <v>31</v>
-      </c>
-      <c r="M121" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF121" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ121" t="s">
-        <v>93</v>
-      </c>
-      <c r="AY121" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA121" t="s">
-        <v>43</v>
-      </c>
-      <c r="BT121">
-        <v>137</v>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX121" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF121" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>119</v>
       </c>
-      <c r="AQ122" t="s">
-        <v>239</v>
+      <c r="AF122" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>120</v>
       </c>
-      <c r="AQ123" t="s">
-        <v>206</v>
+      <c r="B123" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX123" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF123" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>121</v>
       </c>
-      <c r="AQ124" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT124" t="s">
-        <v>128</v>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG124" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK124" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX124" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF124" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE124">
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:85" x14ac:dyDescent="0.25">
@@ -6156,20 +6345,65 @@
       <c r="D125" t="s">
         <v>1</v>
       </c>
+      <c r="AE125" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ125" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN125" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO125" t="s">
+        <v>8</v>
+      </c>
       <c r="AP125" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ125" t="s">
-        <v>222</v>
+        <v>9</v>
       </c>
       <c r="BB125" t="s">
-        <v>227</v>
+        <v>10</v>
+      </c>
+      <c r="BH125">
+        <v>138</v>
+      </c>
+      <c r="BI125">
+        <v>3</v>
+      </c>
+      <c r="BJ125">
+        <v>4</v>
+      </c>
+      <c r="BK125">
+        <v>5</v>
+      </c>
+      <c r="BL125">
+        <v>6</v>
+      </c>
+      <c r="BM125">
+        <v>7</v>
+      </c>
+      <c r="BN125">
+        <v>8</v>
+      </c>
+      <c r="BO125">
+        <v>9</v>
+      </c>
+      <c r="BP125">
+        <v>10</v>
       </c>
       <c r="BQ125">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="BV125">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="BX125">
         <v>13</v>
@@ -6178,13 +6412,16 @@
         <v>14</v>
       </c>
       <c r="BZ125">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="CA125">
         <v>16</v>
       </c>
       <c r="CB125">
         <v>17</v>
+      </c>
+      <c r="CG125">
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:85" x14ac:dyDescent="0.25">
@@ -6192,312 +6429,147 @@
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="AH126" t="s">
+        <v>209</v>
       </c>
       <c r="AK126" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ126" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AX126" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC126" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="BF126" t="s">
+        <v>139</v>
+      </c>
+      <c r="CF126">
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>124</v>
       </c>
-      <c r="B127" t="s">
-        <v>85</v>
-      </c>
-      <c r="E127" t="s">
-        <v>85</v>
-      </c>
-      <c r="F127" t="s">
-        <v>85</v>
-      </c>
-      <c r="G127" t="s">
-        <v>85</v>
-      </c>
-      <c r="H127" t="s">
-        <v>85</v>
-      </c>
-      <c r="I127" t="s">
-        <v>85</v>
-      </c>
-      <c r="J127" t="s">
-        <v>85</v>
-      </c>
-      <c r="K127" t="s">
-        <v>85</v>
-      </c>
-      <c r="L127" t="s">
-        <v>85</v>
-      </c>
-      <c r="M127" t="s">
-        <v>85</v>
-      </c>
-      <c r="W127" t="s">
-        <v>85</v>
-      </c>
-      <c r="X127" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z127" t="s">
-        <v>85</v>
-      </c>
       <c r="AF127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AW127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY127" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ127" t="s">
-        <v>85</v>
-      </c>
-      <c r="BA127" t="s">
-        <v>85</v>
-      </c>
-      <c r="BC127" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD127" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE127" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>125</v>
       </c>
-      <c r="B128" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK128" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ128" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT128" t="s">
-        <v>141</v>
-      </c>
-      <c r="AX128" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC128" t="s">
-        <v>141</v>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP128" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB128" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ128">
+        <v>142</v>
+      </c>
+      <c r="BV128">
+        <v>82</v>
+      </c>
+      <c r="BX128">
+        <v>13</v>
+      </c>
+      <c r="BY128">
+        <v>14</v>
+      </c>
+      <c r="BZ128">
+        <v>83</v>
+      </c>
+      <c r="CA128">
+        <v>16</v>
+      </c>
+      <c r="CB128">
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>126</v>
       </c>
-      <c r="B129" t="s">
-        <v>84</v>
-      </c>
-      <c r="E129" t="s">
-        <v>84</v>
-      </c>
-      <c r="F129" t="s">
-        <v>84</v>
-      </c>
-      <c r="G129" t="s">
-        <v>84</v>
-      </c>
-      <c r="H129" t="s">
-        <v>84</v>
-      </c>
-      <c r="I129" t="s">
-        <v>84</v>
-      </c>
-      <c r="J129" t="s">
-        <v>84</v>
-      </c>
-      <c r="K129" t="s">
-        <v>84</v>
-      </c>
-      <c r="L129" t="s">
-        <v>84</v>
-      </c>
-      <c r="M129" t="s">
-        <v>84</v>
-      </c>
-      <c r="W129" t="s">
-        <v>84</v>
-      </c>
-      <c r="X129" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y129" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AW129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY129" t="s">
-        <v>84</v>
-      </c>
-      <c r="AZ129" t="s">
-        <v>84</v>
-      </c>
-      <c r="BA129" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC129" t="s">
-        <v>84</v>
-      </c>
-      <c r="BD129" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE129" t="s">
-        <v>84</v>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP129" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB129" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ129">
+        <v>143</v>
+      </c>
+      <c r="BV129">
+        <v>82</v>
+      </c>
+      <c r="BX129">
+        <v>13</v>
+      </c>
+      <c r="BY129">
+        <v>14</v>
+      </c>
+      <c r="BZ129">
+        <v>83</v>
+      </c>
+      <c r="CA129">
+        <v>16</v>
+      </c>
+      <c r="CB129">
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>127</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP130" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB130" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ130">
+        <v>110</v>
+      </c>
+      <c r="BU130">
+        <v>144</v>
+      </c>
+      <c r="BV130">
+        <v>82</v>
+      </c>
+      <c r="BX130">
+        <v>13</v>
+      </c>
+      <c r="BY130">
+        <v>14</v>
+      </c>
+      <c r="BZ130">
         <v>83</v>
       </c>
-      <c r="E130" t="s">
-        <v>83</v>
-      </c>
-      <c r="F130" t="s">
-        <v>83</v>
-      </c>
-      <c r="G130" t="s">
-        <v>83</v>
-      </c>
-      <c r="H130" t="s">
-        <v>83</v>
-      </c>
-      <c r="I130" t="s">
-        <v>83</v>
-      </c>
-      <c r="J130" t="s">
-        <v>83</v>
-      </c>
-      <c r="K130" t="s">
-        <v>83</v>
-      </c>
-      <c r="L130" t="s">
-        <v>83</v>
-      </c>
-      <c r="M130" t="s">
-        <v>83</v>
-      </c>
-      <c r="W130" t="s">
-        <v>83</v>
-      </c>
-      <c r="X130" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y130" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY130" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ130" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA130" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC130" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD130" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE130" t="s">
-        <v>83</v>
+      <c r="CA130">
+        <v>16</v>
+      </c>
+      <c r="CB130">
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:85" x14ac:dyDescent="0.25">
@@ -6505,30 +6577,33 @@
         <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AK131" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ131" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT131" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AX131" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC131" t="s">
-        <v>110</v>
+        <v>65</v>
+      </c>
+      <c r="BF131" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>129</v>
       </c>
-      <c r="AF132" t="s">
-        <v>71</v>
+      <c r="B132" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK132" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX132" t="s">
+        <v>110</v>
+      </c>
+      <c r="BF132" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:85" x14ac:dyDescent="0.25">
@@ -6536,226 +6611,124 @@
         <v>130</v>
       </c>
       <c r="B133" t="s">
-        <v>240</v>
+        <v>145</v>
+      </c>
+      <c r="AF133" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK133" t="s">
+        <v>145</v>
       </c>
       <c r="AX133" t="s">
-        <v>241</v>
+        <v>145</v>
+      </c>
+      <c r="BF133" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>131</v>
       </c>
-      <c r="B134" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG134" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH134" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK134" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX134" t="s">
-        <v>139</v>
-      </c>
-      <c r="CE134">
-        <v>146</v>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ134">
+        <v>77</v>
+      </c>
+      <c r="CA134">
+        <v>78</v>
+      </c>
+      <c r="CC134">
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>132</v>
       </c>
-      <c r="C135" t="s">
-        <v>0</v>
-      </c>
-      <c r="D135" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE135" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI135" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ135" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL135" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM135" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN135" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO135" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP135" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB135" t="s">
-        <v>10</v>
-      </c>
-      <c r="BH135">
-        <v>148</v>
-      </c>
-      <c r="BI135">
-        <v>3</v>
-      </c>
-      <c r="BJ135">
-        <v>4</v>
-      </c>
-      <c r="BK135">
-        <v>5</v>
-      </c>
-      <c r="BL135">
-        <v>6</v>
-      </c>
-      <c r="BM135">
-        <v>7</v>
-      </c>
-      <c r="BN135">
-        <v>8</v>
-      </c>
-      <c r="BO135">
-        <v>9</v>
-      </c>
-      <c r="BP135">
-        <v>10</v>
-      </c>
-      <c r="BQ135">
-        <v>11</v>
-      </c>
-      <c r="BV135">
-        <v>12</v>
-      </c>
-      <c r="BX135">
-        <v>13</v>
-      </c>
-      <c r="BY135">
-        <v>14</v>
-      </c>
-      <c r="BZ135">
-        <v>15</v>
-      </c>
-      <c r="CA135">
-        <v>16</v>
-      </c>
-      <c r="CB135">
-        <v>17</v>
-      </c>
-      <c r="CG135">
-        <v>18</v>
+      <c r="AQ135" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>133</v>
       </c>
-      <c r="B136" t="s">
+      <c r="AF136" t="s">
         <v>210</v>
-      </c>
-      <c r="AH136" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK136" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX136" t="s">
-        <v>210</v>
-      </c>
-      <c r="CF136">
-        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>134</v>
       </c>
-      <c r="AF137" t="s">
-        <v>243</v>
+      <c r="B137" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG137" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH137" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK137" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX137" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF137" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>135</v>
       </c>
-      <c r="C138" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP138" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB138" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ138">
-        <v>152</v>
-      </c>
-      <c r="BV138">
-        <v>83</v>
-      </c>
-      <c r="BX138">
-        <v>13</v>
-      </c>
-      <c r="BY138">
-        <v>14</v>
-      </c>
-      <c r="BZ138">
-        <v>84</v>
-      </c>
-      <c r="CA138">
-        <v>16</v>
-      </c>
-      <c r="CB138">
-        <v>17</v>
+      <c r="B138" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG138" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH138" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK138" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX138" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF138" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>136</v>
       </c>
-      <c r="C139" t="s">
-        <v>0</v>
-      </c>
-      <c r="D139" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP139" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB139" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ139">
-        <v>153</v>
-      </c>
-      <c r="BV139">
-        <v>83</v>
-      </c>
-      <c r="BX139">
-        <v>13</v>
-      </c>
-      <c r="BY139">
-        <v>14</v>
-      </c>
-      <c r="BZ139">
-        <v>84</v>
-      </c>
-      <c r="CA139">
-        <v>16</v>
-      </c>
-      <c r="CB139">
-        <v>17</v>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH139" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK139" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX139" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF139" t="s">
+        <v>139</v>
+      </c>
+      <c r="CF139">
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="1:85" x14ac:dyDescent="0.25">
@@ -6769,19 +6742,19 @@
         <v>1</v>
       </c>
       <c r="AP140" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="BB140" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="BQ140">
-        <v>118</v>
-      </c>
-      <c r="BU140">
-        <v>154</v>
+        <v>80</v>
+      </c>
+      <c r="BS140">
+        <v>149</v>
       </c>
       <c r="BV140">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BX140">
         <v>13</v>
@@ -6790,7 +6763,7 @@
         <v>14</v>
       </c>
       <c r="BZ140">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="CA140">
         <v>16</v>
@@ -6804,22 +6777,22 @@
         <v>138</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="AG141" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH141" t="s">
+        <v>133</v>
       </c>
       <c r="AK141" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ141" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT141" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AX141" t="s">
-        <v>130</v>
-      </c>
-      <c r="BC141" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="BF141" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:85" x14ac:dyDescent="0.25">
@@ -6827,48 +6800,57 @@
         <v>139</v>
       </c>
       <c r="B142" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="AK142" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ142" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT142" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="AX142" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC142" t="s">
-        <v>65</v>
+        <v>144</v>
+      </c>
+      <c r="BF142" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>140</v>
       </c>
-      <c r="B143" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF143" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK143" t="s">
-        <v>225</v>
-      </c>
-      <c r="AQ143" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT143" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX143" t="s">
-        <v>225</v>
-      </c>
-      <c r="BC143" t="s">
-        <v>225</v>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP143" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB143" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ143">
+        <v>80</v>
+      </c>
+      <c r="BS143">
+        <v>150</v>
+      </c>
+      <c r="BV143">
+        <v>82</v>
+      </c>
+      <c r="BX143">
+        <v>13</v>
+      </c>
+      <c r="BY143">
+        <v>14</v>
+      </c>
+      <c r="BZ143">
+        <v>83</v>
+      </c>
+      <c r="CA143">
+        <v>16</v>
+      </c>
+      <c r="CB143">
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:85" x14ac:dyDescent="0.25">
@@ -6881,14 +6863,86 @@
       <c r="D144" t="s">
         <v>1</v>
       </c>
+      <c r="AE144" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL144" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM144" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN144" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO144" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP144" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB144" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI144">
+        <v>120</v>
+      </c>
+      <c r="BJ144">
+        <v>4</v>
+      </c>
+      <c r="BK144">
+        <v>5</v>
+      </c>
+      <c r="BL144">
+        <v>6</v>
+      </c>
+      <c r="BM144">
+        <v>7</v>
+      </c>
+      <c r="BN144">
+        <v>8</v>
+      </c>
+      <c r="BO144">
+        <v>9</v>
+      </c>
+      <c r="BP144">
+        <v>10</v>
+      </c>
+      <c r="BQ144">
+        <v>11</v>
+      </c>
+      <c r="BV144">
+        <v>12</v>
+      </c>
+      <c r="BX144">
+        <v>13</v>
+      </c>
+      <c r="BY144">
+        <v>14</v>
+      </c>
       <c r="BZ144">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="CA144">
-        <v>79</v>
-      </c>
-      <c r="CC144">
-        <v>155</v>
+        <v>16</v>
+      </c>
+      <c r="CB144">
+        <v>17</v>
+      </c>
+      <c r="CD144">
+        <v>151</v>
+      </c>
+      <c r="CG144">
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:85" x14ac:dyDescent="0.25">
@@ -6896,75 +6950,45 @@
         <v>142</v>
       </c>
       <c r="AQ145" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>143</v>
       </c>
-      <c r="AF146" t="s">
-        <v>245</v>
+      <c r="BC146" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>144</v>
       </c>
-      <c r="B147" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG147" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH147" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK147" t="s">
-        <v>142</v>
-      </c>
-      <c r="AX147" t="s">
-        <v>142</v>
+      <c r="AF147" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ147" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>145</v>
       </c>
-      <c r="B148" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG148" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH148" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK148" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX148" t="s">
-        <v>127</v>
+      <c r="AQ148" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT148" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>146</v>
       </c>
-      <c r="B149" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH149" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK149" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX149" t="s">
-        <v>210</v>
-      </c>
-      <c r="CF149">
-        <v>158</v>
+      <c r="AF149" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:85" x14ac:dyDescent="0.25">
@@ -6977,20 +7001,65 @@
       <c r="D150" t="s">
         <v>1</v>
       </c>
+      <c r="AE150" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK150" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL150" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM150" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN150" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO150" t="s">
+        <v>8</v>
+      </c>
       <c r="AP150" t="s">
-        <v>214</v>
+        <v>9</v>
       </c>
       <c r="BB150" t="s">
-        <v>227</v>
+        <v>10</v>
+      </c>
+      <c r="BI150">
+        <v>120</v>
+      </c>
+      <c r="BJ150">
+        <v>4</v>
+      </c>
+      <c r="BK150">
+        <v>5</v>
+      </c>
+      <c r="BL150">
+        <v>6</v>
+      </c>
+      <c r="BM150">
+        <v>7</v>
+      </c>
+      <c r="BN150">
+        <v>8</v>
+      </c>
+      <c r="BO150">
+        <v>9</v>
+      </c>
+      <c r="BP150">
+        <v>10</v>
       </c>
       <c r="BQ150">
-        <v>81</v>
-      </c>
-      <c r="BS150">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="BV150">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="BX150">
         <v>13</v>
@@ -6999,13 +7068,19 @@
         <v>14</v>
       </c>
       <c r="BZ150">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="CA150">
         <v>16</v>
       </c>
       <c r="CB150">
         <v>17</v>
+      </c>
+      <c r="CD150">
+        <v>157</v>
+      </c>
+      <c r="CG150">
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:85" x14ac:dyDescent="0.25">
@@ -7013,364 +7088,607 @@
         <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG151" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH151" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="AK151" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="AX151" t="s">
-        <v>126</v>
+        <v>138</v>
+      </c>
+      <c r="BF151" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>149</v>
       </c>
-      <c r="B152" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK152" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX152" t="s">
-        <v>138</v>
+      <c r="AF152" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>150</v>
       </c>
-      <c r="C153" t="s">
-        <v>0</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP153" t="s">
-        <v>214</v>
-      </c>
-      <c r="BB153" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ153">
-        <v>81</v>
-      </c>
-      <c r="BS153">
-        <v>160</v>
-      </c>
-      <c r="BV153">
-        <v>83</v>
-      </c>
-      <c r="BX153">
-        <v>13</v>
-      </c>
-      <c r="BY153">
-        <v>14</v>
-      </c>
-      <c r="BZ153">
-        <v>84</v>
-      </c>
-      <c r="CA153">
-        <v>16</v>
-      </c>
-      <c r="CB153">
-        <v>17</v>
+      <c r="AF153" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>151</v>
       </c>
-      <c r="C154" t="s">
-        <v>0</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE154" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI154" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ154" t="s">
-        <v>4</v>
+      <c r="B154" t="s">
+        <v>143</v>
       </c>
       <c r="AK154" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL154" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM154" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN154" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO154" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP154" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB154" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI154">
-        <v>130</v>
-      </c>
-      <c r="BJ154">
-        <v>4</v>
-      </c>
-      <c r="BK154">
-        <v>5</v>
-      </c>
-      <c r="BL154">
-        <v>6</v>
-      </c>
-      <c r="BM154">
-        <v>7</v>
-      </c>
-      <c r="BN154">
-        <v>8</v>
-      </c>
-      <c r="BO154">
-        <v>9</v>
-      </c>
-      <c r="BP154">
-        <v>10</v>
-      </c>
-      <c r="BQ154">
-        <v>11</v>
-      </c>
-      <c r="BV154">
-        <v>12</v>
-      </c>
-      <c r="BX154">
-        <v>13</v>
-      </c>
-      <c r="BY154">
-        <v>14</v>
-      </c>
-      <c r="BZ154">
-        <v>15</v>
-      </c>
-      <c r="CA154">
-        <v>16</v>
-      </c>
-      <c r="CB154">
-        <v>17</v>
-      </c>
-      <c r="CD154">
-        <v>161</v>
-      </c>
-      <c r="CG154">
-        <v>18</v>
+        <v>143</v>
+      </c>
+      <c r="AX154" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF154" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>152</v>
       </c>
-      <c r="AQ155" t="s">
-        <v>207</v>
+      <c r="AF155" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>153</v>
       </c>
-      <c r="BC156" t="s">
-        <v>246</v>
+      <c r="AF156" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>154</v>
       </c>
+      <c r="B157" t="s">
+        <v>205</v>
+      </c>
       <c r="AF157" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ157" t="s">
-        <v>92</v>
+        <v>205</v>
+      </c>
+      <c r="AK157" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX157" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF157" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>155</v>
       </c>
-      <c r="AQ158" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT158" t="s">
-        <v>209</v>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ158">
+        <v>77</v>
+      </c>
+      <c r="CA158">
+        <v>78</v>
+      </c>
+      <c r="CC158">
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>156</v>
       </c>
-      <c r="AF159" t="s">
-        <v>224</v>
+      <c r="C159" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK159" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL159" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM159" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN159" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO159" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP159" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB159" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI159">
+        <v>120</v>
+      </c>
+      <c r="BJ159">
+        <v>4</v>
+      </c>
+      <c r="BK159">
+        <v>5</v>
+      </c>
+      <c r="BL159">
+        <v>6</v>
+      </c>
+      <c r="BM159">
+        <v>7</v>
+      </c>
+      <c r="BN159">
+        <v>8</v>
+      </c>
+      <c r="BO159">
+        <v>9</v>
+      </c>
+      <c r="BP159">
+        <v>10</v>
+      </c>
+      <c r="BQ159">
+        <v>11</v>
+      </c>
+      <c r="BV159">
+        <v>12</v>
+      </c>
+      <c r="BX159">
+        <v>13</v>
+      </c>
+      <c r="BY159">
+        <v>14</v>
+      </c>
+      <c r="BZ159">
+        <v>15</v>
+      </c>
+      <c r="CA159">
+        <v>16</v>
+      </c>
+      <c r="CB159">
+        <v>17</v>
+      </c>
+      <c r="CD159">
+        <v>163</v>
+      </c>
+      <c r="CG159">
+        <v>18</v>
       </c>
     </row>
     <row r="160" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>157</v>
       </c>
-      <c r="C160" t="s">
-        <v>0</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE160" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI160" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ160" t="s">
-        <v>4</v>
+      <c r="B160" t="s">
+        <v>115</v>
       </c>
       <c r="AK160" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL160" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM160" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN160" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO160" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP160" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB160" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI160">
-        <v>130</v>
-      </c>
-      <c r="BJ160">
-        <v>4</v>
-      </c>
-      <c r="BK160">
-        <v>5</v>
-      </c>
-      <c r="BL160">
-        <v>6</v>
-      </c>
-      <c r="BM160">
-        <v>7</v>
-      </c>
-      <c r="BN160">
-        <v>8</v>
-      </c>
-      <c r="BO160">
-        <v>9</v>
-      </c>
-      <c r="BP160">
-        <v>10</v>
-      </c>
-      <c r="BQ160">
-        <v>11</v>
-      </c>
-      <c r="BV160">
-        <v>12</v>
-      </c>
-      <c r="BX160">
-        <v>13</v>
-      </c>
-      <c r="BY160">
-        <v>14</v>
-      </c>
-      <c r="BZ160">
-        <v>15</v>
-      </c>
-      <c r="CA160">
-        <v>16</v>
-      </c>
-      <c r="CB160">
-        <v>17</v>
-      </c>
-      <c r="CD160">
-        <v>167</v>
-      </c>
-      <c r="CG160">
-        <v>18</v>
+        <v>115</v>
+      </c>
+      <c r="AX160" t="s">
+        <v>115</v>
+      </c>
+      <c r="BF160" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="161" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>158</v>
       </c>
-      <c r="B161" t="s">
-        <v>135</v>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>4</v>
       </c>
       <c r="AK161" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX161" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN161" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO161" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP161" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB161" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI161">
+        <v>120</v>
+      </c>
+      <c r="BJ161">
+        <v>4</v>
+      </c>
+      <c r="BK161">
+        <v>5</v>
+      </c>
+      <c r="BL161">
+        <v>6</v>
+      </c>
+      <c r="BM161">
+        <v>7</v>
+      </c>
+      <c r="BN161">
+        <v>8</v>
+      </c>
+      <c r="BO161">
+        <v>9</v>
+      </c>
+      <c r="BP161">
+        <v>10</v>
+      </c>
+      <c r="BQ161">
+        <v>11</v>
+      </c>
+      <c r="BV161">
+        <v>12</v>
+      </c>
+      <c r="BX161">
+        <v>13</v>
+      </c>
+      <c r="BY161">
+        <v>14</v>
+      </c>
+      <c r="BZ161">
+        <v>15</v>
+      </c>
+      <c r="CA161">
+        <v>16</v>
+      </c>
+      <c r="CB161">
+        <v>17</v>
+      </c>
+      <c r="CD161">
+        <v>164</v>
+      </c>
+      <c r="CG161">
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>159</v>
       </c>
-      <c r="AF162" t="s">
-        <v>247</v>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK162" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM162" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN162" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO162" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP162" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB162" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI162">
+        <v>120</v>
+      </c>
+      <c r="BJ162">
+        <v>4</v>
+      </c>
+      <c r="BK162">
+        <v>5</v>
+      </c>
+      <c r="BL162">
+        <v>6</v>
+      </c>
+      <c r="BM162">
+        <v>7</v>
+      </c>
+      <c r="BN162">
+        <v>8</v>
+      </c>
+      <c r="BO162">
+        <v>9</v>
+      </c>
+      <c r="BP162">
+        <v>10</v>
+      </c>
+      <c r="BQ162">
+        <v>11</v>
+      </c>
+      <c r="BV162">
+        <v>12</v>
+      </c>
+      <c r="BX162">
+        <v>13</v>
+      </c>
+      <c r="BY162">
+        <v>14</v>
+      </c>
+      <c r="BZ162">
+        <v>15</v>
+      </c>
+      <c r="CA162">
+        <v>16</v>
+      </c>
+      <c r="CB162">
+        <v>17</v>
+      </c>
+      <c r="CD162">
+        <v>165</v>
+      </c>
+      <c r="CG162">
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>160</v>
       </c>
-      <c r="AF163" t="s">
-        <v>248</v>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK163" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM163" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN163" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO163" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP163" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB163" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI163">
+        <v>120</v>
+      </c>
+      <c r="BJ163">
+        <v>4</v>
+      </c>
+      <c r="BK163">
+        <v>5</v>
+      </c>
+      <c r="BL163">
+        <v>6</v>
+      </c>
+      <c r="BM163">
+        <v>7</v>
+      </c>
+      <c r="BN163">
+        <v>8</v>
+      </c>
+      <c r="BO163">
+        <v>9</v>
+      </c>
+      <c r="BP163">
+        <v>10</v>
+      </c>
+      <c r="BQ163">
+        <v>11</v>
+      </c>
+      <c r="BV163">
+        <v>12</v>
+      </c>
+      <c r="BX163">
+        <v>13</v>
+      </c>
+      <c r="BY163">
+        <v>14</v>
+      </c>
+      <c r="BZ163">
+        <v>15</v>
+      </c>
+      <c r="CA163">
+        <v>16</v>
+      </c>
+      <c r="CB163">
+        <v>17</v>
+      </c>
+      <c r="CD163">
+        <v>166</v>
+      </c>
+      <c r="CG163">
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>161</v>
       </c>
-      <c r="B164" t="s">
-        <v>144</v>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>4</v>
       </c>
       <c r="AK164" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX164" t="s">
-        <v>144</v>
+        <v>118</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN164" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO164" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP164" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB164" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI164">
+        <v>120</v>
+      </c>
+      <c r="BJ164">
+        <v>4</v>
+      </c>
+      <c r="BK164">
+        <v>5</v>
+      </c>
+      <c r="BL164">
+        <v>6</v>
+      </c>
+      <c r="BM164">
+        <v>7</v>
+      </c>
+      <c r="BN164">
+        <v>8</v>
+      </c>
+      <c r="BO164">
+        <v>9</v>
+      </c>
+      <c r="BP164">
+        <v>10</v>
+      </c>
+      <c r="BQ164">
+        <v>11</v>
+      </c>
+      <c r="BV164">
+        <v>12</v>
+      </c>
+      <c r="BX164">
+        <v>13</v>
+      </c>
+      <c r="BY164">
+        <v>14</v>
+      </c>
+      <c r="BZ164">
+        <v>15</v>
+      </c>
+      <c r="CA164">
+        <v>16</v>
+      </c>
+      <c r="CB164">
+        <v>17</v>
+      </c>
+      <c r="CD164">
+        <v>167</v>
+      </c>
+      <c r="CG164">
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>162</v>
       </c>
-      <c r="AF165" t="s">
-        <v>249</v>
+      <c r="AQ165" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="166" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>163</v>
       </c>
-      <c r="AF166" t="s">
-        <v>250</v>
+      <c r="B166" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX166" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF166" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:85" x14ac:dyDescent="0.25">
@@ -7378,137 +7696,59 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF167" t="s">
-        <v>251</v>
+        <v>127</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>127</v>
       </c>
       <c r="AK167" t="s">
-        <v>251</v>
-      </c>
-      <c r="AQ167" t="s">
-        <v>251</v>
-      </c>
-      <c r="AT167" t="s">
-        <v>251</v>
+        <v>127</v>
       </c>
       <c r="AX167" t="s">
-        <v>251</v>
-      </c>
-      <c r="BC167" t="s">
-        <v>251</v>
+        <v>127</v>
+      </c>
+      <c r="BF167" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE167">
+        <v>169</v>
       </c>
     </row>
     <row r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>165</v>
       </c>
-      <c r="C168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ168">
-        <v>78</v>
-      </c>
-      <c r="CA168">
-        <v>79</v>
-      </c>
-      <c r="CC168">
-        <v>172</v>
+      <c r="B168" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK168" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX168" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF168" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>166</v>
       </c>
-      <c r="C169" t="s">
-        <v>0</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE169" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI169" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ169" t="s">
-        <v>4</v>
+      <c r="B169" t="s">
+        <v>130</v>
       </c>
       <c r="AK169" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL169" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM169" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN169" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO169" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP169" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB169" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI169">
         <v>130</v>
       </c>
-      <c r="BJ169">
-        <v>4</v>
-      </c>
-      <c r="BK169">
-        <v>5</v>
-      </c>
-      <c r="BL169">
-        <v>6</v>
-      </c>
-      <c r="BM169">
-        <v>7</v>
-      </c>
-      <c r="BN169">
-        <v>8</v>
-      </c>
-      <c r="BO169">
-        <v>9</v>
-      </c>
-      <c r="BP169">
-        <v>10</v>
-      </c>
-      <c r="BQ169">
-        <v>11</v>
-      </c>
-      <c r="BV169">
-        <v>12</v>
-      </c>
-      <c r="BX169">
-        <v>13</v>
-      </c>
-      <c r="BY169">
-        <v>14</v>
-      </c>
-      <c r="BZ169">
-        <v>15</v>
-      </c>
-      <c r="CA169">
-        <v>16</v>
-      </c>
-      <c r="CB169">
-        <v>17</v>
-      </c>
-      <c r="CD169">
-        <v>173</v>
-      </c>
-      <c r="CG169">
-        <v>18</v>
+      <c r="AX169" t="s">
+        <v>130</v>
+      </c>
+      <c r="BF169" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:85" x14ac:dyDescent="0.25">
@@ -7516,288 +7756,150 @@
         <v>167</v>
       </c>
       <c r="B170" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AK170" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AX170" t="s">
-        <v>121</v>
+        <v>129</v>
+      </c>
+      <c r="BF170" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>168</v>
       </c>
-      <c r="C171" t="s">
-        <v>0</v>
-      </c>
-      <c r="D171" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE171" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI171" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ171" t="s">
-        <v>4</v>
+      <c r="B171" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>211</v>
       </c>
       <c r="AK171" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL171" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM171" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN171" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO171" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP171" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB171" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI171">
-        <v>130</v>
-      </c>
-      <c r="BJ171">
-        <v>4</v>
-      </c>
-      <c r="BK171">
-        <v>5</v>
-      </c>
-      <c r="BL171">
-        <v>6</v>
-      </c>
-      <c r="BM171">
-        <v>7</v>
-      </c>
-      <c r="BN171">
-        <v>8</v>
-      </c>
-      <c r="BO171">
-        <v>9</v>
-      </c>
-      <c r="BP171">
-        <v>10</v>
-      </c>
-      <c r="BQ171">
-        <v>11</v>
-      </c>
-      <c r="BV171">
-        <v>12</v>
-      </c>
-      <c r="BX171">
-        <v>13</v>
-      </c>
-      <c r="BY171">
-        <v>14</v>
-      </c>
-      <c r="BZ171">
-        <v>15</v>
-      </c>
-      <c r="CA171">
-        <v>16</v>
-      </c>
-      <c r="CB171">
-        <v>17</v>
-      </c>
-      <c r="CD171">
-        <v>174</v>
-      </c>
-      <c r="CG171">
-        <v>18</v>
+        <v>211</v>
+      </c>
+      <c r="AX171" t="s">
+        <v>211</v>
+      </c>
+      <c r="BF171" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="172" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>169</v>
       </c>
-      <c r="C172" t="s">
-        <v>0</v>
-      </c>
-      <c r="D172" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE172" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI172" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ172" t="s">
-        <v>4</v>
+      <c r="B172" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>142</v>
       </c>
       <c r="AK172" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL172" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM172" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN172" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO172" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP172" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB172" t="s">
-        <v>10</v>
-      </c>
-      <c r="BI172">
-        <v>130</v>
-      </c>
-      <c r="BJ172">
-        <v>4</v>
-      </c>
-      <c r="BK172">
-        <v>5</v>
-      </c>
-      <c r="BL172">
-        <v>6</v>
-      </c>
-      <c r="BM172">
-        <v>7</v>
-      </c>
-      <c r="BN172">
-        <v>8</v>
-      </c>
-      <c r="BO172">
-        <v>9</v>
-      </c>
-      <c r="BP172">
-        <v>10</v>
-      </c>
-      <c r="BQ172">
-        <v>11</v>
-      </c>
-      <c r="BV172">
-        <v>12</v>
-      </c>
-      <c r="BX172">
-        <v>13</v>
-      </c>
-      <c r="BY172">
-        <v>14</v>
-      </c>
-      <c r="BZ172">
-        <v>15</v>
-      </c>
-      <c r="CA172">
-        <v>16</v>
-      </c>
-      <c r="CB172">
-        <v>17</v>
-      </c>
-      <c r="CD172">
-        <v>175</v>
-      </c>
-      <c r="CG172">
-        <v>18</v>
+        <v>142</v>
+      </c>
+      <c r="AX172" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF172" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>170</v>
       </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
       <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA173" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF173" t="s">
         <v>0</v>
       </c>
-      <c r="D173" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE173" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI173" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ173" t="s">
+      <c r="BH173">
+        <v>130</v>
+      </c>
+      <c r="BI173">
         <v>4</v>
       </c>
-      <c r="AK173" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL173" t="s">
+      <c r="BJ173">
         <v>5</v>
       </c>
-      <c r="AM173" t="s">
+      <c r="BK173">
         <v>6</v>
       </c>
-      <c r="AN173" t="s">
+      <c r="BL173">
         <v>7</v>
       </c>
-      <c r="AO173" t="s">
+      <c r="BM173">
         <v>8</v>
       </c>
-      <c r="AP173" t="s">
+      <c r="BN173">
         <v>9</v>
       </c>
-      <c r="BB173" t="s">
+      <c r="BO173">
         <v>10</v>
       </c>
-      <c r="BI173">
-        <v>130</v>
-      </c>
-      <c r="BJ173">
-        <v>4</v>
-      </c>
-      <c r="BK173">
-        <v>5</v>
-      </c>
-      <c r="BL173">
-        <v>6</v>
-      </c>
-      <c r="BM173">
-        <v>7</v>
-      </c>
-      <c r="BN173">
-        <v>8</v>
-      </c>
-      <c r="BO173">
-        <v>9</v>
-      </c>
       <c r="BP173">
-        <v>10</v>
-      </c>
-      <c r="BQ173">
         <v>11</v>
       </c>
-      <c r="BV173">
+      <c r="BU173">
         <v>12</v>
       </c>
+      <c r="BW173">
+        <v>13</v>
+      </c>
       <c r="BX173">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BY173">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BZ173">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CA173">
-        <v>16</v>
-      </c>
-      <c r="CB173">
         <v>17</v>
       </c>
-      <c r="CD173">
+      <c r="CC173">
         <v>176</v>
       </c>
-      <c r="CG173">
+      <c r="CF173">
         <v>18</v>
       </c>
     </row>
@@ -7805,91 +7907,94 @@
       <c r="A174" s="3">
         <v>171</v>
       </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
       <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA174" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF174" t="s">
         <v>0</v>
       </c>
-      <c r="D174" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE174" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI174" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ174" t="s">
+      <c r="BH174">
+        <v>130</v>
+      </c>
+      <c r="BI174">
         <v>4</v>
       </c>
-      <c r="AK174" t="s">
-        <v>205</v>
-      </c>
-      <c r="AL174" t="s">
+      <c r="BJ174">
         <v>5</v>
       </c>
-      <c r="AM174" t="s">
+      <c r="BK174">
         <v>6</v>
       </c>
-      <c r="AN174" t="s">
+      <c r="BL174">
         <v>7</v>
       </c>
-      <c r="AO174" t="s">
+      <c r="BM174">
         <v>8</v>
       </c>
-      <c r="AP174" t="s">
+      <c r="BN174">
         <v>9</v>
       </c>
-      <c r="BB174" t="s">
+      <c r="BO174">
         <v>10</v>
       </c>
-      <c r="BI174">
-        <v>130</v>
-      </c>
-      <c r="BJ174">
-        <v>4</v>
-      </c>
-      <c r="BK174">
-        <v>5</v>
-      </c>
-      <c r="BL174">
-        <v>6</v>
-      </c>
-      <c r="BM174">
-        <v>7</v>
-      </c>
-      <c r="BN174">
-        <v>8</v>
-      </c>
-      <c r="BO174">
-        <v>9</v>
-      </c>
       <c r="BP174">
-        <v>10</v>
-      </c>
-      <c r="BQ174">
         <v>11</v>
       </c>
-      <c r="BV174">
+      <c r="BU174">
         <v>12</v>
       </c>
+      <c r="BW174">
+        <v>13</v>
+      </c>
       <c r="BX174">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BY174">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BZ174">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CA174">
-        <v>16</v>
-      </c>
-      <c r="CB174">
         <v>17</v>
       </c>
-      <c r="CD174">
+      <c r="CC174">
         <v>177</v>
       </c>
-      <c r="CG174">
+      <c r="CF174">
         <v>18</v>
       </c>
     </row>
@@ -7897,118 +8002,118 @@
       <c r="A175" s="3">
         <v>172</v>
       </c>
-      <c r="AQ175" t="s">
-        <v>252</v>
+      <c r="AP175" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>173</v>
       </c>
-      <c r="B176" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK176" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX176" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="177" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="AJ176" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW176" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE176" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="177" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>174</v>
       </c>
-      <c r="B177" t="s">
-        <v>139</v>
+      <c r="AF177" t="s">
+        <v>210</v>
       </c>
       <c r="AG177" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH177" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK177" t="s">
-        <v>139</v>
-      </c>
-      <c r="AX177" t="s">
-        <v>139</v>
-      </c>
-      <c r="CE177">
+        <v>145</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW177" t="s">
+        <v>145</v>
+      </c>
+      <c r="BE177" t="s">
+        <v>145</v>
+      </c>
+      <c r="CD177">
         <v>179</v>
       </c>
     </row>
-    <row r="178" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>175</v>
       </c>
-      <c r="B178" t="s">
-        <v>145</v>
-      </c>
-      <c r="AK178" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX178" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="179" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+      <c r="AJ178" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW178" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE178" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="AJ179" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW179" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE179" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="180" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="AJ180" t="s">
         <v>129</v>
       </c>
-      <c r="AK179" t="s">
+      <c r="AW180" t="s">
         <v>129</v>
       </c>
-      <c r="AX179" t="s">
+      <c r="BE180" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="180" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>143</v>
-      </c>
-      <c r="AK180" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX180" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="181" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF181" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK181" t="s">
-        <v>253</v>
-      </c>
-      <c r="AQ181" t="s">
-        <v>253</v>
-      </c>
-      <c r="AT181" t="s">
-        <v>253</v>
-      </c>
-      <c r="AX181" t="s">
-        <v>253</v>
-      </c>
-      <c r="BC181" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="182" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH182" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK182" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX182" t="s">
-        <v>131</v>
+    <row r="181" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="AE181" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP181" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS181" t="s">
+        <v>245</v>
+      </c>
+      <c r="AW181" t="s">
+        <v>245</v>
+      </c>
+      <c r="BB181" t="s">
+        <v>245</v>
+      </c>
+      <c r="BE181" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:82" x14ac:dyDescent="0.25">
+      <c r="AG182" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW182" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE182" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
